--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2a9e946ecd1f9e6/DNP - Guía de buenas practicas Genero - IA/Seguimiento técnico -contrato 1104-2024 DNP/Entregables/Entregable 3/Árbol de decisión/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{D4A6E784-F98D-4FAC-A4C6-E98783F1CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D2AB24-A3A5-4A13-849E-D7D20B031386}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{D4A6E784-F98D-4FAC-A4C6-E98783F1CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E98A7C-07CB-4F8F-8553-22BDEB2CD0D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guía" sheetId="11" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="628">
   <si>
     <t>ID</t>
   </si>
@@ -2920,6 +2920,9 @@
   </si>
   <si>
     <t>Mantener la medida xx</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -3765,18 +3768,18 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="55"/>
-    <col min="2" max="2" width="22.28515625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="55"/>
+    <col min="2" max="2" width="22.33203125" style="55" customWidth="1"/>
     <col min="3" max="3" width="29" style="55" customWidth="1"/>
-    <col min="4" max="5" width="93.42578125" style="55" customWidth="1"/>
+    <col min="4" max="5" width="93.44140625" style="55" customWidth="1"/>
     <col min="6" max="6" width="23" style="55" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="55" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="55"/>
+    <col min="7" max="7" width="29.44140625" style="55" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="60" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="60" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>6</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>13</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>16</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>20</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>23</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>27</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>32</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>35</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>38</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>41</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>45</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>49</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>53</v>
       </c>
@@ -4098,7 +4101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>57</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>60</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>63</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>67</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>70</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>74</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>77</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>81</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>84</v>
       </c>
@@ -4305,7 +4308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>87</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
         <v>6</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>13</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>16</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>20</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>23</v>
       </c>
@@ -4447,26 +4450,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="249.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="249.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="18.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="4" width="18.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="65" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="26" style="2" customWidth="1"/>
-    <col min="8" max="8" width="52.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="52.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="23" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="32.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
@@ -4492,13 +4495,13 @@
         <v>109</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>110</v>
+        <v>627</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="138" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4562,7 +4565,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="296.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="296.10000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="216.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="216.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="207.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="207.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4691,7 +4694,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="257.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4755,7 +4758,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="271.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="228.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="228.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4819,7 +4822,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="191.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="191.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -5012,7 +5015,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -5140,19 +5143,19 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
@@ -5213,14 +5216,14 @@
       <selection pane="bottomLeft" activeCell="A45" sqref="A45:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81" style="7" customWidth="1"/>
     <col min="2" max="2" width="53" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>103</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>112</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>112</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>112</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>112</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>121</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>121</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>121</v>
       </c>
@@ -5284,7 +5287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>130</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>130</v>
       </c>
@@ -5300,7 +5303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>130</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>130</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>137</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>137</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>154</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>154</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>154</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>145</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>145</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>161</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>161</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>168</v>
       </c>
@@ -5396,7 +5399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>168</v>
       </c>
@@ -5404,7 +5407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>168</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>168</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>168</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>177</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>177</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>177</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>177</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>191</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>191</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>191</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>198</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>198</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>198</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>198</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>198</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>206</v>
       </c>
@@ -5532,7 +5535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>206</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>206</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>214</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>223</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>223</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>231</v>
       </c>
@@ -5580,7 +5583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>231</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>231</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>231</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>272</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>272</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>272</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>238</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>238</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>246</v>
       </c>
@@ -5652,7 +5655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>246</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>254</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>254</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>262</v>
       </c>
@@ -5684,67 +5687,67 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
     </row>
@@ -5781,14 +5784,14 @@
       <selection pane="bottomLeft" activeCell="A65" sqref="A65:A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82" style="7" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="2" max="2" width="47.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>103</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>112</v>
       </c>
@@ -5804,7 +5807,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>112</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>112</v>
       </c>
@@ -5820,7 +5823,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>112</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>112</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>112</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>121</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>121</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>121</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>130</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>130</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>130</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>130</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>137</v>
       </c>
@@ -5916,7 +5919,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>137</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>137</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>137</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>145</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>145</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>145</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>145</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>154</v>
       </c>
@@ -5980,7 +5983,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>154</v>
       </c>
@@ -5988,7 +5991,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>154</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>154</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>154</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>161</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>161</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>161</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>161</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>161</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>161</v>
       </c>
@@ -6060,7 +6063,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>161</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>168</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>168</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>168</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>168</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>168</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>177</v>
       </c>
@@ -6116,7 +6119,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>177</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>177</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>177</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>185</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>185</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>185</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>191</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>191</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>191</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>198</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>198</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>198</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>206</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>206</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>206</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>206</v>
       </c>
@@ -6244,7 +6247,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>206</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>214</v>
       </c>
@@ -6260,7 +6263,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>214</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>214</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>223</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>223</v>
       </c>
@@ -6292,7 +6295,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>223</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>231</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>231</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>231</v>
       </c>
@@ -6324,7 +6327,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>231</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>231</v>
       </c>
@@ -6340,7 +6343,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>231</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>231</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>272</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>272</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>272</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>238</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>238</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>238</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>238</v>
       </c>
@@ -6412,7 +6415,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>238</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>246</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>246</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>246</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>254</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>254</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>254</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>254</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>262</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>262</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>262</v>
       </c>
@@ -6500,23 +6503,23 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
     </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
     </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
     </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
     </row>
@@ -6553,14 +6556,14 @@
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81" style="7" customWidth="1"/>
     <col min="2" max="2" width="53" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>103</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>112</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>112</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>112</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>121</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>121</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>121</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>130</v>
       </c>
@@ -6624,7 +6627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>130</v>
       </c>
@@ -6632,7 +6635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>137</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>145</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>154</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>161</v>
       </c>
@@ -6664,7 +6667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>168</v>
       </c>
@@ -6672,7 +6675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>168</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>168</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>177</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>185</v>
       </c>
@@ -6704,7 +6707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>191</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>191</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>198</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>198</v>
       </c>
@@ -6736,7 +6739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>198</v>
       </c>
@@ -6744,7 +6747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>206</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>214</v>
       </c>
@@ -6760,7 +6763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>223</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>231</v>
       </c>
@@ -6776,7 +6779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>231</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>272</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>272</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>238</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>246</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>254</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>262</v>
       </c>
@@ -6865,14 +6868,14 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="98.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="26.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="98.109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>281</v>
       </c>
@@ -6880,7 +6883,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>282</v>
       </c>
@@ -6888,7 +6891,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>106</v>
       </c>
@@ -6896,7 +6899,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>105</v>
       </c>
@@ -6904,7 +6907,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>104</v>
       </c>
@@ -6912,7 +6915,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>287</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>289</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>291</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>4</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>294</v>
       </c>
@@ -6952,7 +6955,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>108</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>297</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>299</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>301</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>303</v>
       </c>
@@ -7001,25 +7004,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA93528-64C0-4424-AA74-D29A95719F58}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="34.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>319</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>324</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>335</v>
       </c>
@@ -7201,7 +7204,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>339</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>344</v>
       </c>
@@ -7253,7 +7256,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>349</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>355</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>360</v>
       </c>
@@ -7331,7 +7334,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -7357,7 +7360,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>370</v>
       </c>
@@ -7383,7 +7386,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>376</v>
       </c>
@@ -7409,7 +7412,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>380</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>385</v>
       </c>
@@ -7461,7 +7464,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -7487,7 +7490,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>396</v>
       </c>
@@ -7513,7 +7516,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>401</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>406</v>
       </c>
@@ -7565,7 +7568,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>411</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>417</v>
       </c>
@@ -7617,7 +7620,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>422</v>
       </c>
@@ -7643,7 +7646,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>427</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>432</v>
       </c>
@@ -7695,7 +7698,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>438</v>
       </c>
@@ -7721,7 +7724,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>443</v>
       </c>
@@ -7747,7 +7750,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>307</v>
       </c>
@@ -7773,7 +7776,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>314</v>
       </c>
@@ -7799,7 +7802,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>324</v>
       </c>
@@ -7851,7 +7854,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>335</v>
       </c>
@@ -7903,7 +7906,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>344</v>
       </c>
@@ -7955,7 +7958,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>349</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>355</v>
       </c>
@@ -8007,7 +8010,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>360</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>365</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>370</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>376</v>
       </c>
@@ -8111,7 +8114,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -8121,7 +8124,7 @@
       <c r="G43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -8131,7 +8134,7 @@
       <c r="G44"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -8141,7 +8144,7 @@
       <c r="G45"/>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -8151,7 +8154,7 @@
       <c r="G46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -8175,18 +8178,18 @@
       <selection pane="bottomLeft" sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="59.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="59" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>523</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
@@ -8211,7 +8214,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>28</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>271</v>
       </c>
@@ -8239,7 +8242,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>54</v>
       </c>
@@ -8248,7 +8251,7 @@
       </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>71</v>
       </c>
@@ -8257,7 +8260,7 @@
       </c>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>78</v>
       </c>
@@ -8266,7 +8269,7 @@
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>528</v>
       </c>
@@ -8275,34 +8278,34 @@
       </c>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="66.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8314,13 +8317,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="12" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="12" width="58.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>102</v>
       </c>
@@ -8356,7 +8359,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="180" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>15</v>
       </c>
@@ -8394,7 +8397,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>17</v>
       </c>
@@ -8432,7 +8435,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="196.2" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>18</v>
       </c>
@@ -8470,7 +8473,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="285" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>10</v>
       </c>
@@ -8506,7 +8509,7 @@
       </c>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="240" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>12</v>
       </c>
@@ -8544,7 +8547,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="195" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>13</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="225" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>592</v>
       </c>
@@ -8620,7 +8623,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="195.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>16</v>
       </c>
@@ -8658,7 +8661,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>22</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2a9e946ecd1f9e6/DNP - Guía de buenas practicas Genero - IA/Seguimiento técnico -contrato 1104-2024 DNP/Entregables/Entregable 3/Catalogo de herramientas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{662770A9-4827-48AE-B5C6-235E17CED894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA6EE9A-8C00-45E2-82F4-C444A1494B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1038" yWindow="1038" windowWidth="7500" windowHeight="6000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1038" yWindow="1038" windowWidth="7500" windowHeight="6000" firstSheet="8" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guía" sheetId="11" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="Árbol" sheetId="7" r:id="rId7"/>
     <sheet name="Árbol_v2" sheetId="12" r:id="rId8"/>
     <sheet name="Tipos de sego" sheetId="13" r:id="rId9"/>
-    <sheet name="Listas" sheetId="2" r:id="rId10"/>
-    <sheet name="Otros" sheetId="10" r:id="rId11"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId10"/>
+    <sheet name="Listas" sheetId="2" r:id="rId11"/>
+    <sheet name="Otros" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Catálogo de herramientas'!$A$1:$N$1</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="895">
   <si>
     <t>ID</t>
   </si>
@@ -462,15 +463,10 @@
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Planificación y diseño
-Recopilación y tratamiento de datos
-Creación de modelo(s) y/o adaptación de modelo(s)
+    <t>Planificación y diseño,
+Recopilación y tratamiento de datos,
+Creación de modelo(s) y/o adaptación de modelo(s),
 Prueba, evaluación, verificación y validación</t>
-  </si>
-  <si>
-    <t>Identificación
-Prevención
-Mitigación</t>
   </si>
   <si>
     <t>Software</t>
@@ -547,14 +543,14 @@
     <t>https://fairlearn.org/v0.10/_static/fairlearn_full_color.svg</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA
-Grupos de defensa de género
-Académicos e investigadores
-Reguladores y organismos gubernamentales</t>
-  </si>
-  <si>
-    <t>Recopilación y tratamiento de datos
-Creación de modelo(s) y/o adaptación de modelo(s
+    <t>Equipos de desarrollo IA,
+Grupos de defensa de género,
+Académicos e investigadores,
+Reguladores y organismos gubernamentales,</t>
+  </si>
+  <si>
+    <t>Recopilación y tratamiento de datos,
+Creación de modelo(s) y/o adaptación de modelo(s),
 Prueba, evaluación, verificación y validación</t>
   </si>
   <si>
@@ -602,13 +598,7 @@
     <t>https://i0.wp.com/themisml.com.au/wp-content/uploads/2024/03/Themis-Logo.png?resize=300%2C163&amp;ssl=1</t>
   </si>
   <si>
-    <t>Planificación y diseño
-Recopilación y tratamiento de datos
-Creación de modelo(s) y/o adaptación de modelo(s
-Prueba, evaluación, verificación y validación</t>
-  </si>
-  <si>
-    <t>Identificación
+    <t>Identificación,
 Mitigación</t>
   </si>
   <si>
@@ -659,13 +649,13 @@
     <t>https://www.technotification.com/wp-content/uploads/2018/09/googles-what-if-tool-for-analyzing-machine-learning-models-without-writing-any-code-1536x864.png</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA
-Académicos e investigadores
-Empresas tecnológicas
+    <t>Equipos de desarrollo IA,
+Académicos e investigadores,
+Empresas tecnológicas,
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Creación de modelo(s) y/o adaptación de modelo(s
+    <t>Creación de modelo(s) y/o adaptación de modelo(s),
 Prueba, evaluación, verificación y validación</t>
   </si>
   <si>
@@ -724,7 +714,7 @@
     <t>https://opengraph.githubassets.com/17230da2bb71055b155bb371ab9b5b0b307fc71f0d906b7a9b3542ec6f38e1f0/dssg/aequitas</t>
   </si>
   <si>
-    <t>Planificación y diseño
+    <t>Planificación y diseño,
 Prueba, evaluación, verificación y validación</t>
   </si>
   <si>
@@ -798,15 +788,15 @@
     <t>https://raw.githubusercontent.com/shap/shap/master/docs/artwork/shap_header.svg</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA
-Académicos e investigadores
-Empresas tecnológicas
-Usuarios finales afectados
+    <t>Equipos de desarrollo IA,
+Académicos e investigadores,
+Empresas tecnológicas,
+Usuarios finales afectados,
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Creación de modelo(s) y/o adaptación de modelo(s
-Prueba, evaluación, verificación y validación
+    <t>Creación de modelo(s) y/o adaptación de modelo(s),
+Prueba, evaluación, verificación y validación,
 Explotación y supervisión (Monitoreo y ajuste)</t>
   </si>
   <si>
@@ -859,17 +849,22 @@
     <t>https://www.gstatic.com/devrel-devsite/prod/v1d4a4bce9a6f1ad12c0dbb886d406b5bcfdf3882f3026512eb5f609d55157b5b/tensorflow/images/lockup.svg</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA
-Grupos de defensa de género
-Académicos e investigadores
-Empresas tecnológicas
-Reguladores y organismos gubernamentales
-Usuarios finales afectados
+    <t>Equipos de desarrollo IA,
+Grupos de defensa de género,
+Académicos e investigadores,
+Empresas tecnológicas,
+Reguladores y organismos gubernamentales,
+Usuarios finales afectados,
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Prueba, evaluación, verificación y validación
+    <t>Prueba, evaluación, verificación y validación,
 Explotación y supervisión (Monitoreo y ajuste)</t>
+  </si>
+  <si>
+    <t>Identificación,
+Prevención,
+Mitigación</t>
   </si>
   <si>
     <t>Estrellas 343
@@ -925,17 +920,17 @@
     <t>https://www.datakind.org/wp-content/uploads/2023/04/DK_LOGO_R_ORG.svg</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA
-Grupos de defensa de género
-Académicos e investigadores
-Empresas tecnológicas
+    <t>Equipos de desarrollo IA,
+Grupos de defensa de género,
+Académicos e investigadores,
+Empresas tecnológicas,
 Reguladores y organismos gubernamentales</t>
   </si>
   <si>
-    <t>Planificación y diseño
-Recopilación y tratamiento de datos
-Creación de modelo(s) y/o adaptación de modelo(s
-Prueba, evaluación, verificación y validación
+    <t>Planificación y diseño,
+Recopilación y tratamiento de datos,
+Creación de modelo(s) y/o adaptación de modelo(s),
+Prueba, evaluación, verificación y validación,
 Explotación y supervisión (Monitoreo y ajuste)</t>
   </si>
   <si>
@@ -1035,8 +1030,8 @@
     <t>https://raw.githubusercontent.com/adebayoj/fairml/master/doc/images/logo2.png</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA
-Académicos e investigadores
+    <t>Equipos de desarrollo IA,
+Académicos e investigadores,
 Reguladores y organismos gubernamentales</t>
   </si>
   <si>
@@ -1088,12 +1083,7 @@
     <t>Empresas tecnológicas</t>
   </si>
   <si>
-    <t>Recopilación y tratamiento de datos
-Creación de modelo(s) y/o adaptación de modelo(s)
-Prueba, evaluación, verificación y validación</t>
-  </si>
-  <si>
-    <t>Prevención
+    <t>Prevención,
 Mitigación</t>
   </si>
   <si>
@@ -1145,15 +1135,15 @@
     <t>https://th.bing.com/th/id/OIP.-8bdkqiQMDnG0SI71JlxtwHaD4?w=314&amp;h=180&amp;c=7&amp;r=0&amp;o=5&amp;dpr=2.5&amp;pid=1.7</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA
-Académicos e investigadores
+    <t>Equipos de desarrollo IA,
+Académicos e investigadores,
 Empresas tecnológicas</t>
   </si>
   <si>
-    <t>Planificación y diseño
-Creación de modelo(s) y/o adaptación de modelo(s
-Prueba, evaluación, verificación y validación
-Entrada en servicio/despliegue
+    <t>Planificación y diseño,
+Creación de modelo(s) y/o adaptación de modelo(s),
+Prueba, evaluación, verificación y validación,
+Entrada en servicio/despliegue,
 Explotación y supervisión (Monitoreo y ajuste)</t>
   </si>
   <si>
@@ -1357,18 +1347,18 @@
     <t>https://aix360.res.ibm.com/static/images/logo.png</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA
-Grupos de defensa de género
-Académicos e investigadores
-Empresas tecnológicas
-Reguladores y organismos gubernamentales
-Personas usuarias finales
+    <t>Equipos de desarrollo IA,
+Grupos de defensa de género,
+Académicos e investigadores,
+Empresas tecnológicas,
+Reguladores y organismos gubernamentales,
+Personas usuarias finales,
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Planificación y diseño
-Creación de modelo(s) y/o adaptación de modelo(s)
-Prueba, evaluación, verificación y validación
+    <t>Planificación y diseño,
+Creación de modelo(s) y/o adaptación de modelo(s),
+Prueba, evaluación, verificación y validación,
 Explotación y supervisión (Monitoreo y ajuste)</t>
   </si>
   <si>
@@ -2478,79 +2468,415 @@
     <t>Solicitar referencias adicionales o reconsiderar al proveedor.</t>
   </si>
   <si>
-    <t>Ejemplo</t>
-  </si>
-  <si>
-    <t>Sesgo de Representación</t>
-  </si>
-  <si>
-    <t>Los datos de entrenamiento no representan adecuadamente a un grupo específico, como el género.</t>
-  </si>
-  <si>
-    <t>Datos de entrenamiento con nombres mayormente masculinos para calificaciones laborales.</t>
-  </si>
-  <si>
-    <t>Sesgo Histórico</t>
-  </si>
-  <si>
-    <t>Deriva de desigualdades existentes en los datos históricos que reflejan discriminación o prejuicios hacia ciertos géneros.</t>
-  </si>
-  <si>
-    <t>Modelos de IA que perpetúan la brecha salarial de género al usar datos históricos de salarios.</t>
-  </si>
-  <si>
-    <t>Sesgo de Medición</t>
-  </si>
-  <si>
-    <t>Las variables o indicadores utilizados para representar un fenómeno están mal definidos o son subjetivos, generando desigualdades de género.</t>
-  </si>
-  <si>
-    <t>Indicadores que asignan roles tradicionales basados en género en evaluaciones de desempeño.</t>
-  </si>
-  <si>
-    <t>Sesgo de Selección</t>
-  </si>
-  <si>
-    <t>El proceso de recopilación de datos favorece o excluye a un género específico.</t>
-  </si>
-  <si>
-    <t>Encuestas de datos que solo recogen respuestas de hombres debido a un diseño de muestreo excluyente.</t>
-  </si>
-  <si>
-    <t>Sesgo de Interacción</t>
-  </si>
-  <si>
-    <t>Los sistemas responden de manera diferente según el género percibido durante la interacción del usuario.</t>
-  </si>
-  <si>
-    <t>Asistentes virtuales que utilizan tonos femeninos para roles de asistencia o servicio.</t>
-  </si>
-  <si>
-    <t>Sesgo de Algoritmo</t>
-  </si>
-  <si>
-    <t>Los algoritmos están diseñados o parametrizados de manera que favorecen un género sobre otro.</t>
-  </si>
-  <si>
-    <t>Algoritmos de reclutamiento que priorizan candidatos masculinos para roles técnicos.</t>
-  </si>
-  <si>
-    <t>Sesgo de Validación</t>
-  </si>
-  <si>
-    <t>Se utilizan métricas de evaluación que no capturan el impacto desigual en géneros.</t>
-  </si>
-  <si>
-    <t>Pruebas de rendimiento que enmascaran errores más frecuentes para mujeres al no segmentar por género.</t>
-  </si>
-  <si>
-    <t>Sesgo de Omisión</t>
-  </si>
-  <si>
-    <t>Los datos no incluyen variables importantes relacionadas con el género.</t>
-  </si>
-  <si>
-    <t>Excluir género como una variable explícita en análisis donde podría ser crucial para evitar sesgos.</t>
+    <t>Proposito</t>
+  </si>
+  <si>
+    <t>Opcion1</t>
+  </si>
+  <si>
+    <t>Mensaje1</t>
+  </si>
+  <si>
+    <t>Destino1</t>
+  </si>
+  <si>
+    <t>Opcion2</t>
+  </si>
+  <si>
+    <t>Mensaje2</t>
+  </si>
+  <si>
+    <t>Destino2</t>
+  </si>
+  <si>
+    <t>¿Cuál es el propósito principal de tu interacción con una solución de inteligencia artificial?</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Quiero adquirir o implementar una solución basada en IA.</t>
+  </si>
+  <si>
+    <t>Solicita información sobre el diseño y validación del sistema respecto a equidad de género. Usa herramientas como AI Fairness 360 para auditar la equidad del modelo.</t>
+  </si>
+  <si>
+    <t>Quiero desarrollar o entrenar una herramienta con IA.</t>
+  </si>
+  <si>
+    <t>Debes garantizar diversidad en los datos y diseñar algoritmos con enfoque de equidad. Herramientas como Data Nutrition Toolkit te pueden ayudar a analizar la diversidad de los datos.</t>
+  </si>
+  <si>
+    <t>¿Qué información requieres para evaluar si una solución de IA tiene sesgos de género?</t>
+  </si>
+  <si>
+    <t>Quiero conocer si los datos de entrenamiento son diversos.</t>
+  </si>
+  <si>
+    <t>Solicita al proveedor información sobre la representatividad de los datos. Utiliza herramientas como Facet para analizar diversidad en datasets.</t>
+  </si>
+  <si>
+    <t>Quiero entender cómo se validó el modelo respecto a la equidad de género.</t>
+  </si>
+  <si>
+    <t>Asegúrate de que el proveedor realizó auditorías de género. Herramientas como Fairlearn permiten evaluar las métricas de equidad en modelos existentes.</t>
+  </si>
+  <si>
+    <t>¿Qué debes considerar para prevenir o mitigar el riesgo de que el resultado tenga sesgos de género?</t>
+  </si>
+  <si>
+    <t>Garantizar diversidad en los datos de entrenamiento.</t>
+  </si>
+  <si>
+    <t>Recopila datos equitativos e identifica posibles estereotipos históricos. Usa Data Shapley para evaluar la contribución de cada dato al modelo.</t>
+  </si>
+  <si>
+    <t>Diseñar algoritmos con enfoque de equidad.</t>
+  </si>
+  <si>
+    <t>Integra principios éticos en el diseño. Herramientas como What-If Tool te permiten simular cómo afectan los cambios en el diseño del modelo a la equidad.</t>
+  </si>
+  <si>
+    <t>¿Qué aspectos evaluarás antes de implementar?</t>
+  </si>
+  <si>
+    <t>Transparencia del modelo.</t>
+  </si>
+  <si>
+    <t>Revisa si el sistema ofrece explicaciones claras. Herramientas como LIME o SHAP son útiles para analizar decisiones del modelo de forma explicable.</t>
+  </si>
+  <si>
+    <t>Impacto en el contexto local.</t>
+  </si>
+  <si>
+    <t>Asegúrate de que el modelo se adapta a las necesidades locales. Utiliza frameworks como AI Blindspot para evaluar el impacto cultural y demográfico.</t>
+  </si>
+  <si>
+    <t>¿Cómo garantizar la validez del modelo?</t>
+  </si>
+  <si>
+    <t>Implementar pruebas con datos diversos.</t>
+  </si>
+  <si>
+    <t>Realiza validaciones cruzadas con datos variados. Herramientas como CheckList ayudan a probar el modelo en escenarios diversos.</t>
+  </si>
+  <si>
+    <t>Revisar métricas de evaluación.</t>
+  </si>
+  <si>
+    <t>Incluye métricas específicas de equidad de género. Fairlearn puede ayudarte a establecer y revisar estas métricas.</t>
+  </si>
+  <si>
+    <t>En cualquiera de los casos anteriores, ¿cuáles son los principales riesgos asociados y qué herramientas puedes utilizar para mitigarlos?</t>
+  </si>
+  <si>
+    <t>Riesgos: Amplificación de desigualdades existentes.</t>
+  </si>
+  <si>
+    <t>Realiza auditorías periódicas para identificar impactos negativos. Usa herramientas como Audit-AI para evaluar posibles desigualdades en los resultados.</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Herramientas: Frameworks de auditoría ética y análisis de equidad.</t>
+  </si>
+  <si>
+    <t>Utiliza herramientas como AI Fairness 360 y Fairlearn para auditar y mitigar sesgos de género en los sistemas implementados.</t>
+  </si>
+  <si>
+    <t>Tipo de sesgo</t>
+  </si>
+  <si>
+    <t>Subtipos</t>
+  </si>
+  <si>
+    <t>Definición</t>
+  </si>
+  <si>
+    <t>Acción para mitigarlo</t>
+  </si>
+  <si>
+    <t>Tipo de heramienta</t>
+  </si>
+  <si>
+    <t>Sesgo de datos</t>
+  </si>
+  <si>
+    <t>Subrepresentación de géneros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sesgo ocurre cuando los algoritmos se entrenan con datos que no representan adecuadamente a diferentes géneros o grupos, como la sobre-representación de un género (por ejemplo, hombres) y la sub-representación de otros (por ejemplo, mujeres o personas de género diverso, incluyendo personas LGBTIQ+). Esto genera decisiones sesgadas que excluyen las experiencias de estos grupos y perpetúan desigualdades históricas. Por ejemplo, en el ámbito de la salud, puede llevar a diagnósticos y tratamientos inexactos al no considerar diferencias fisiológicas entre géneros (Buolamwini &amp; Gebru, 2018); en el ámbito laboral, refuerza la preferencia por perfiles masculinos, manteniendo la exclusión de mujeres y minorías en roles históricamente dominados por hombres.
+</t>
+  </si>
+  <si>
+    <t>Asegurar una representación equilibrada de los géneros y grupos LGBTIQ+ en los datos de entrenamiento</t>
+  </si>
+  <si>
+    <t>El sesgo ocurre cuando los algoritmos se entrenan con datos que no representan adecuadamente a diferentes géneros o grupos, como la sobre-representación de un género (por ejemplo, hombres) y la sub-representación de otros (por ejemplo, mujeres o personas de género diverso, incluyendo personas LGBTIQ+). Esto genera decisiones sesgadas que excluyen las experiencias de estos grupos y perpetúan desigualdades históricas. Por ejemplo, en el ámbito de la salud, puede llevar a diagnósticos y tratamientos inexactos al no considerar diferencias fisiológicas entre géneros (Buolamwini &amp; Gebru, 2018); en el ámbito laboral, refuerza la preferencia por perfiles masculinos, manteniendo la exclusión de mujeres y minorías en roles históricamente dominados por hombres.</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos no estén sesgados hacia un solo género (por ejemplo, masculino) y equilibrarlos.</t>
+  </si>
+  <si>
+    <t>Inyección de prompt</t>
+  </si>
+  <si>
+    <t>Google's What-If Tool</t>
+  </si>
+  <si>
+    <t>Sesgo Estereotipado</t>
+  </si>
+  <si>
+    <t>Se presenta cuando los datos utilizados para entrenar los modelos refuerzan estereotipos de género. Por ejemplo, asociar a las mujeres solo con profesiones relacionadas con el cuidado y a los hombres con profesiones tecnológicas, afectando la precisión y la justicia del modelo.</t>
+  </si>
+  <si>
+    <t>Eliminar asociaciones sesgadas entre géneros y profesiones, promoviendo la diversidad de roles.</t>
+  </si>
+  <si>
+    <t>Modelos de experto (MoE)</t>
+  </si>
+  <si>
+    <t>AI Fairness 360 (AIF360)</t>
+  </si>
+  <si>
+    <t>Este sesgo refleja los prejuicios y las desigualdades históricas que están presentes en los datos de entrenamiento. Si los datos históricos están sesgados, el modelo puede replicar y amplificar esos sesgos, perpetuando las discriminaciones previas. Por ejemplo, sesgos en los datos de contratación laboral pasados.</t>
+  </si>
+  <si>
+    <t>Identificar y ajustar los datos históricos que refuerzan desigualdades de género y minorías</t>
+  </si>
+  <si>
+    <t>Sesgo por Exclusión de Características Relevantes</t>
+  </si>
+  <si>
+    <t>El sesgo surge al no considerar características específicas de género, como diferencias fisiológicas.</t>
+  </si>
+  <si>
+    <t>Incluir diferencias fisiológicas y de contexto entre géneros en los datos de entrenamiento.</t>
+  </si>
+  <si>
+    <t>Amplificación de estereotipos existentes</t>
+  </si>
+  <si>
+    <t>Ocurre cuando un modelo de IA amplifica los estereotipos ya existentes en la sociedad, como aquellos relacionados con género, raza u orientación sexual. Por ejemplo, un sistema de recomendación que sugiere productos "femeninos" o "masculinos" reforzando nociones tradicionales de género.</t>
+  </si>
+  <si>
+    <t>Aplicar técnicas de reentrenamiento de modelos con datos diversos y representativos para evitar que los algoritmos favorezcan estereotipos de género, raza u orientación sexual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Predicciones alineadas con sesgos preconcebidos</t>
+  </si>
+  <si>
+    <t>Se da cuando un modelo de IA toma decisiones basadas en sesgos previos que las personas  desarrolladoras o los propios datos entrenados pueden haber introducido, lo que refuerza prejuicios existentes. Ejemplo: un modelo de reclutamiento que favorece personas candidatas de un género o raza específica, sin basarse en méritos reales.</t>
+  </si>
+  <si>
+    <t>Implementar técnicas de debiasing (desbías de los datos), como el balanceo de datos y la regularización de equidad para equilibrar las decisiones en función del mérito, no de atributos demográficos.</t>
+  </si>
+  <si>
+    <t>Sesgo de interacción</t>
+  </si>
+  <si>
+    <t>Tratamiento diferencial según género</t>
+  </si>
+  <si>
+    <t>Ocurre cuando un sistema de IA trata a las personas usuarias de manera diferente dependiendo de su género. Por ejemplo, un chatbot que responde de forma diferente a preguntas similares, dependiendo de si la persona usuaria es percibido como masculino o femenino.</t>
+  </si>
+  <si>
+    <t>Aplicar técnicas de neutralización de género en las respuestas del sistema, para que las interacciones no se vean influenciadas por el género del usuario.</t>
+  </si>
+  <si>
+    <t>Gender Shades</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Respuestas basadas en estereotipos</t>
+  </si>
+  <si>
+    <t>Se refiere a situaciones en las que un sistema de IA responde de manera que refuerza los estereotipos de género. Por ejemplo, un asistente virtual que utiliza un lenguaje paternalista hacia mujeres o que asume que los hombres son los principales responsables de tareas tecnológicas, no reconoce persoasn de género diverso</t>
+  </si>
+  <si>
+    <t>Implementar un análisis de equidad en los sistemas de IA para asegurarse de que las interacciones no estén sesgadas por el género. También incluir voces y roles no estereotipados en los asistentes virtuales</t>
+  </si>
+  <si>
+    <t>Sesgo de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferencias incorrectas de género
+</t>
+  </si>
+  <si>
+    <t>Ocurre cuando un sistema de IA hace suposiciones incorrectas sobre el género de las personas  usuarias basándose en patrones previos. Por ejemplo, si un sistema de recomendación de productos asume erróneamente el género de una persona usuaria a partir de su comportamiento en línea, lo que puede afectar la precisión de las recomendaciones.</t>
+  </si>
+  <si>
+    <t>Desarrollar algoritmos inclusivos que no asuman el género basado en patrones previos, sino que respeten las preferencias de los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promover el uso de datos explícitos y consensuados sobre el género de los usuarios. </t>
+  </si>
+  <si>
+    <t>Realizar auditorías de los sistemas de IA para identificar cualquier sesgo basado en suposiciones incorrectas.</t>
+  </si>
+  <si>
+    <t>Impacto discriminatorio en decisiones automatizadas</t>
+  </si>
+  <si>
+    <t>Se presenta cuando las decisiones automatizadas tomadas por un sistema de IA (como en procesos de contratación o crédito) se ven afectadas por sesgos de género, llevando a resultados discriminatorios. Un ejemplo común es el sesgo de género en los sistemas de IA utilizados para evaluar currículums o en decisiones de préstamos.</t>
+  </si>
+  <si>
+    <t>Utilizar técnicas de Machine Learning para crear modelos que no favorezcan a un género en particular, aplicando regularización de equidad, como el re-pesado de datos, para corregir cualquier sesgo de género en las decisiones automatizadas.</t>
+  </si>
+  <si>
+    <t>IBM Watson</t>
+  </si>
+  <si>
+    <t>Realizar auditorías por grupo y evaluaciones de error  para detectar y corregir sesgos discriminatorios que puedan estar afectando las decisiones automatizadas basadas en género.</t>
+  </si>
+  <si>
+    <t>Realizar auditorías por grupo y evaluaciones de error con herramientas para detectar y corregir sesgos discriminatorios que puedan estar afectando las decisiones automatizadas basadas en género.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforzamiento de errores del modelo
+</t>
+  </si>
+  <si>
+    <t>Este subtipo ocurre cuando un sistema de IA comete errores sistemáticos y esos errores son retroalimentados en el modelo, amplificando sesgos ya presentes. Esto se ve en sistemas como la contratación, donde los modelos tienden a seguir patrones sesgados hacia géneros o razas particulares, reproduciendo las desigualdades.</t>
+  </si>
+  <si>
+    <t>Monitoreo continuo de modelos para identificar y corregir errores.</t>
+  </si>
+  <si>
+    <t>Evaluación de impacto regular y auditorías de los modelos.</t>
+  </si>
+  <si>
+    <t>Ajustes que perpetúan patrones sesgados</t>
+  </si>
+  <si>
+    <t>Se da cuando los ajustes que se hacen a los modelos de IA no corrigen adecuadamente los sesgos de género, sino que los perpetúan. Esto puede ocurrir cuando las personas  desarrolladoras no identifican los sesgos existentes o no implementan mecanismos eficaces para reducirlos durante el proceso de ajuste del modelo.</t>
+  </si>
+  <si>
+    <t>Ajustes de re-pesado de datos para corregir la sobre-representación de patrones sesgados.</t>
+  </si>
+  <si>
+    <t>Google Cloud AI</t>
+  </si>
+  <si>
+    <t>Re-entrenamiento con datos más diversos que contrarresten patrones históricos sesgados.</t>
+  </si>
+  <si>
+    <t>Sesgo contextual o de aplicación</t>
+  </si>
+  <si>
+    <t>Estandarización de roles de género</t>
+  </si>
+  <si>
+    <t>Ocurre cuando los sistemas de IA estandarizan y refuerzan roles tradicionales de género, limitando las posibilidades de las personas usuarias para interactuar de manera diversa o flexible con la tecnología. Por ejemplo, un asistente virtual que ofrece solo recomendaciones de productos "para hombres" o "para mujeres", desconociendo las personas de género diverso</t>
+  </si>
+  <si>
+    <t>Capacitación sobre diversidad de género y la inclusión de voces diversas en el proceso de desarrollo de IA.</t>
+  </si>
+  <si>
+    <t>Diversificación en el diseño de modelos para que los sistemas puedan adaptarse a diversos contextos socioculturales.</t>
+  </si>
+  <si>
+    <t>Inclusive AI</t>
+  </si>
+  <si>
+    <t>Falta de adaptabilidad a contextos culturales o locales</t>
+  </si>
+  <si>
+    <t>Este sesgo se presenta cuando los modelos de IA no se adaptan adecuadamente a diferentes contextos culturales o locales, lo que puede llevar a decisiones y resultados que son inapropiados o discriminatorios en ciertos contextos. Por ejemplo, un modelo de IA entrenado principalmente con datos de un contexto cultural occidental puede no funcionar bien en otras culturas.</t>
+  </si>
+  <si>
+    <t>Desarrollo de modelos inclusivos que puedan adaptarse a diferentes contextos locales y culturales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Google Cloud AI </t>
+  </si>
+  <si>
+    <r>
+      <t>Recolección de datos culturalmente diversos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que representen las realidades y necesidades de diferentes poblaciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>Microsoft Cognitive Services</t>
+  </si>
+  <si>
+    <t>Adquisición</t>
+  </si>
+  <si>
+    <t>Acción preventiva</t>
+  </si>
+  <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
+    <t>herramienta</t>
+  </si>
+  <si>
+    <t>Sesgo</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Retirada/desmantelamiento</t>
+  </si>
+  <si>
+    <t>Identificar necesidad</t>
+  </si>
+  <si>
+    <t>ver proveed</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>operación</t>
+  </si>
+  <si>
+    <t>supervisión y uso</t>
+  </si>
+  <si>
+    <t>Sesgo de estereotipo</t>
+  </si>
+  <si>
+    <t>Sesgo de cuando pido la foto de una mujer bonita y solo salen mujeres blancas</t>
+  </si>
+  <si>
+    <t>Sesgo de Confirmación</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>hacer preguntas del toolkit que permitan evidencias si esta o no este riesgo</t>
+  </si>
+  <si>
+    <t>Ha implentado un set de preguntas de prueba que permita evidenciar si hay sesgo sde genero</t>
+  </si>
+  <si>
+    <t>Sesgo 2</t>
+  </si>
+  <si>
+    <t>Sesgo de datos historicos visiados</t>
+  </si>
+  <si>
+    <t>Sesgo de data carretazo</t>
+  </si>
+  <si>
+    <t>Sesgo de recopilación y tratamie</t>
   </si>
   <si>
     <t>Ciclo de vida de la IA</t>
@@ -2559,6 +2885,9 @@
     <t>Grupos de Actores</t>
   </si>
   <si>
+    <t>Tipo de sesgos</t>
+  </si>
+  <si>
     <t>Guia de buenas practicas</t>
   </si>
   <si>
@@ -2566,9 +2895,6 @@
   </si>
   <si>
     <t>Árbol de decisiones</t>
-  </si>
-  <si>
-    <t>Retirada/desmantelamiento</t>
   </si>
   <si>
     <t>Caracterización</t>
@@ -3720,7 +4046,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3915,8 +4241,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3977,8 +4315,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -4191,13 +4535,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4454,17 +4860,59 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4805,8 +5253,8 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="39" customHeight="1"/>
@@ -5477,12 +5925,201 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E18080-22C3-4193-9ED1-AB0FB217929A}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D5B1F-F6C7-4224-94D8-B03336203AF3}">
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="D1" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="105" t="s">
+        <v>768</v>
+      </c>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" t="s">
+        <v>769</v>
+      </c>
+      <c r="S1" t="s">
+        <v>770</v>
+      </c>
+      <c r="T1" s="105" t="s">
+        <v>771</v>
+      </c>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="107"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>775</v>
+      </c>
+      <c r="K2" s="90"/>
+      <c r="L2" s="89" t="s">
+        <v>776</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>777</v>
+      </c>
+      <c r="N2" s="90" t="s">
+        <v>778</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>779</v>
+      </c>
+      <c r="P2" s="90" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q2" s="91"/>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C3" t="s">
+        <v>783</v>
+      </c>
+      <c r="G3" t="s">
+        <v>784</v>
+      </c>
+      <c r="O3" t="s">
+        <v>784</v>
+      </c>
+      <c r="P3" t="s">
+        <v>784</v>
+      </c>
+      <c r="R3" t="s">
+        <v>785</v>
+      </c>
+      <c r="S3" t="s">
+        <v>786</v>
+      </c>
+      <c r="U3" t="s">
+        <v>784</v>
+      </c>
+      <c r="X3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C4" t="s">
+        <v>783</v>
+      </c>
+      <c r="R4" t="s">
+        <v>785</v>
+      </c>
+      <c r="S4" t="s">
+        <v>786</v>
+      </c>
+      <c r="U4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="T1:Y1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E18080-22C3-4193-9ED1-AB0FB217929A}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -5496,119 +6133,149 @@
     <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>686</v>
+        <v>791</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>687</v>
+        <v>792</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1">
+      <c r="F1" s="11" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1">
       <c r="A2" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1">
+        <v>794</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.25" customHeight="1">
       <c r="A3" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1">
+        <v>795</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1">
+        <v>796</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1">
       <c r="A5" s="55" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1">
+      <c r="F5" s="10" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.25" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1">
+      <c r="F6" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1">
+      <c r="F7" s="10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>691</v>
+        <v>775</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="66.75" customHeight="1">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="66.75" customHeight="1">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="66.75" customHeight="1">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="66.75" customHeight="1">
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="66.75" customHeight="1">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="66.75" customHeight="1">
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="66.75" customHeight="1">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="66.75" customHeight="1">
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="66.75" customHeight="1">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="66.75" customHeight="1">
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="66.75" customHeight="1">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="66.75" customHeight="1">
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="66.75" customHeight="1">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="66.75" customHeight="1">
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="66.75" customHeight="1">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="66.75" customHeight="1">
       <c r="C16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" ht="66.75" customHeight="1"/>
     <row r="18" ht="66.75" customHeight="1"/>
@@ -5618,7 +6285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038EC7BE-9BC7-462E-A659-0C8B56D25D42}">
   <dimension ref="A1:O10"/>
   <sheetViews>
@@ -5641,28 +6308,28 @@
         <v>104</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>692</v>
+        <v>797</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>693</v>
+        <v>798</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>694</v>
+        <v>799</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>107</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>105</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>695</v>
+        <v>800</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>696</v>
+        <v>801</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>111</v>
@@ -5674,10 +6341,10 @@
         <v>112</v>
       </c>
       <c r="N1" t="s">
-        <v>697</v>
+        <v>802</v>
       </c>
       <c r="O1" t="s">
-        <v>698</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="195.75" customHeight="1">
@@ -5685,40 +6352,40 @@
         <v>15</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>699</v>
+        <v>804</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>700</v>
+        <v>805</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>701</v>
+        <v>806</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>702</v>
+        <v>807</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>703</v>
+        <v>808</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>704</v>
+        <v>809</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>705</v>
+        <v>810</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>706</v>
+        <v>811</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>707</v>
+        <v>812</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>708</v>
+        <v>813</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>709</v>
+        <v>814</v>
       </c>
       <c r="O2" t="s">
-        <v>710</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="225">
@@ -5726,37 +6393,37 @@
         <v>17</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>711</v>
+        <v>816</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>712</v>
+        <v>817</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>713</v>
+        <v>818</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>714</v>
+        <v>819</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>715</v>
+        <v>820</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>704</v>
+        <v>809</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>716</v>
+        <v>821</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>717</v>
+        <v>822</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>718</v>
+        <v>823</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>719</v>
+        <v>824</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>720</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="195">
@@ -5764,37 +6431,37 @@
         <v>18</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>721</v>
+        <v>826</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>722</v>
+        <v>827</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>723</v>
+        <v>828</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>724</v>
+        <v>829</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>725</v>
+        <v>830</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>704</v>
+        <v>809</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>726</v>
+        <v>831</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>727</v>
+        <v>832</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>728</v>
+        <v>833</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>729</v>
+        <v>834</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>730</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="270">
@@ -5802,34 +6469,34 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>731</v>
+        <v>836</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>732</v>
+        <v>837</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>733</v>
+        <v>838</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>734</v>
+        <v>839</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>735</v>
+        <v>840</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>704</v>
+        <v>809</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>736</v>
+        <v>841</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>737</v>
+        <v>842</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>738</v>
+        <v>843</v>
       </c>
       <c r="L5" s="30"/>
     </row>
@@ -5838,37 +6505,37 @@
         <v>12</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>739</v>
+        <v>844</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>740</v>
+        <v>845</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>741</v>
+        <v>846</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>742</v>
+        <v>847</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>743</v>
+        <v>848</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>704</v>
+        <v>809</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>744</v>
+        <v>849</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>745</v>
+        <v>850</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>746</v>
+        <v>851</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>747</v>
+        <v>852</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>748</v>
+        <v>853</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="180">
@@ -5876,75 +6543,75 @@
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>749</v>
+        <v>854</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>750</v>
+        <v>855</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>752</v>
+        <v>857</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>753</v>
+        <v>858</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>704</v>
+        <v>809</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>754</v>
+        <v>859</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>755</v>
+        <v>860</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>756</v>
+        <v>861</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>757</v>
+        <v>862</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>758</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="195">
       <c r="A8" s="19" t="s">
-        <v>759</v>
+        <v>864</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>760</v>
+        <v>865</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>761</v>
+        <v>866</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>762</v>
+        <v>867</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>763</v>
+        <v>868</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>764</v>
+        <v>869</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>765</v>
+        <v>870</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>121</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>766</v>
+        <v>871</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>767</v>
+        <v>872</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>768</v>
+        <v>873</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>769</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="180">
@@ -5952,37 +6619,37 @@
         <v>16</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>770</v>
+        <v>875</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>771</v>
+        <v>876</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>772</v>
+        <v>877</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>773</v>
+        <v>878</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>774</v>
+        <v>879</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>704</v>
+        <v>809</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>775</v>
+        <v>880</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>776</v>
+        <v>881</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>777</v>
+        <v>882</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>778</v>
+        <v>883</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>779</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="150">
@@ -5990,37 +6657,37 @@
         <v>22</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>780</v>
+        <v>885</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>781</v>
+        <v>886</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>782</v>
+        <v>887</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>783</v>
+        <v>888</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>784</v>
+        <v>889</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>704</v>
+        <v>809</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>785</v>
+        <v>890</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>786</v>
+        <v>891</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>787</v>
+        <v>892</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>788</v>
+        <v>893</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>789</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -6058,8 +6725,8 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="J2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <pane ySplit="1" topLeftCell="J16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="249.75" customHeight="1"/>
@@ -6178,25 +6845,25 @@
         <v>130</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="O2" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="P2" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="Q2" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="S2" s="80" t="s">
         <v>136</v>
-      </c>
-      <c r="S2" s="80" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="225.75" customHeight="1">
@@ -6204,58 +6871,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="F3" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="J3" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="K3" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="L3" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="M3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="N3" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="O3" s="71" t="s">
+      <c r="P3" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="Q3" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="Q3" s="82" t="s">
+      <c r="R3" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="R3" s="82" t="s">
+      <c r="S3" s="82" t="s">
         <v>152</v>
-      </c>
-      <c r="S3" s="82" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="174">
@@ -6263,58 +6930,58 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="G4" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="42" t="s">
+      <c r="I4" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="J4" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="K4" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="62" t="s">
+      <c r="N4" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="P4" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="73" t="s">
+      <c r="Q4" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="R4" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="S4" s="82" t="s">
         <v>165</v>
-      </c>
-      <c r="R4" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="S4" s="82" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="296.10000000000002" customHeight="1">
@@ -6322,58 +6989,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="F5" s="42" t="s">
         <v>170</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>172</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H5" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="K5" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="L5" s="62" t="s">
         <v>175</v>
-      </c>
-      <c r="K5" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="62" t="s">
-        <v>177</v>
       </c>
       <c r="M5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O5" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="P5" s="81" t="s">
+      <c r="R5" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="Q5" s="82" t="s">
+      <c r="S5" s="82" t="s">
         <v>180</v>
-      </c>
-      <c r="R5" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="S5" s="82" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="216.95" customHeight="1">
@@ -6381,58 +7048,58 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="F6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="G6" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="H6" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="I6" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="J6" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="K6" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="62" t="s">
         <v>190</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="62" t="s">
-        <v>192</v>
       </c>
       <c r="M6" s="63" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O6" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="P6" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="P6" s="81" t="s">
+      <c r="R6" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="Q6" s="82" t="s">
+      <c r="S6" s="82" t="s">
         <v>195</v>
-      </c>
-      <c r="R6" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="S6" s="82" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="207.6" customHeight="1">
@@ -6440,58 +7107,58 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="42" t="s">
+      <c r="F7" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="G7" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="I7" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="J7" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="K7" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="L7" s="62" t="s">
         <v>204</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7" s="62" t="s">
-        <v>206</v>
       </c>
       <c r="M7" s="63" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O7" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q7" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="P7" s="81" t="s">
+      <c r="R7" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="Q7" s="82" t="s">
+      <c r="S7" s="82" t="s">
         <v>209</v>
-      </c>
-      <c r="R7" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="S7" s="82" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="201" customHeight="1">
@@ -6499,58 +7166,58 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="F8" s="42" t="s">
         <v>213</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>215</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H8" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="K8" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="L8" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="M8" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="N8" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="73" t="s">
+      <c r="P8" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="P8" s="81" t="s">
+      <c r="Q8" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="82" t="s">
+      <c r="R8" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="R8" s="82" t="s">
+      <c r="S8" s="82" t="s">
         <v>224</v>
-      </c>
-      <c r="S8" s="82" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="257.25" customHeight="1">
@@ -6558,58 +7225,58 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="E9" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="F9" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="G9" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="H9" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="I9" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="J9" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="K9" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="L9" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="M9" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="N9" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="M9" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="N9" s="62" t="s">
+      <c r="O9" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="O9" s="74" t="s">
+      <c r="P9" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="P9" s="83" t="s">
+      <c r="Q9" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="R9" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="R9" s="84" t="s">
+      <c r="S9" s="84" t="s">
         <v>241</v>
-      </c>
-      <c r="S9" s="84" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="271.5" customHeight="1">
@@ -6617,58 +7284,58 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="E10" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="F10" s="42" t="s">
         <v>246</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>247</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="J10" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="J10" s="61" t="s">
-        <v>250</v>
-      </c>
       <c r="K10" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="M10" s="63" t="s">
         <v>12</v>
       </c>
       <c r="N10" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="O10" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="O10" s="70" t="s">
+      <c r="P10" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="P10" s="80" t="s">
+      <c r="Q10" s="80" t="s">
         <v>253</v>
       </c>
-      <c r="Q10" s="80" t="s">
+      <c r="R10" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="R10" s="80" t="s">
+      <c r="S10" s="80" t="s">
         <v>255</v>
-      </c>
-      <c r="S10" s="80" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="228.95" customHeight="1">
@@ -6676,58 +7343,58 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="42" t="s">
+      <c r="F11" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="G11" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="42" t="s">
+      <c r="I11" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="J11" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="K11" s="62" t="s">
         <v>262</v>
-      </c>
-      <c r="K11" s="62" t="s">
-        <v>263</v>
       </c>
       <c r="L11" s="62" t="s">
         <v>55</v>
       </c>
       <c r="M11" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="N11" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="63" t="s">
-        <v>132</v>
-      </c>
       <c r="O11" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="P11" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="Q11" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="Q11" s="82" t="s">
+      <c r="R11" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="R11" s="82" t="s">
+      <c r="S11" s="82" t="s">
         <v>267</v>
-      </c>
-      <c r="S11" s="82" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="191.65" customHeight="1">
@@ -6735,58 +7402,58 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="E12" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="F12" s="42" t="s">
         <v>272</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>273</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="J12" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="J12" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="K12" s="59" t="s">
+      <c r="L12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="N12" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="P12" s="85" t="s">
         <v>278</v>
       </c>
-      <c r="N12" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="O12" s="75" t="s">
+      <c r="Q12" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="R12" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="S12" s="85" t="s">
         <v>281</v>
-      </c>
-      <c r="R12" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="S12" s="85" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="172.5" customHeight="1">
@@ -6794,55 +7461,55 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="F13" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="G13" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="I13" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="42" t="s">
+      <c r="J13" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="K13" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="L13" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="M13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="P13" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O13" s="77" t="s">
+      <c r="Q13" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="P13" s="85" t="s">
+      <c r="R13" s="85" t="s">
         <v>295</v>
       </c>
-      <c r="Q13" s="85" t="s">
+      <c r="S13" s="85" t="s">
         <v>296</v>
-      </c>
-      <c r="R13" s="85" t="s">
-        <v>297</v>
-      </c>
-      <c r="S13" s="85" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="249.75" customHeight="1">
@@ -6850,46 +7517,46 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="F14" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="G14" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="I14" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="42" t="s">
+      <c r="J14" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="O14" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="P14" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="O14" s="76" t="s">
+      <c r="Q14" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="P14" s="86" t="s">
+      <c r="R14" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="Q14" s="87" t="s">
+      <c r="S14" s="80" t="s">
         <v>309</v>
-      </c>
-      <c r="R14" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="S14" s="80" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="249.75" customHeight="1">
@@ -6897,46 +7564,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="E15" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="F15" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="G15" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="H15" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="I15" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="J15" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="O15" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="P15" s="80" t="s">
         <v>320</v>
       </c>
-      <c r="O15" s="70" t="s">
+      <c r="Q15" s="80" t="s">
         <v>321</v>
       </c>
-      <c r="P15" s="80" t="s">
+      <c r="R15" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="Q15" s="80" t="s">
+      <c r="S15" s="82" t="s">
         <v>323</v>
-      </c>
-      <c r="R15" s="80" t="s">
-        <v>324</v>
-      </c>
-      <c r="S15" s="82" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="249.75" customHeight="1">
@@ -6944,46 +7611,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="E16" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="F16" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="G16" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="I16" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="H16" s="42" t="s">
+      <c r="J16" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="O16" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="P16" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="O16" s="78" t="s">
+      <c r="Q16" s="84" t="s">
         <v>334</v>
       </c>
-      <c r="P16" s="84" t="s">
+      <c r="R16" s="84" t="s">
         <v>335</v>
       </c>
-      <c r="Q16" s="84" t="s">
+      <c r="S16" s="84" t="s">
         <v>336</v>
-      </c>
-      <c r="R16" s="84" t="s">
-        <v>337</v>
-      </c>
-      <c r="S16" s="84" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="249.75" customHeight="1">
@@ -6991,58 +7658,58 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="D17" s="38" t="s">
+      <c r="F17" s="42" t="s">
         <v>340</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>342</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H17" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="K17" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="L17" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="N17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" s="72" t="s">
         <v>347</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="P17" s="80" t="s">
         <v>348</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O17" s="72" t="s">
+      <c r="Q17" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="P17" s="80" t="s">
+      <c r="R17" s="80" t="s">
         <v>350</v>
       </c>
-      <c r="Q17" s="80" t="s">
+      <c r="S17" s="80" t="s">
         <v>351</v>
-      </c>
-      <c r="R17" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="S17" s="80" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="249.75" customHeight="1">
@@ -7050,46 +7717,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="F18" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="40" t="s">
+      <c r="G18" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="H18" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="I18" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="J18" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="O18" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="P18" s="82" t="s">
         <v>361</v>
       </c>
-      <c r="O18" s="72" t="s">
+      <c r="Q18" s="82" t="s">
         <v>362</v>
       </c>
-      <c r="P18" s="82" t="s">
+      <c r="R18" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="Q18" s="82" t="s">
+      <c r="S18" s="82" t="s">
         <v>364</v>
-      </c>
-      <c r="R18" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="S18" s="82" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="249.75" customHeight="1">
@@ -7097,46 +7764,46 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="E19" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="G19" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="I19" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="38" t="s">
+      <c r="J19" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="O19" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="P19" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="O19" s="72" t="s">
+      <c r="Q19" s="82" t="s">
         <v>375</v>
       </c>
-      <c r="P19" s="82" t="s">
+      <c r="R19" s="82" t="s">
         <v>376</v>
       </c>
-      <c r="Q19" s="82" t="s">
+      <c r="S19" s="82" t="s">
         <v>377</v>
-      </c>
-      <c r="R19" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="S19" s="82" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="249.75" customHeight="1">
@@ -7144,46 +7811,46 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="E20" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="F20" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="G20" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="I20" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="H20" s="38" t="s">
+      <c r="J20" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="O20" s="72" t="s">
         <v>386</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="P20" s="82" t="s">
         <v>387</v>
       </c>
-      <c r="O20" s="72" t="s">
+      <c r="Q20" s="85" t="s">
         <v>388</v>
       </c>
-      <c r="P20" s="82" t="s">
+      <c r="R20" s="83" t="s">
         <v>389</v>
       </c>
-      <c r="Q20" s="85" t="s">
+      <c r="S20" s="84" t="s">
         <v>390</v>
-      </c>
-      <c r="R20" s="83" t="s">
-        <v>391</v>
-      </c>
-      <c r="S20" s="84" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="249.75" customHeight="1">
@@ -7191,51 +7858,51 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="E21" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="F21" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="G21" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="I21" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="H21" s="38" t="s">
+      <c r="J21" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="O21" s="72" t="s">
         <v>399</v>
       </c>
-      <c r="J21" s="44" t="s">
+      <c r="P21" s="82" t="s">
         <v>400</v>
       </c>
-      <c r="O21" s="72" t="s">
+      <c r="Q21" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="P21" s="82" t="s">
+      <c r="R21" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="Q21" s="80" t="s">
+      <c r="S21" s="80" t="s">
         <v>403</v>
-      </c>
-      <c r="R21" s="80" t="s">
-        <v>404</v>
-      </c>
-      <c r="S21" s="80" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="249.75" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -7306,8 +7973,8 @@
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
@@ -7322,7 +7989,7 @@
         <v>104</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -7346,7 +8013,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -7359,7 +8026,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>29</v>
@@ -7367,15 +8034,15 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>55</v>
@@ -7383,7 +8050,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>9</v>
@@ -7391,7 +8058,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>29</v>
@@ -7399,15 +8066,15 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>55</v>
@@ -7415,15 +8082,15 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>55</v>
@@ -7431,15 +8098,15 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>55</v>
@@ -7447,7 +8114,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>79</v>
@@ -7455,7 +8122,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>9</v>
@@ -7463,7 +8130,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>55</v>
@@ -7471,7 +8138,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>55</v>
@@ -7479,7 +8146,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>79</v>
@@ -7487,7 +8154,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>9</v>
@@ -7495,7 +8162,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>29</v>
@@ -7503,15 +8170,15 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>55</v>
@@ -7519,7 +8186,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>79</v>
@@ -7527,7 +8194,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>9</v>
@@ -7535,7 +8202,7 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>29</v>
@@ -7543,15 +8210,15 @@
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>55</v>
@@ -7559,7 +8226,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>29</v>
@@ -7567,15 +8234,15 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>55</v>
@@ -7583,7 +8250,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>9</v>
@@ -7591,15 +8258,15 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>55</v>
@@ -7607,7 +8274,7 @@
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>72</v>
@@ -7615,7 +8282,7 @@
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>79</v>
@@ -7623,7 +8290,7 @@
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>29</v>
@@ -7631,15 +8298,15 @@
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>55</v>
@@ -7647,7 +8314,7 @@
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>79</v>
@@ -7655,7 +8322,7 @@
     </row>
     <row r="43" spans="1:2" ht="15">
       <c r="A43" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>72</v>
@@ -7663,7 +8330,7 @@
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>79</v>
@@ -7671,7 +8338,7 @@
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>9</v>
@@ -7679,15 +8346,15 @@
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>55</v>
@@ -7695,7 +8362,7 @@
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>79</v>
@@ -7703,7 +8370,7 @@
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>9</v>
@@ -7711,15 +8378,15 @@
     </row>
     <row r="50" spans="1:2" ht="15">
       <c r="A50" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>55</v>
@@ -7727,7 +8394,7 @@
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>9</v>
@@ -7735,7 +8402,7 @@
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>55</v>
@@ -7743,7 +8410,7 @@
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>9</v>
@@ -7751,7 +8418,7 @@
     </row>
     <row r="55" spans="1:2" ht="15">
       <c r="A55" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>55</v>
@@ -7759,7 +8426,7 @@
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>55</v>
@@ -7767,7 +8434,7 @@
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>79</v>
@@ -7775,7 +8442,7 @@
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>79</v>
@@ -7783,7 +8450,7 @@
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>55</v>
@@ -7902,7 +8569,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
@@ -7910,7 +8577,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -7918,7 +8585,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -7926,7 +8593,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
@@ -7934,7 +8601,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
@@ -7942,663 +8609,663 @@
         <v>120</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
       <c r="A43" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15">
       <c r="A50" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
       <c r="A55" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
       <c r="A60" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15">
       <c r="A61" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15">
       <c r="A62" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15">
       <c r="A63" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15">
       <c r="A64" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15">
       <c r="A65" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15">
       <c r="A66" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15">
       <c r="A67" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15">
       <c r="A68" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15">
       <c r="A69" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
       <c r="A70" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
       <c r="A71" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15">
       <c r="A72" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15">
       <c r="A73" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15">
       <c r="A74" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15">
       <c r="A75" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
       <c r="A76" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15">
       <c r="A77" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15">
       <c r="A78" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15">
       <c r="A79" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15">
       <c r="A80" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">
       <c r="A81" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
       <c r="A82" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15">
       <c r="A83" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15">
       <c r="A84" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
       <c r="A85" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15">
       <c r="A86" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15">
       <c r="A87" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15">
       <c r="A88" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15">
       <c r="A89" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15">
@@ -8695,7 +9362,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>12</v>
@@ -8703,7 +9370,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>32</v>
@@ -8711,7 +9378,7 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>49</v>
@@ -8719,7 +9386,7 @@
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>12</v>
@@ -8727,7 +9394,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>49</v>
@@ -8735,7 +9402,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>12</v>
@@ -8743,7 +9410,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>12</v>
@@ -8751,7 +9418,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>12</v>
@@ -8759,7 +9426,7 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>12</v>
@@ -8767,7 +9434,7 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>12</v>
@@ -8775,7 +9442,7 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>32</v>
@@ -8783,7 +9450,7 @@
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>49</v>
@@ -8791,7 +9458,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>12</v>
@@ -8799,7 +9466,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>12</v>
@@ -8807,7 +9474,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>32</v>
@@ -8815,7 +9482,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>32</v>
@@ -8823,7 +9490,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>49</v>
@@ -8831,7 +9498,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>12</v>
@@ -8839,7 +9506,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>32</v>
@@ -8847,7 +9514,7 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>49</v>
@@ -8855,7 +9522,7 @@
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>49</v>
@@ -8863,7 +9530,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>12</v>
@@ -8871,7 +9538,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>12</v>
@@ -8879,13 +9546,13 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>12</v>
@@ -8893,7 +9560,7 @@
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>12</v>
@@ -8901,7 +9568,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>32</v>
@@ -8909,7 +9576,7 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>12</v>
@@ -8917,7 +9584,7 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>12</v>
@@ -8925,7 +9592,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>12</v>
@@ -8933,7 +9600,7 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>12</v>
@@ -8981,7 +9648,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>3</v>
@@ -8989,10 +9656,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.9">
@@ -9000,7 +9667,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.15">
@@ -9008,7 +9675,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9016,31 +9683,31 @@
         <v>105</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.15">
       <c r="A7" s="34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.15">
       <c r="A8" s="34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9048,15 +9715,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9064,39 +9731,39 @@
         <v>108</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.9">
       <c r="A13" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.9">
       <c r="A15" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -9137,1085 +9804,1085 @@
         <v>1</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>441</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" t="s">
         <v>444</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>445</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>446</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>447</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>448</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>449</v>
-      </c>
-      <c r="G2" t="s">
-        <v>450</v>
-      </c>
-      <c r="H2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" t="s">
         <v>452</v>
       </c>
-      <c r="B3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>453</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H3" t="s">
         <v>454</v>
-      </c>
-      <c r="F3" t="s">
-        <v>455</v>
-      </c>
-      <c r="G3" t="s">
-        <v>450</v>
-      </c>
-      <c r="H3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" t="s">
         <v>457</v>
       </c>
-      <c r="B4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>458</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" t="s">
         <v>459</v>
-      </c>
-      <c r="F4" t="s">
-        <v>460</v>
-      </c>
-      <c r="G4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H4" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E5" t="s">
         <v>462</v>
       </c>
-      <c r="B5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" t="s">
-        <v>446</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>463</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H5" t="s">
         <v>464</v>
-      </c>
-      <c r="F5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G5" t="s">
-        <v>450</v>
-      </c>
-      <c r="H5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" t="s">
         <v>467</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>468</v>
       </c>
-      <c r="C6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>469</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H6" t="s">
         <v>470</v>
-      </c>
-      <c r="F6" t="s">
-        <v>471</v>
-      </c>
-      <c r="G6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H6" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7" t="s">
         <v>473</v>
       </c>
-      <c r="B7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H7" t="s">
         <v>474</v>
-      </c>
-      <c r="F7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E8" t="s">
         <v>477</v>
       </c>
-      <c r="B8" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>478</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H8" t="s">
         <v>479</v>
-      </c>
-      <c r="F8" t="s">
-        <v>480</v>
-      </c>
-      <c r="G8" t="s">
-        <v>450</v>
-      </c>
-      <c r="H8" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E9" t="s">
         <v>482</v>
       </c>
-      <c r="B9" t="s">
-        <v>468</v>
-      </c>
-      <c r="C9" t="s">
-        <v>446</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>483</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>448</v>
+      </c>
+      <c r="H9" t="s">
         <v>484</v>
-      </c>
-      <c r="F9" t="s">
-        <v>485</v>
-      </c>
-      <c r="G9" t="s">
-        <v>450</v>
-      </c>
-      <c r="H9" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" t="s">
         <v>487</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>488</v>
       </c>
-      <c r="C10" t="s">
-        <v>446</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>489</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" t="s">
         <v>490</v>
-      </c>
-      <c r="F10" t="s">
-        <v>491</v>
-      </c>
-      <c r="G10" t="s">
-        <v>450</v>
-      </c>
-      <c r="H10" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" t="s">
         <v>493</v>
       </c>
-      <c r="B11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>494</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" t="s">
         <v>495</v>
-      </c>
-      <c r="F11" t="s">
-        <v>496</v>
-      </c>
-      <c r="G11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H11" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E12" t="s">
         <v>498</v>
       </c>
-      <c r="B12" t="s">
-        <v>488</v>
-      </c>
-      <c r="C12" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>499</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" t="s">
         <v>500</v>
-      </c>
-      <c r="F12" t="s">
-        <v>501</v>
-      </c>
-      <c r="G12" t="s">
-        <v>450</v>
-      </c>
-      <c r="H12" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13" t="s">
+        <v>444</v>
+      </c>
+      <c r="D13" t="s">
+        <v>502</v>
+      </c>
+      <c r="E13" t="s">
         <v>503</v>
       </c>
-      <c r="B13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>504</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>448</v>
+      </c>
+      <c r="H13" t="s">
         <v>505</v>
-      </c>
-      <c r="F13" t="s">
-        <v>506</v>
-      </c>
-      <c r="G13" t="s">
-        <v>450</v>
-      </c>
-      <c r="H13" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" t="s">
         <v>508</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>509</v>
       </c>
-      <c r="C14" t="s">
-        <v>446</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>510</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
+        <v>448</v>
+      </c>
+      <c r="H14" t="s">
         <v>511</v>
-      </c>
-      <c r="F14" t="s">
-        <v>512</v>
-      </c>
-      <c r="G14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H14" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E15" t="s">
+        <v>513</v>
+      </c>
+      <c r="F15" t="s">
         <v>514</v>
       </c>
-      <c r="B15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C15" t="s">
-        <v>446</v>
-      </c>
-      <c r="D15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>448</v>
+      </c>
+      <c r="H15" t="s">
         <v>515</v>
-      </c>
-      <c r="F15" t="s">
-        <v>516</v>
-      </c>
-      <c r="G15" t="s">
-        <v>450</v>
-      </c>
-      <c r="H15" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" t="s">
         <v>518</v>
       </c>
-      <c r="B16" t="s">
-        <v>509</v>
-      </c>
-      <c r="C16" t="s">
-        <v>446</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>519</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
+        <v>448</v>
+      </c>
+      <c r="H16" t="s">
         <v>520</v>
-      </c>
-      <c r="F16" t="s">
-        <v>521</v>
-      </c>
-      <c r="G16" t="s">
-        <v>450</v>
-      </c>
-      <c r="H16" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C17" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" t="s">
+        <v>522</v>
+      </c>
+      <c r="E17" t="s">
         <v>523</v>
       </c>
-      <c r="B17" t="s">
-        <v>509</v>
-      </c>
-      <c r="C17" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>524</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
+        <v>448</v>
+      </c>
+      <c r="H17" t="s">
         <v>525</v>
-      </c>
-      <c r="F17" t="s">
-        <v>526</v>
-      </c>
-      <c r="G17" t="s">
-        <v>450</v>
-      </c>
-      <c r="H17" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>526</v>
+      </c>
+      <c r="B18" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D18" t="s">
         <v>528</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>529</v>
       </c>
-      <c r="C18" t="s">
-        <v>446</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>530</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
+        <v>448</v>
+      </c>
+      <c r="H18" t="s">
         <v>531</v>
-      </c>
-      <c r="F18" t="s">
-        <v>532</v>
-      </c>
-      <c r="G18" t="s">
-        <v>450</v>
-      </c>
-      <c r="H18" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" t="s">
+        <v>527</v>
+      </c>
+      <c r="C19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E19" t="s">
         <v>534</v>
       </c>
-      <c r="B19" t="s">
-        <v>529</v>
-      </c>
-      <c r="C19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>535</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" t="s">
         <v>536</v>
-      </c>
-      <c r="F19" t="s">
-        <v>537</v>
-      </c>
-      <c r="G19" t="s">
-        <v>450</v>
-      </c>
-      <c r="H19" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>537</v>
+      </c>
+      <c r="B20" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" t="s">
+        <v>538</v>
+      </c>
+      <c r="E20" t="s">
         <v>539</v>
       </c>
-      <c r="B20" t="s">
-        <v>529</v>
-      </c>
-      <c r="C20" t="s">
-        <v>446</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>540</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
+        <v>448</v>
+      </c>
+      <c r="H20" t="s">
         <v>541</v>
-      </c>
-      <c r="F20" t="s">
-        <v>542</v>
-      </c>
-      <c r="G20" t="s">
-        <v>450</v>
-      </c>
-      <c r="H20" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" t="s">
+        <v>527</v>
+      </c>
+      <c r="C21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" t="s">
+        <v>543</v>
+      </c>
+      <c r="E21" t="s">
         <v>544</v>
       </c>
-      <c r="B21" t="s">
-        <v>529</v>
-      </c>
-      <c r="C21" t="s">
-        <v>446</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>545</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
+        <v>448</v>
+      </c>
+      <c r="H21" t="s">
         <v>546</v>
-      </c>
-      <c r="F21" t="s">
-        <v>547</v>
-      </c>
-      <c r="G21" t="s">
-        <v>450</v>
-      </c>
-      <c r="H21" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B22" t="s">
+        <v>548</v>
+      </c>
+      <c r="C22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D22" t="s">
         <v>549</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>550</v>
       </c>
-      <c r="C22" t="s">
-        <v>446</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>551</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
+        <v>448</v>
+      </c>
+      <c r="H22" t="s">
         <v>552</v>
-      </c>
-      <c r="F22" t="s">
-        <v>553</v>
-      </c>
-      <c r="G22" t="s">
-        <v>450</v>
-      </c>
-      <c r="H22" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>553</v>
+      </c>
+      <c r="B23" t="s">
+        <v>548</v>
+      </c>
+      <c r="C23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D23" t="s">
+        <v>554</v>
+      </c>
+      <c r="E23" t="s">
         <v>555</v>
       </c>
-      <c r="B23" t="s">
-        <v>550</v>
-      </c>
-      <c r="C23" t="s">
-        <v>446</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>556</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
+        <v>448</v>
+      </c>
+      <c r="H23" t="s">
         <v>557</v>
-      </c>
-      <c r="F23" t="s">
-        <v>558</v>
-      </c>
-      <c r="G23" t="s">
-        <v>450</v>
-      </c>
-      <c r="H23" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>558</v>
+      </c>
+      <c r="B24" t="s">
+        <v>548</v>
+      </c>
+      <c r="C24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D24" t="s">
+        <v>559</v>
+      </c>
+      <c r="E24" t="s">
         <v>560</v>
       </c>
-      <c r="B24" t="s">
-        <v>550</v>
-      </c>
-      <c r="C24" t="s">
-        <v>446</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>561</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
+        <v>448</v>
+      </c>
+      <c r="H24" t="s">
         <v>562</v>
-      </c>
-      <c r="F24" t="s">
-        <v>563</v>
-      </c>
-      <c r="G24" t="s">
-        <v>450</v>
-      </c>
-      <c r="H24" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B25" t="s">
+        <v>548</v>
+      </c>
+      <c r="C25" t="s">
+        <v>444</v>
+      </c>
+      <c r="D25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E25" t="s">
         <v>565</v>
       </c>
-      <c r="B25" t="s">
-        <v>550</v>
-      </c>
-      <c r="C25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>566</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
+        <v>448</v>
+      </c>
+      <c r="H25" t="s">
         <v>567</v>
-      </c>
-      <c r="F25" t="s">
-        <v>568</v>
-      </c>
-      <c r="G25" t="s">
-        <v>450</v>
-      </c>
-      <c r="H25" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>568</v>
+      </c>
+      <c r="B26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C26" t="s">
+        <v>444</v>
+      </c>
+      <c r="D26" t="s">
         <v>570</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
         <v>571</v>
       </c>
-      <c r="C26" t="s">
-        <v>446</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>572</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
+        <v>448</v>
+      </c>
+      <c r="H26" t="s">
         <v>573</v>
-      </c>
-      <c r="F26" t="s">
-        <v>574</v>
-      </c>
-      <c r="G26" t="s">
-        <v>450</v>
-      </c>
-      <c r="H26" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>574</v>
+      </c>
+      <c r="B27" t="s">
+        <v>569</v>
+      </c>
+      <c r="C27" t="s">
+        <v>444</v>
+      </c>
+      <c r="D27" t="s">
+        <v>575</v>
+      </c>
+      <c r="E27" t="s">
         <v>576</v>
       </c>
-      <c r="B27" t="s">
-        <v>571</v>
-      </c>
-      <c r="C27" t="s">
-        <v>446</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>577</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
+        <v>448</v>
+      </c>
+      <c r="H27" t="s">
         <v>578</v>
-      </c>
-      <c r="F27" t="s">
-        <v>579</v>
-      </c>
-      <c r="G27" t="s">
-        <v>450</v>
-      </c>
-      <c r="H27" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>579</v>
+      </c>
+      <c r="B28" t="s">
+        <v>569</v>
+      </c>
+      <c r="C28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D28" t="s">
+        <v>580</v>
+      </c>
+      <c r="E28" t="s">
         <v>581</v>
       </c>
-      <c r="B28" t="s">
-        <v>571</v>
-      </c>
-      <c r="C28" t="s">
-        <v>446</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>582</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
+        <v>448</v>
+      </c>
+      <c r="H28" t="s">
         <v>583</v>
-      </c>
-      <c r="F28" t="s">
-        <v>584</v>
-      </c>
-      <c r="G28" t="s">
-        <v>450</v>
-      </c>
-      <c r="H28" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B29" t="s">
+        <v>584</v>
+      </c>
+      <c r="C29" t="s">
+        <v>585</v>
+      </c>
+      <c r="D29" t="s">
         <v>586</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>587</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>588</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>589</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>590</v>
-      </c>
-      <c r="G29" t="s">
-        <v>591</v>
-      </c>
-      <c r="H29" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D30" t="s">
+        <v>591</v>
+      </c>
+      <c r="E30" t="s">
+        <v>592</v>
+      </c>
+      <c r="F30" t="s">
         <v>593</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>594</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>595</v>
-      </c>
-      <c r="G30" t="s">
-        <v>596</v>
-      </c>
-      <c r="H30" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B31" t="s">
+        <v>596</v>
+      </c>
+      <c r="C31" t="s">
+        <v>585</v>
+      </c>
+      <c r="D31" t="s">
+        <v>597</v>
+      </c>
+      <c r="E31" t="s">
         <v>598</v>
       </c>
-      <c r="C31" t="s">
-        <v>587</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>599</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>600</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>601</v>
-      </c>
-      <c r="G31" t="s">
-        <v>602</v>
-      </c>
-      <c r="H31" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B32" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D32" t="s">
+        <v>602</v>
+      </c>
+      <c r="E32" t="s">
+        <v>603</v>
+      </c>
+      <c r="F32" t="s">
         <v>604</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>605</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>606</v>
-      </c>
-      <c r="G32" t="s">
-        <v>607</v>
-      </c>
-      <c r="H32" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B33" t="s">
+        <v>607</v>
+      </c>
+      <c r="C33" t="s">
+        <v>585</v>
+      </c>
+      <c r="D33" t="s">
+        <v>608</v>
+      </c>
+      <c r="E33" t="s">
         <v>609</v>
       </c>
-      <c r="C33" t="s">
-        <v>587</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>610</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>611</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>612</v>
-      </c>
-      <c r="G33" t="s">
-        <v>613</v>
-      </c>
-      <c r="H33" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B34" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C34" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D34" t="s">
+        <v>613</v>
+      </c>
+      <c r="E34" t="s">
+        <v>614</v>
+      </c>
+      <c r="F34" t="s">
         <v>615</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>616</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>617</v>
-      </c>
-      <c r="G34" t="s">
-        <v>618</v>
-      </c>
-      <c r="H34" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B35" t="s">
+        <v>618</v>
+      </c>
+      <c r="C35" t="s">
+        <v>585</v>
+      </c>
+      <c r="D35" t="s">
+        <v>619</v>
+      </c>
+      <c r="E35" t="s">
         <v>620</v>
       </c>
-      <c r="C35" t="s">
-        <v>587</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>621</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>622</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>623</v>
-      </c>
-      <c r="G35" t="s">
-        <v>624</v>
-      </c>
-      <c r="H35" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B36" t="s">
+        <v>624</v>
+      </c>
+      <c r="C36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D36" t="s">
+        <v>625</v>
+      </c>
+      <c r="E36" t="s">
         <v>626</v>
       </c>
-      <c r="C36" t="s">
-        <v>587</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>627</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>628</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>629</v>
-      </c>
-      <c r="G36" t="s">
-        <v>630</v>
-      </c>
-      <c r="H36" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B37" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C37" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D37" t="s">
+        <v>630</v>
+      </c>
+      <c r="E37" t="s">
+        <v>631</v>
+      </c>
+      <c r="F37" t="s">
         <v>632</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
+        <v>628</v>
+      </c>
+      <c r="H37" t="s">
         <v>633</v>
-      </c>
-      <c r="F37" t="s">
-        <v>634</v>
-      </c>
-      <c r="G37" t="s">
-        <v>630</v>
-      </c>
-      <c r="H37" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B38" t="s">
+        <v>634</v>
+      </c>
+      <c r="C38" t="s">
+        <v>585</v>
+      </c>
+      <c r="D38" t="s">
+        <v>635</v>
+      </c>
+      <c r="E38" t="s">
         <v>636</v>
       </c>
-      <c r="C38" t="s">
-        <v>587</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>637</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
+        <v>605</v>
+      </c>
+      <c r="H38" t="s">
         <v>638</v>
-      </c>
-      <c r="F38" t="s">
-        <v>639</v>
-      </c>
-      <c r="G38" t="s">
-        <v>607</v>
-      </c>
-      <c r="H38" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B39" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C39" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D39" t="s">
+        <v>639</v>
+      </c>
+      <c r="E39" t="s">
+        <v>640</v>
+      </c>
+      <c r="F39" t="s">
         <v>641</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
+        <v>605</v>
+      </c>
+      <c r="H39" t="s">
         <v>642</v>
-      </c>
-      <c r="F39" t="s">
-        <v>643</v>
-      </c>
-      <c r="G39" t="s">
-        <v>607</v>
-      </c>
-      <c r="H39" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B40" t="s">
+        <v>643</v>
+      </c>
+      <c r="C40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D40" t="s">
+        <v>644</v>
+      </c>
+      <c r="E40" t="s">
         <v>645</v>
       </c>
-      <c r="C40" t="s">
-        <v>587</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>646</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>647</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>648</v>
-      </c>
-      <c r="G40" t="s">
-        <v>649</v>
-      </c>
-      <c r="H40" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B41" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C41" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D41" t="s">
+        <v>649</v>
+      </c>
+      <c r="E41" t="s">
+        <v>650</v>
+      </c>
+      <c r="F41" t="s">
         <v>651</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
+        <v>628</v>
+      </c>
+      <c r="H41" t="s">
         <v>652</v>
-      </c>
-      <c r="F41" t="s">
-        <v>653</v>
-      </c>
-      <c r="G41" t="s">
-        <v>630</v>
-      </c>
-      <c r="H41" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B42" t="s">
+        <v>653</v>
+      </c>
+      <c r="C42" t="s">
+        <v>585</v>
+      </c>
+      <c r="D42" t="s">
+        <v>654</v>
+      </c>
+      <c r="E42" t="s">
         <v>655</v>
       </c>
-      <c r="C42" t="s">
-        <v>587</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>656</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>657</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>658</v>
-      </c>
-      <c r="G42" t="s">
-        <v>659</v>
-      </c>
-      <c r="H42" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -10275,1167 +10942,262 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931EF204-EE1F-425A-8CC4-147E9C320C04}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="62.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="G1" s="36" t="s">
+      <c r="B1" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>660</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>661</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>662</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>664</v>
+      </c>
+      <c r="I1" s="88" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72.75">
+      <c r="A2" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.45">
-      <c r="A2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F2" t="s">
-        <v>449</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="H2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.45">
-      <c r="A3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G2" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="57.75">
+      <c r="A3" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="H3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.45">
-      <c r="A4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E4" t="s">
-        <v>459</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45">
-      <c r="A5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" t="s">
-        <v>446</v>
-      </c>
-      <c r="D5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E5" t="s">
-        <v>464</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G3" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.75">
+      <c r="A4" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G5" t="s">
-        <v>450</v>
-      </c>
-      <c r="H5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.45">
-      <c r="A6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D6" t="s">
-        <v>469</v>
-      </c>
-      <c r="E6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G4" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.75">
+      <c r="A5" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.45">
-      <c r="A7" t="s">
-        <v>473</v>
-      </c>
-      <c r="B7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.45">
-      <c r="A8" t="s">
-        <v>477</v>
-      </c>
-      <c r="B8" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" t="s">
-        <v>479</v>
-      </c>
-      <c r="F8" t="s">
-        <v>480</v>
-      </c>
-      <c r="G8" t="s">
-        <v>450</v>
-      </c>
-      <c r="H8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.45">
-      <c r="A9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B9" t="s">
-        <v>468</v>
-      </c>
-      <c r="C9" t="s">
-        <v>446</v>
-      </c>
-      <c r="D9" t="s">
-        <v>483</v>
-      </c>
-      <c r="E9" t="s">
-        <v>484</v>
-      </c>
-      <c r="F9" t="s">
-        <v>485</v>
-      </c>
-      <c r="G9" t="s">
-        <v>450</v>
-      </c>
-      <c r="H9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.45">
-      <c r="A10" t="s">
-        <v>487</v>
-      </c>
-      <c r="B10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C10" t="s">
-        <v>446</v>
-      </c>
-      <c r="D10" t="s">
-        <v>489</v>
-      </c>
-      <c r="E10" t="s">
-        <v>490</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G5" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.75">
+      <c r="A6" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57.75">
+      <c r="A7" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G10" t="s">
-        <v>450</v>
-      </c>
-      <c r="H10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.45">
-      <c r="A11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D11" t="s">
-        <v>494</v>
-      </c>
-      <c r="E11" t="s">
-        <v>495</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.45">
-      <c r="A12" t="s">
-        <v>498</v>
-      </c>
-      <c r="B12" t="s">
-        <v>488</v>
-      </c>
-      <c r="C12" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" t="s">
-        <v>499</v>
-      </c>
-      <c r="E12" t="s">
-        <v>500</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G12" t="s">
-        <v>450</v>
-      </c>
-      <c r="H12" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.45">
-      <c r="A13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D13" t="s">
-        <v>504</v>
-      </c>
-      <c r="E13" t="s">
-        <v>505</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G13" t="s">
-        <v>450</v>
-      </c>
-      <c r="H13" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.45">
-      <c r="A14" t="s">
-        <v>508</v>
-      </c>
-      <c r="B14" t="s">
-        <v>509</v>
-      </c>
-      <c r="C14" t="s">
-        <v>446</v>
-      </c>
-      <c r="D14" t="s">
-        <v>510</v>
-      </c>
-      <c r="E14" t="s">
-        <v>511</v>
-      </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G14" t="s">
-        <v>450</v>
-      </c>
-      <c r="H14" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.45">
-      <c r="A15" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C15" t="s">
-        <v>446</v>
-      </c>
-      <c r="D15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E15" t="s">
-        <v>515</v>
-      </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G15" t="s">
-        <v>450</v>
-      </c>
-      <c r="H15" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.45">
-      <c r="A16" t="s">
-        <v>518</v>
-      </c>
-      <c r="B16" t="s">
-        <v>509</v>
-      </c>
-      <c r="C16" t="s">
-        <v>446</v>
-      </c>
-      <c r="D16" t="s">
-        <v>519</v>
-      </c>
-      <c r="E16" t="s">
-        <v>520</v>
-      </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="G16" t="s">
-        <v>450</v>
-      </c>
-      <c r="H16" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.45">
-      <c r="A17" t="s">
-        <v>523</v>
-      </c>
-      <c r="B17" t="s">
-        <v>509</v>
-      </c>
-      <c r="C17" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" t="s">
-        <v>524</v>
-      </c>
-      <c r="E17" t="s">
-        <v>525</v>
-      </c>
-      <c r="F17" t="s">
-        <v>526</v>
-      </c>
-      <c r="G17" t="s">
-        <v>450</v>
-      </c>
-      <c r="H17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.45">
-      <c r="A18" t="s">
-        <v>528</v>
-      </c>
-      <c r="B18" t="s">
-        <v>529</v>
-      </c>
-      <c r="C18" t="s">
-        <v>446</v>
-      </c>
-      <c r="D18" t="s">
-        <v>530</v>
-      </c>
-      <c r="E18" t="s">
-        <v>531</v>
-      </c>
-      <c r="F18" t="s">
-        <v>532</v>
-      </c>
-      <c r="G18" t="s">
-        <v>450</v>
-      </c>
-      <c r="H18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.45">
-      <c r="A19" t="s">
-        <v>534</v>
-      </c>
-      <c r="B19" t="s">
-        <v>529</v>
-      </c>
-      <c r="C19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D19" t="s">
-        <v>535</v>
-      </c>
-      <c r="E19" t="s">
-        <v>536</v>
-      </c>
-      <c r="F19" t="s">
-        <v>537</v>
-      </c>
-      <c r="G19" t="s">
-        <v>450</v>
-      </c>
-      <c r="H19" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.45">
-      <c r="A20" t="s">
-        <v>539</v>
-      </c>
-      <c r="B20" t="s">
-        <v>529</v>
-      </c>
-      <c r="C20" t="s">
-        <v>446</v>
-      </c>
-      <c r="D20" t="s">
-        <v>540</v>
-      </c>
-      <c r="E20" t="s">
-        <v>541</v>
-      </c>
-      <c r="F20" t="s">
-        <v>542</v>
-      </c>
-      <c r="G20" t="s">
-        <v>450</v>
-      </c>
-      <c r="H20" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.45">
-      <c r="A21" t="s">
-        <v>544</v>
-      </c>
-      <c r="B21" t="s">
-        <v>529</v>
-      </c>
-      <c r="C21" t="s">
-        <v>446</v>
-      </c>
-      <c r="D21" t="s">
-        <v>545</v>
-      </c>
-      <c r="E21" t="s">
-        <v>546</v>
-      </c>
-      <c r="F21" t="s">
-        <v>547</v>
-      </c>
-      <c r="G21" t="s">
-        <v>450</v>
-      </c>
-      <c r="H21" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.45">
-      <c r="A22" t="s">
-        <v>549</v>
-      </c>
-      <c r="B22" t="s">
-        <v>550</v>
-      </c>
-      <c r="C22" t="s">
-        <v>446</v>
-      </c>
-      <c r="D22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E22" t="s">
-        <v>552</v>
-      </c>
-      <c r="F22" t="s">
-        <v>553</v>
-      </c>
-      <c r="G22" t="s">
-        <v>450</v>
-      </c>
-      <c r="H22" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.45">
-      <c r="A23" t="s">
-        <v>555</v>
-      </c>
-      <c r="B23" t="s">
-        <v>550</v>
-      </c>
-      <c r="C23" t="s">
-        <v>446</v>
-      </c>
-      <c r="D23" t="s">
-        <v>556</v>
-      </c>
-      <c r="E23" t="s">
-        <v>557</v>
-      </c>
-      <c r="F23" t="s">
-        <v>558</v>
-      </c>
-      <c r="G23" t="s">
-        <v>450</v>
-      </c>
-      <c r="H23" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.45">
-      <c r="A24" t="s">
-        <v>560</v>
-      </c>
-      <c r="B24" t="s">
-        <v>550</v>
-      </c>
-      <c r="C24" t="s">
-        <v>446</v>
-      </c>
-      <c r="D24" t="s">
-        <v>561</v>
-      </c>
-      <c r="E24" t="s">
-        <v>562</v>
-      </c>
-      <c r="F24" t="s">
-        <v>563</v>
-      </c>
-      <c r="G24" t="s">
-        <v>450</v>
-      </c>
-      <c r="H24" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.45">
-      <c r="A25" t="s">
-        <v>565</v>
-      </c>
-      <c r="B25" t="s">
-        <v>550</v>
-      </c>
-      <c r="C25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D25" t="s">
-        <v>566</v>
-      </c>
-      <c r="E25" t="s">
-        <v>567</v>
-      </c>
-      <c r="F25" t="s">
-        <v>568</v>
-      </c>
-      <c r="G25" t="s">
-        <v>450</v>
-      </c>
-      <c r="H25" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.45">
-      <c r="A26" t="s">
-        <v>570</v>
-      </c>
-      <c r="B26" t="s">
-        <v>571</v>
-      </c>
-      <c r="C26" t="s">
-        <v>446</v>
-      </c>
-      <c r="D26" t="s">
-        <v>572</v>
-      </c>
-      <c r="E26" t="s">
-        <v>573</v>
-      </c>
-      <c r="F26" t="s">
-        <v>574</v>
-      </c>
-      <c r="G26" t="s">
-        <v>450</v>
-      </c>
-      <c r="H26" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.45">
-      <c r="A27" t="s">
-        <v>576</v>
-      </c>
-      <c r="B27" t="s">
-        <v>571</v>
-      </c>
-      <c r="C27" t="s">
-        <v>446</v>
-      </c>
-      <c r="D27" t="s">
-        <v>577</v>
-      </c>
-      <c r="E27" t="s">
-        <v>578</v>
-      </c>
-      <c r="F27" t="s">
-        <v>579</v>
-      </c>
-      <c r="G27" t="s">
-        <v>450</v>
-      </c>
-      <c r="H27" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.45">
-      <c r="A28" t="s">
-        <v>581</v>
-      </c>
-      <c r="B28" t="s">
-        <v>571</v>
-      </c>
-      <c r="C28" t="s">
-        <v>446</v>
-      </c>
-      <c r="D28" t="s">
-        <v>582</v>
-      </c>
-      <c r="E28" t="s">
-        <v>583</v>
-      </c>
-      <c r="F28" t="s">
-        <v>584</v>
-      </c>
-      <c r="G28" t="s">
-        <v>450</v>
-      </c>
-      <c r="H28" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.45">
-      <c r="A29" t="s">
-        <v>444</v>
-      </c>
-      <c r="B29" t="s">
-        <v>586</v>
-      </c>
-      <c r="C29" t="s">
-        <v>587</v>
-      </c>
-      <c r="D29" t="s">
-        <v>588</v>
-      </c>
-      <c r="E29" t="s">
-        <v>589</v>
-      </c>
-      <c r="F29" t="s">
-        <v>590</v>
-      </c>
-      <c r="G29" t="s">
-        <v>591</v>
-      </c>
-      <c r="H29" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.45">
-      <c r="A30" t="s">
-        <v>452</v>
-      </c>
-      <c r="B30" t="s">
-        <v>586</v>
-      </c>
-      <c r="C30" t="s">
-        <v>587</v>
-      </c>
-      <c r="D30" t="s">
-        <v>593</v>
-      </c>
-      <c r="E30" t="s">
-        <v>594</v>
-      </c>
-      <c r="F30" t="s">
-        <v>595</v>
-      </c>
-      <c r="G30" t="s">
-        <v>596</v>
-      </c>
-      <c r="H30" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.45">
-      <c r="A31" t="s">
-        <v>457</v>
-      </c>
-      <c r="B31" t="s">
-        <v>598</v>
-      </c>
-      <c r="C31" t="s">
-        <v>587</v>
-      </c>
-      <c r="D31" t="s">
-        <v>599</v>
-      </c>
-      <c r="E31" t="s">
-        <v>600</v>
-      </c>
-      <c r="F31" t="s">
-        <v>601</v>
-      </c>
-      <c r="G31" t="s">
-        <v>602</v>
-      </c>
-      <c r="H31" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.45">
-      <c r="A32" t="s">
-        <v>462</v>
-      </c>
-      <c r="B32" t="s">
-        <v>598</v>
-      </c>
-      <c r="C32" t="s">
-        <v>587</v>
-      </c>
-      <c r="D32" t="s">
-        <v>604</v>
-      </c>
-      <c r="E32" t="s">
-        <v>605</v>
-      </c>
-      <c r="F32" t="s">
-        <v>606</v>
-      </c>
-      <c r="G32" t="s">
-        <v>607</v>
-      </c>
-      <c r="H32" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.45">
-      <c r="A33" t="s">
-        <v>467</v>
-      </c>
-      <c r="B33" t="s">
-        <v>609</v>
-      </c>
-      <c r="C33" t="s">
-        <v>587</v>
-      </c>
-      <c r="D33" t="s">
-        <v>610</v>
-      </c>
-      <c r="E33" t="s">
-        <v>611</v>
-      </c>
-      <c r="F33" t="s">
-        <v>612</v>
-      </c>
-      <c r="G33" t="s">
-        <v>613</v>
-      </c>
-      <c r="H33" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.45">
-      <c r="A34" t="s">
-        <v>473</v>
-      </c>
-      <c r="B34" t="s">
-        <v>609</v>
-      </c>
-      <c r="C34" t="s">
-        <v>587</v>
-      </c>
-      <c r="D34" t="s">
-        <v>615</v>
-      </c>
-      <c r="E34" t="s">
-        <v>616</v>
-      </c>
-      <c r="F34" t="s">
-        <v>617</v>
-      </c>
-      <c r="G34" t="s">
-        <v>618</v>
-      </c>
-      <c r="H34" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.45">
-      <c r="A35" t="s">
-        <v>477</v>
-      </c>
-      <c r="B35" t="s">
-        <v>620</v>
-      </c>
-      <c r="C35" t="s">
-        <v>587</v>
-      </c>
-      <c r="D35" t="s">
-        <v>621</v>
-      </c>
-      <c r="E35" t="s">
-        <v>622</v>
-      </c>
-      <c r="F35" t="s">
-        <v>623</v>
-      </c>
-      <c r="G35" t="s">
-        <v>624</v>
-      </c>
-      <c r="H35" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.45">
-      <c r="A36" t="s">
-        <v>482</v>
-      </c>
-      <c r="B36" t="s">
-        <v>626</v>
-      </c>
-      <c r="C36" t="s">
-        <v>587</v>
-      </c>
-      <c r="D36" t="s">
-        <v>627</v>
-      </c>
-      <c r="E36" t="s">
-        <v>628</v>
-      </c>
-      <c r="F36" t="s">
-        <v>629</v>
-      </c>
-      <c r="G36" t="s">
-        <v>630</v>
-      </c>
-      <c r="H36" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.45">
-      <c r="A37" t="s">
-        <v>487</v>
-      </c>
-      <c r="B37" t="s">
-        <v>626</v>
-      </c>
-      <c r="C37" t="s">
-        <v>587</v>
-      </c>
-      <c r="D37" t="s">
-        <v>632</v>
-      </c>
-      <c r="E37" t="s">
-        <v>633</v>
-      </c>
-      <c r="F37" t="s">
-        <v>634</v>
-      </c>
-      <c r="G37" t="s">
-        <v>630</v>
-      </c>
-      <c r="H37" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.45">
-      <c r="A38" t="s">
-        <v>493</v>
-      </c>
-      <c r="B38" t="s">
-        <v>636</v>
-      </c>
-      <c r="C38" t="s">
-        <v>587</v>
-      </c>
-      <c r="D38" t="s">
-        <v>637</v>
-      </c>
-      <c r="E38" t="s">
-        <v>638</v>
-      </c>
-      <c r="F38" t="s">
-        <v>639</v>
-      </c>
-      <c r="G38" t="s">
-        <v>607</v>
-      </c>
-      <c r="H38" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.45">
-      <c r="A39" t="s">
-        <v>498</v>
-      </c>
-      <c r="B39" t="s">
-        <v>636</v>
-      </c>
-      <c r="C39" t="s">
-        <v>587</v>
-      </c>
-      <c r="D39" t="s">
-        <v>641</v>
-      </c>
-      <c r="E39" t="s">
-        <v>642</v>
-      </c>
-      <c r="F39" t="s">
-        <v>643</v>
-      </c>
-      <c r="G39" t="s">
-        <v>607</v>
-      </c>
-      <c r="H39" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.45">
-      <c r="A40" t="s">
-        <v>503</v>
-      </c>
-      <c r="B40" t="s">
-        <v>645</v>
-      </c>
-      <c r="C40" t="s">
-        <v>587</v>
-      </c>
-      <c r="D40" t="s">
-        <v>646</v>
-      </c>
-      <c r="E40" t="s">
-        <v>647</v>
-      </c>
-      <c r="F40" t="s">
-        <v>648</v>
-      </c>
-      <c r="G40" t="s">
-        <v>649</v>
-      </c>
-      <c r="H40" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.45">
-      <c r="A41" t="s">
-        <v>508</v>
-      </c>
-      <c r="B41" t="s">
-        <v>645</v>
-      </c>
-      <c r="C41" t="s">
-        <v>587</v>
-      </c>
-      <c r="D41" t="s">
-        <v>651</v>
-      </c>
-      <c r="E41" t="s">
-        <v>652</v>
-      </c>
-      <c r="F41" t="s">
-        <v>653</v>
-      </c>
-      <c r="G41" t="s">
-        <v>630</v>
-      </c>
-      <c r="H41" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.45">
-      <c r="A42" t="s">
-        <v>514</v>
-      </c>
-      <c r="B42" t="s">
-        <v>655</v>
-      </c>
-      <c r="C42" t="s">
-        <v>587</v>
-      </c>
-      <c r="D42" t="s">
-        <v>656</v>
-      </c>
-      <c r="E42" t="s">
-        <v>657</v>
-      </c>
-      <c r="F42" t="s">
-        <v>658</v>
-      </c>
-      <c r="G42" t="s">
-        <v>659</v>
-      </c>
-      <c r="H42" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.45">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.45">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.45">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.45">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.45">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11444,118 +11206,734 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1022E3-3F74-46AA-B758-95D78365467D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="66.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="32.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54" style="97" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="88" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.25">
-      <c r="A2" s="90" t="s">
-        <v>662</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>663</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25">
-      <c r="A3" s="90" t="s">
-        <v>665</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25">
-      <c r="A4" s="90" t="s">
-        <v>668</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29.25">
-      <c r="A5" s="90" t="s">
-        <v>671</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25">
-      <c r="A6" s="90" t="s">
-        <v>674</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29.25">
-      <c r="A7" s="91" t="s">
-        <v>677</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.25">
-      <c r="A8" s="90" t="s">
-        <v>680</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29.25">
-      <c r="A9" s="90" t="s">
-        <v>683</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>685</v>
-      </c>
+    <row r="1" spans="1:7">
+      <c r="A1" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="238.5" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>706</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="93"/>
+    </row>
+    <row r="3" spans="1:7" ht="292.5" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>704</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>707</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>706</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="234.75" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>704</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>708</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="232.5" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>704</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>705</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>708</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="131.25" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>712</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="87">
+      <c r="A7" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>712</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>713</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="101.25">
+      <c r="A8" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>481</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>716</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>717</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="101.25">
+      <c r="A9" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>716</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>717</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>718</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>719</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>720</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>718</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>719</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>720</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="98.25" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>721</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>722</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>723</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="98.25" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>721</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>722</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>723</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="101.25">
+      <c r="A14" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>725</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="101.25">
+      <c r="A15" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>725</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>726</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="105" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>728</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>729</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="105" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>728</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>729</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="101.25">
+      <c r="A18" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>732</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>733</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>734</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="101.25">
+      <c r="A19" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>732</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>733</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>734</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="122.25" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>737</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>738</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="122.25" customHeight="1">
+      <c r="A21" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>737</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>738</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="122.25" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>737</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>739</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="122.25" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>737</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>739</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="122.25" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>737</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>740</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="122.25" customHeight="1">
+      <c r="A25" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>737</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>740</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="116.25" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>741</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>742</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>743</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="101.25">
+      <c r="A27" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>741</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>742</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>745</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="101.25">
+      <c r="A28" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>741</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>742</v>
+      </c>
+      <c r="D28" s="92" t="s">
+        <v>746</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="150" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>748</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>749</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="150" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>748</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>750</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="101.25">
+      <c r="A31" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>752</v>
+      </c>
+      <c r="D31" s="92" t="s">
+        <v>753</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="101.25">
+      <c r="A32" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="C32" s="92" t="s">
+        <v>752</v>
+      </c>
+      <c r="D32" s="92" t="s">
+        <v>753</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="101.25">
+      <c r="A33" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B33" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>752</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>755</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="115.5">
+      <c r="A34" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="B34" s="95" t="s">
+        <v>757</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>758</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>759</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="144.75" customHeight="1">
+      <c r="A35" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>757</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>758</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>760</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="115.5">
+      <c r="A36" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="115.5">
+      <c r="A37" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="B37" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>766</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="101"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="104"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="36"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="36"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="36"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="93"/>
+    </row>
+    <row r="46" spans="1:5" ht="75" customHeight="1">
+      <c r="A46"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="93"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="93"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="36"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="93"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="93"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="36"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="93"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="93"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="36"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="93"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="93"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="36"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="93"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="93"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="93"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2a9e946ecd1f9e6/DNP - Guía de buenas practicas Genero - IA/Seguimiento técnico -contrato 1104-2024 DNP/Entregables/Entregable 3/Catalogo de herramientas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DA6EE9A-8C00-45E2-82F4-C444A1494B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AA895B-8F99-43C5-A6F2-85EDE8DC191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1038" yWindow="1038" windowWidth="7500" windowHeight="6000" firstSheet="8" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1038" yWindow="1038" windowWidth="7500" windowHeight="6000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guía" sheetId="11" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="896">
   <si>
     <t>ID</t>
   </si>
@@ -455,18 +455,21 @@
     <t>https://aif360.res.ibm.com/static/images/logo.png</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA,
-Grupos de defensa de género,
-Académicos e investigadores,
-Empresas tecnológicas,
-Reguladores y organismos gubernamentales,
+    <t>Equipos de desarrollo IA;
+Grupos de defensa de género;
+Académicos e investigadores;
+Empresas tecnológicas;
+Reguladores y organismos gubernamentales;
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Planificación y diseño,
-Recopilación y tratamiento de datos,
-Creación de modelo(s) y/o adaptación de modelo(s),
+    <t>Planificación y diseño;
+Recopilación y tratamiento de datos;
+Creación de modelo(s) y/o adaptación de modelo(s);
 Prueba, evaluación, verificación y validación</t>
+  </si>
+  <si>
+    <t>Identificación; Prevención; Mitigación</t>
   </si>
   <si>
     <t>Software</t>
@@ -543,14 +546,14 @@
     <t>https://fairlearn.org/v0.10/_static/fairlearn_full_color.svg</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA,
-Grupos de defensa de género,
-Académicos e investigadores,
-Reguladores y organismos gubernamentales,</t>
-  </si>
-  <si>
-    <t>Recopilación y tratamiento de datos,
-Creación de modelo(s) y/o adaptación de modelo(s),
+    <t>Equipos de desarrollo IA;
+Grupos de defensa de género;
+Académicos e investigadores;
+Reguladores y organismos gubernamentales</t>
+  </si>
+  <si>
+    <t>Recopilación y tratamiento de datos;
+Creación de modelo(s) y/o adaptación de modelo(s);
 Prueba, evaluación, verificación y validación</t>
   </si>
   <si>
@@ -598,7 +601,7 @@
     <t>https://i0.wp.com/themisml.com.au/wp-content/uploads/2024/03/Themis-Logo.png?resize=300%2C163&amp;ssl=1</t>
   </si>
   <si>
-    <t>Identificación,
+    <t>Identificación;
 Mitigación</t>
   </si>
   <si>
@@ -649,13 +652,13 @@
     <t>https://www.technotification.com/wp-content/uploads/2018/09/googles-what-if-tool-for-analyzing-machine-learning-models-without-writing-any-code-1536x864.png</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA,
-Académicos e investigadores,
-Empresas tecnológicas,
+    <t>Equipos de desarrollo IA;
+Académicos e investigadores;
+Empresas tecnológicas;
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Creación de modelo(s) y/o adaptación de modelo(s),
+    <t>Creación de modelo(s) y/o adaptación de modelo(s);
 Prueba, evaluación, verificación y validación</t>
   </si>
   <si>
@@ -714,7 +717,7 @@
     <t>https://opengraph.githubassets.com/17230da2bb71055b155bb371ab9b5b0b307fc71f0d906b7a9b3542ec6f38e1f0/dssg/aequitas</t>
   </si>
   <si>
-    <t>Planificación y diseño,
+    <t>Planificación y diseño;
 Prueba, evaluación, verificación y validación</t>
   </si>
   <si>
@@ -788,15 +791,15 @@
     <t>https://raw.githubusercontent.com/shap/shap/master/docs/artwork/shap_header.svg</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA,
-Académicos e investigadores,
-Empresas tecnológicas,
-Usuarios finales afectados,
+    <t>Equipos de desarrollo IA;
+Académicos e investigadores;
+Empresas tecnológicas;
+Usuarios finales afectados;
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Creación de modelo(s) y/o adaptación de modelo(s),
-Prueba, evaluación, verificación y validación,
+    <t>Creación de modelo(s) y/o adaptación de modelo(s);
+Prueba, evaluación, verificación y validación;
 Explotación y supervisión (Monitoreo y ajuste)</t>
   </si>
   <si>
@@ -849,22 +852,17 @@
     <t>https://www.gstatic.com/devrel-devsite/prod/v1d4a4bce9a6f1ad12c0dbb886d406b5bcfdf3882f3026512eb5f609d55157b5b/tensorflow/images/lockup.svg</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA,
-Grupos de defensa de género,
-Académicos e investigadores,
-Empresas tecnológicas,
-Reguladores y organismos gubernamentales,
-Usuarios finales afectados,
+    <t>Equipos de desarrollo IA;
+Grupos de defensa de género;
+Académicos e investigadores;
+Empresas tecnológicas;
+Reguladores y organismos gubernamentales;
+Usuarios finales afectados;
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Prueba, evaluación, verificación y validación,
+    <t>Prueba, evaluación, verificación y validación;
 Explotación y supervisión (Monitoreo y ajuste)</t>
-  </si>
-  <si>
-    <t>Identificación,
-Prevención,
-Mitigación</t>
   </si>
   <si>
     <t>Estrellas 343
@@ -920,17 +918,17 @@
     <t>https://www.datakind.org/wp-content/uploads/2023/04/DK_LOGO_R_ORG.svg</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA,
-Grupos de defensa de género,
-Académicos e investigadores,
-Empresas tecnológicas,
+    <t>Equipos de desarrollo IA;
+Grupos de defensa de género;
+Académicos e investigadores;
+Empresas tecnológicas;
 Reguladores y organismos gubernamentales</t>
   </si>
   <si>
-    <t>Planificación y diseño,
-Recopilación y tratamiento de datos,
-Creación de modelo(s) y/o adaptación de modelo(s),
-Prueba, evaluación, verificación y validación,
+    <t>Planificación y diseño;
+Recopilación y tratamiento de datos;
+Creación de modelo(s) y/o adaptación de modelo(s);
+Prueba, evaluación, verificación y validación;
 Explotación y supervisión (Monitoreo y ajuste)</t>
   </si>
   <si>
@@ -1030,8 +1028,8 @@
     <t>https://raw.githubusercontent.com/adebayoj/fairml/master/doc/images/logo2.png</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA,
-Académicos e investigadores,
+    <t>Equipos de desarrollo IA;
+Académicos e investigadores;
 Reguladores y organismos gubernamentales</t>
   </si>
   <si>
@@ -1083,7 +1081,7 @@
     <t>Empresas tecnológicas</t>
   </si>
   <si>
-    <t>Prevención,
+    <t>Prevención;
 Mitigación</t>
   </si>
   <si>
@@ -1135,16 +1133,21 @@
     <t>https://th.bing.com/th/id/OIP.-8bdkqiQMDnG0SI71JlxtwHaD4?w=314&amp;h=180&amp;c=7&amp;r=0&amp;o=5&amp;dpr=2.5&amp;pid=1.7</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA,
-Académicos e investigadores,
+    <t>Equipos de desarrollo IA;
+Académicos e investigadores;
 Empresas tecnológicas</t>
   </si>
   <si>
-    <t>Planificación y diseño,
-Creación de modelo(s) y/o adaptación de modelo(s),
-Prueba, evaluación, verificación y validación,
-Entrada en servicio/despliegue,
+    <t>Planificación y diseño;
+Creación de modelo(s) y/o adaptación de modelo(s);
+Prueba, evaluación, verificación y validación;
+Entrada en servicio/despliegue;
 Explotación y supervisión (Monitoreo y ajuste)</t>
+  </si>
+  <si>
+    <t>Identificación;
+Prevención;
+Mitigación</t>
   </si>
   <si>
     <t>Estrellas 2
@@ -1347,18 +1350,18 @@
     <t>https://aix360.res.ibm.com/static/images/logo.png</t>
   </si>
   <si>
-    <t>Equipos de desarrollo IA,
-Grupos de defensa de género,
-Académicos e investigadores,
-Empresas tecnológicas,
-Reguladores y organismos gubernamentales,
-Personas usuarias finales,
+    <t>Equipos de desarrollo IA;
+Grupos de defensa de géner;
+Académicos e investigadores;
+Empresas tecnológicas;
+Reguladores y organismos gubernamentales;
+Personas usuarias finales;
 Medios de comunicación y periodistas tecnológicos</t>
   </si>
   <si>
-    <t>Planificación y diseño,
-Creación de modelo(s) y/o adaptación de modelo(s),
-Prueba, evaluación, verificación y validación,
+    <t>Planificación y diseño;
+Creación de modelo(s) y/o adaptación de modelo(s);
+Prueba, evaluación, verificación y validación;
 Explotación y supervisión (Monitoreo y ajuste)</t>
   </si>
   <si>
@@ -5951,7 +5954,7 @@
       <c r="J1" s="106"/>
       <c r="K1" s="106"/>
       <c r="L1" s="105" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M1" s="106"/>
       <c r="N1" s="106"/>
@@ -5959,13 +5962,13 @@
       <c r="P1" s="106"/>
       <c r="Q1" s="107"/>
       <c r="R1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="S1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="T1" s="105" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="U1" s="106"/>
       <c r="V1" s="106"/>
@@ -5975,13 +5978,13 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D2" s="89" t="s">
         <v>9</v>
@@ -5990,7 +5993,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G2" s="90" t="s">
         <v>55</v>
@@ -6002,23 +6005,23 @@
         <v>79</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="K2" s="90"/>
       <c r="L2" s="89" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M2" s="90" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N2" s="90" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="O2" s="90" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="P2" s="90" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Q2" s="91"/>
       <c r="T2">
@@ -6042,65 +6045,65 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="P3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="R3" t="s">
+        <v>786</v>
+      </c>
+      <c r="S3" t="s">
+        <v>787</v>
+      </c>
+      <c r="U3" t="s">
         <v>785</v>
       </c>
-      <c r="S3" t="s">
-        <v>786</v>
-      </c>
-      <c r="U3" t="s">
-        <v>784</v>
-      </c>
       <c r="X3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C4" t="s">
+        <v>784</v>
+      </c>
+      <c r="R4" t="s">
+        <v>786</v>
+      </c>
+      <c r="S4" t="s">
         <v>787</v>
       </c>
-      <c r="B4" t="s">
-        <v>782</v>
-      </c>
-      <c r="C4" t="s">
-        <v>783</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>785</v>
-      </c>
-      <c r="S4" t="s">
-        <v>786</v>
-      </c>
-      <c r="U4" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -6135,16 +6138,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
@@ -6152,16 +6155,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
@@ -6169,33 +6172,33 @@
         <v>29</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
@@ -6207,7 +6210,7 @@
       </c>
       <c r="C5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
@@ -6215,11 +6218,11 @@
         <v>72</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -6227,19 +6230,19 @@
         <v>79</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C8" s="10"/>
       <c r="F8" s="4"/>
@@ -6308,28 +6311,28 @@
         <v>104</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>107</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>105</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>111</v>
@@ -6341,10 +6344,10 @@
         <v>112</v>
       </c>
       <c r="N1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="O1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="195.75" customHeight="1">
@@ -6352,40 +6355,40 @@
         <v>15</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="O2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="225">
@@ -6393,37 +6396,37 @@
         <v>17</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="195">
@@ -6431,37 +6434,37 @@
         <v>18</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="270">
@@ -6469,34 +6472,34 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>283</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L5" s="30"/>
     </row>
@@ -6505,37 +6508,37 @@
         <v>12</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="180">
@@ -6543,75 +6546,75 @@
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="195">
       <c r="A8" s="19" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>121</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="180">
@@ -6619,37 +6622,37 @@
         <v>16</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="150">
@@ -6657,37 +6660,37 @@
         <v>22</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -6845,25 +6848,25 @@
         <v>130</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O2" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P2" s="79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R2" s="80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S2" s="80" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="225.75" customHeight="1">
@@ -6871,58 +6874,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="N3" s="63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O3" s="71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P3" s="81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="82" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R3" s="82" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S3" s="82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="174">
@@ -6930,58 +6933,58 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K4" s="62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L4" s="62" t="s">
         <v>130</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N4" s="63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O4" s="73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P4" s="81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R4" s="82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S4" s="82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="296.10000000000002" customHeight="1">
@@ -6989,58 +6992,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O5" s="73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P5" s="81" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R5" s="82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S5" s="82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="216.95" customHeight="1">
@@ -7048,58 +7051,58 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M6" s="63" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O6" s="73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P6" s="81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R6" s="82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S6" s="82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="207.6" customHeight="1">
@@ -7107,58 +7110,58 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J7" s="65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L7" s="62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M7" s="63" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O7" s="73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P7" s="81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R7" s="82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S7" s="82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="201" customHeight="1">
@@ -7166,43 +7169,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L8" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="M8" s="62" t="s">
         <v>219</v>
       </c>
+      <c r="M8" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="N8" s="63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="73" t="s">
         <v>220</v>
@@ -7257,8 +7260,8 @@
       <c r="L9" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="M9" s="62" t="s">
-        <v>219</v>
+      <c r="M9" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="N9" s="62" t="s">
         <v>236</v>
@@ -7311,7 +7314,7 @@
         <v>249</v>
       </c>
       <c r="K10" s="62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L10" s="62" t="s">
         <v>130</v>
@@ -7346,10 +7349,10 @@
         <v>256</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>257</v>
@@ -7358,7 +7361,7 @@
         <v>258</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>259</v>
@@ -7375,11 +7378,11 @@
       <c r="L11" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="62" t="s">
-        <v>219</v>
+      <c r="M11" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="N11" s="63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O11" s="71" t="s">
         <v>263</v>
@@ -7426,19 +7429,19 @@
         <v>274</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K12" s="59" t="s">
         <v>275</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>276</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" s="75" t="s">
         <v>277</v>
@@ -7494,22 +7497,22 @@
         <v>291</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="O13" s="77" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P13" s="85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R13" s="85" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S13" s="85" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="249.75" customHeight="1">
@@ -7517,46 +7520,46 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>230</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O14" s="76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P14" s="86" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="87" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R14" s="87" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S14" s="80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="249.75" customHeight="1">
@@ -7564,46 +7567,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O15" s="70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P15" s="80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q15" s="80" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R15" s="80" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S15" s="82" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="249.75" customHeight="1">
@@ -7611,46 +7614,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J16" s="44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O16" s="78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R16" s="84" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S16" s="84" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="249.75" customHeight="1">
@@ -7658,58 +7661,58 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O17" s="72" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P17" s="80" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="80" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R17" s="80" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S17" s="80" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="249.75" customHeight="1">
@@ -7717,46 +7720,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O18" s="72" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P18" s="82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q18" s="82" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R18" s="82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S18" s="82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="249.75" customHeight="1">
@@ -7764,46 +7767,46 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>230</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O19" s="72" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P19" s="82" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q19" s="82" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R19" s="82" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S19" s="82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="249.75" customHeight="1">
@@ -7811,46 +7814,46 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>230</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O20" s="72" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="85" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R20" s="83" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S20" s="84" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="249.75" customHeight="1">
@@ -7858,51 +7861,51 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>230</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O21" s="72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P21" s="82" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q21" s="80" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R21" s="80" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S21" s="80" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="249.75" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -7989,7 +7992,7 @@
         <v>104</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -8013,7 +8016,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -8026,7 +8029,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>29</v>
@@ -8034,15 +8037,15 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>55</v>
@@ -8050,7 +8053,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>9</v>
@@ -8058,7 +8061,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>29</v>
@@ -8066,15 +8069,15 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>55</v>
@@ -8082,15 +8085,15 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>55</v>
@@ -8098,15 +8101,15 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>55</v>
@@ -8114,7 +8117,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>79</v>
@@ -8122,7 +8125,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>9</v>
@@ -8130,7 +8133,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>55</v>
@@ -8138,7 +8141,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>55</v>
@@ -8146,7 +8149,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>79</v>
@@ -8173,7 +8176,7 @@
         <v>225</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
@@ -8213,7 +8216,7 @@
         <v>242</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
@@ -8237,7 +8240,7 @@
         <v>268</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
@@ -8261,7 +8264,7 @@
         <v>282</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
@@ -8290,7 +8293,7 @@
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>29</v>
@@ -8298,15 +8301,15 @@
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>55</v>
@@ -8314,7 +8317,7 @@
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>79</v>
@@ -8322,7 +8325,7 @@
     </row>
     <row r="43" spans="1:2" ht="15">
       <c r="A43" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>72</v>
@@ -8330,7 +8333,7 @@
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>79</v>
@@ -8338,7 +8341,7 @@
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>9</v>
@@ -8346,15 +8349,15 @@
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>55</v>
@@ -8362,7 +8365,7 @@
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>79</v>
@@ -8370,7 +8373,7 @@
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>9</v>
@@ -8378,15 +8381,15 @@
     </row>
     <row r="50" spans="1:2" ht="15">
       <c r="A50" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>407</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>55</v>
@@ -8394,7 +8397,7 @@
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>9</v>
@@ -8402,7 +8405,7 @@
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>55</v>
@@ -8410,7 +8413,7 @@
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>9</v>
@@ -8418,7 +8421,7 @@
     </row>
     <row r="55" spans="1:2" ht="15">
       <c r="A55" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>55</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>55</v>
@@ -8434,7 +8437,7 @@
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>79</v>
@@ -8442,7 +8445,7 @@
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>79</v>
@@ -8569,7 +8572,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
@@ -8577,7 +8580,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -8585,7 +8588,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -8601,7 +8604,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
@@ -8609,92 +8612,92 @@
         <v>120</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>275</v>
@@ -8702,63 +8705,63 @@
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>275</v>
@@ -8766,47 +8769,47 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>275</v>
@@ -8814,26 +8817,26 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
@@ -8841,7 +8844,7 @@
         <v>225</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
@@ -8849,7 +8852,7 @@
         <v>225</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
@@ -8857,7 +8860,7 @@
         <v>225</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
@@ -8873,7 +8876,7 @@
         <v>225</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
@@ -8881,7 +8884,7 @@
         <v>242</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
@@ -8889,7 +8892,7 @@
         <v>242</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
@@ -8897,7 +8900,7 @@
         <v>242</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
@@ -8905,7 +8908,7 @@
         <v>242</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
@@ -8913,7 +8916,7 @@
         <v>256</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
@@ -8921,7 +8924,7 @@
         <v>256</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
@@ -8929,7 +8932,7 @@
         <v>256</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
@@ -8937,7 +8940,7 @@
         <v>268</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
@@ -8945,7 +8948,7 @@
         <v>268</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15">
@@ -8961,7 +8964,7 @@
         <v>282</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
@@ -8969,7 +8972,7 @@
         <v>282</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
@@ -8982,63 +8985,63 @@
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
       <c r="A55" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
       <c r="A60" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15">
       <c r="A61" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>275</v>
@@ -9046,23 +9049,23 @@
     </row>
     <row r="62" spans="1:2" ht="15">
       <c r="A62" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15">
       <c r="A63" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15">
       <c r="A64" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>275</v>
@@ -9070,31 +9073,31 @@
     </row>
     <row r="65" spans="1:2" ht="15">
       <c r="A65" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15">
       <c r="A66" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15">
       <c r="A67" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15">
       <c r="A68" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>275</v>
@@ -9102,79 +9105,79 @@
     </row>
     <row r="69" spans="1:2" ht="15">
       <c r="A69" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
       <c r="A70" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
       <c r="A71" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15">
       <c r="A72" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15">
       <c r="A73" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15">
       <c r="A74" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15">
       <c r="A75" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
       <c r="A76" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15">
       <c r="A77" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15">
       <c r="A78" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>275</v>
@@ -9182,63 +9185,63 @@
     </row>
     <row r="79" spans="1:2" ht="15">
       <c r="A79" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15">
       <c r="A80" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">
       <c r="A81" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
       <c r="A82" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15">
       <c r="A83" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15">
       <c r="A84" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
       <c r="A85" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15">
       <c r="A86" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>275</v>
@@ -9246,23 +9249,23 @@
     </row>
     <row r="87" spans="1:2" ht="15">
       <c r="A87" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15">
       <c r="A88" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15">
       <c r="A89" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>275</v>
@@ -9362,7 +9365,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>12</v>
@@ -9370,7 +9373,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>32</v>
@@ -9378,7 +9381,7 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>49</v>
@@ -9386,7 +9389,7 @@
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>12</v>
@@ -9394,7 +9397,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>49</v>
@@ -9402,7 +9405,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>12</v>
@@ -9410,7 +9413,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>12</v>
@@ -9418,7 +9421,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>12</v>
@@ -9426,7 +9429,7 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>12</v>
@@ -9522,7 +9525,7 @@
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>49</v>
@@ -9530,7 +9533,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>12</v>
@@ -9538,7 +9541,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>12</v>
@@ -9546,13 +9549,13 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>12</v>
@@ -9560,7 +9563,7 @@
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>12</v>
@@ -9568,7 +9571,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>32</v>
@@ -9576,7 +9579,7 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>12</v>
@@ -9584,7 +9587,7 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>12</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>12</v>
@@ -9600,7 +9603,7 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>12</v>
@@ -9648,7 +9651,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>3</v>
@@ -9656,10 +9659,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.9">
@@ -9667,7 +9670,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.15">
@@ -9675,7 +9678,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9683,31 +9686,31 @@
         <v>105</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.15">
       <c r="A7" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.15">
       <c r="A8" s="34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9715,15 +9718,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9731,39 +9734,39 @@
         <v>108</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.9">
       <c r="A13" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.9">
       <c r="A15" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -9804,1085 +9807,1085 @@
         <v>1</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B15" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C16" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E16" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F16" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E17" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F17" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H17" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B19" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H19" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B20" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E20" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H20" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B22" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C22" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D22" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E22" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F22" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G22" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H22" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B23" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D23" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E23" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F23" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H23" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B24" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E24" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F24" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H24" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B25" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D25" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E25" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F25" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H25" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B26" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D26" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E26" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F26" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G26" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B27" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C27" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D27" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F27" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H27" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B28" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D28" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F28" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H28" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B29" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C29" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D29" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E29" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F29" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G29" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H29" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B30" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C30" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D30" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E30" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F30" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G30" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H30" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B31" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C31" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D31" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E31" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F31" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G31" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H31" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B32" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C32" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D32" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E32" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F32" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G32" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H32" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B33" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C33" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D33" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E33" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F33" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H33" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B34" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C34" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D34" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E34" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F34" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G34" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H34" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B35" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C35" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G35" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H35" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C36" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D36" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E36" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F36" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G36" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H36" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B37" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C37" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D37" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E37" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F37" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G37" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H37" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B38" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C38" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D38" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E38" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F38" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G38" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H38" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B39" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C39" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D39" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E39" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F39" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G39" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H39" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B40" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C40" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D40" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E40" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F40" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G40" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H40" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B41" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C41" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D41" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E41" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F41" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G41" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H41" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B42" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C42" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D42" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E42" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F42" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G42" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H42" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -10968,235 +10971,235 @@
         <v>0</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D1" s="88" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F1" s="88" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G1" s="88" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I1" s="88" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72.75">
       <c r="A2" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57.75">
       <c r="A3" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57.75">
       <c r="A4" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="57.75">
       <c r="A5" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57.75">
       <c r="A6" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.75">
       <c r="A7" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -11227,51 +11230,51 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="238.5" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C2" s="99" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G2" s="93"/>
     </row>
     <row r="3" spans="1:7" ht="292.5" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C3" s="99" t="s">
+        <v>708</v>
+      </c>
+      <c r="D3" s="92" t="s">
         <v>707</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>706</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>120</v>
@@ -11279,101 +11282,101 @@
     </row>
     <row r="4" spans="1:7" ht="234.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="232.5" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="131.25" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="87">
       <c r="A7" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D7" s="92" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="101.25">
       <c r="A8" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="101.25">
       <c r="A9" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>120</v>
@@ -11381,33 +11384,33 @@
     </row>
     <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="55.5" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B11" s="95" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>120</v>
@@ -11415,16 +11418,16 @@
     </row>
     <row r="12" spans="1:7" ht="98.25" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>120</v>
@@ -11432,33 +11435,33 @@
     </row>
     <row r="13" spans="1:7" ht="98.25" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B13" s="95" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="101.25">
       <c r="A14" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D14" s="92" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>120</v>
@@ -11466,67 +11469,67 @@
     </row>
     <row r="15" spans="1:7" ht="101.25">
       <c r="A15" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="105" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B16" s="95" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="105" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="101.25">
       <c r="A18" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>120</v>
@@ -11534,50 +11537,50 @@
     </row>
     <row r="19" spans="1:5" ht="101.25">
       <c r="A19" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="122.25" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="122.25" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>120</v>
@@ -11585,33 +11588,33 @@
     </row>
     <row r="22" spans="1:5" ht="122.25" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C22" s="92" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="122.25" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>120</v>
@@ -11619,33 +11622,33 @@
     </row>
     <row r="24" spans="1:5" ht="122.25" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="122.25" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D25" s="92" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>120</v>
@@ -11653,50 +11656,50 @@
     </row>
     <row r="26" spans="1:5" ht="116.25" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B26" s="95" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C26" s="92" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="101.25">
       <c r="A27" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="101.25">
       <c r="A28" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B28" s="95" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>120</v>
@@ -11704,16 +11707,16 @@
     </row>
     <row r="29" spans="1:5" ht="150" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C29" s="92" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D29" s="92" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>120</v>
@@ -11721,67 +11724,67 @@
     </row>
     <row r="30" spans="1:5" ht="150" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C30" s="92" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D30" s="92" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="101.25">
       <c r="A31" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C31" s="92" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D31" s="92" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="101.25">
       <c r="A32" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B32" s="95" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D32" s="92" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="101.25">
       <c r="A33" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B33" s="95" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C33" s="92" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>120</v>
@@ -11789,70 +11792,70 @@
     </row>
     <row r="34" spans="1:5" ht="115.5">
       <c r="A34" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B34" s="95" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D34" s="92" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="144.75" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B35" s="95" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D35" s="92" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="115.5">
       <c r="A36" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="115.5">
       <c r="A37" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D37" s="103" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:5">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2a9e946ecd1f9e6/DNP - Guía de buenas practicas Genero - IA/Seguimiento técnico -contrato 1104-2024 DNP/Entregables/Entregable 3/Catalogo de herramientas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AA895B-8F99-43C5-A6F2-85EDE8DC191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56678CC1-50C0-42B6-8ACB-FF5E9091C720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1038" yWindow="1038" windowWidth="7500" windowHeight="6000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1038" yWindow="1038" windowWidth="7500" windowHeight="6000" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guía" sheetId="11" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <sheet name="Metadatos" sheetId="5" r:id="rId6"/>
     <sheet name="Árbol" sheetId="7" r:id="rId7"/>
     <sheet name="Árbol_v2" sheetId="12" r:id="rId8"/>
-    <sheet name="Tipos de sego" sheetId="13" r:id="rId9"/>
+    <sheet name="Árbol_v4" sheetId="13" r:id="rId9"/>
     <sheet name="Hoja1" sheetId="14" r:id="rId10"/>
     <sheet name="Listas" sheetId="2" r:id="rId11"/>
     <sheet name="Otros" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Catálogo de herramientas'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Catálogo de herramientas'!$A$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Herramienta Objetivo'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Herramienta por actor'!$A$1:$B$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Herramienta por ciclo'!$A$1:$B$1</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="1040">
   <si>
     <t>ID</t>
   </si>
@@ -392,6 +392,9 @@
     <t xml:space="preserve">Casos de uso </t>
   </si>
   <si>
+    <t>Tipos de sesgo</t>
+  </si>
+  <si>
     <t>Licencia</t>
   </si>
   <si>
@@ -441,6 +444,9 @@
   </si>
   <si>
     <t>Evalúa si modelos discriminan a grupos específicos y aplica métodos para reducir sesgos. Ejemplo: en sistemas de contratación, asegura que no se discrimine a ciertos grupos demográficos.</t>
+  </si>
+  <si>
+    <t>Subrepresentación de géneros, Sesgo histórico, Amplificación de estereotipos existentes</t>
   </si>
   <si>
     <t>Apache 2.0</t>
@@ -511,6 +517,9 @@
   </si>
   <si>
     <t>Ideal para modelos con requisitos de equidad. Ejemplo: en evaluación de crédito, asegura que el modelo no favorezca a un grupo específico basado en variables sensibles como género o raza.</t>
+  </si>
+  <si>
+    <t>Subrepresentación de géneros, Tratamiento diferencial según género, Predicciones alineadas con sesgos preconcebidos</t>
   </si>
   <si>
     <t>MIT License</t>
@@ -592,6 +601,9 @@
     <t>Ayuda a evaluar y ajustar modelos que pueden discriminar. Ejemplo: en contratación o calificación de riesgos, asegura precisión y equidad.</t>
   </si>
   <si>
+    <t>Sesgo histórico, Sesgo por exclusión de características relevantes, Impacto discriminatorio en decisiones automatizadas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Instala Themis-ML en Python y usa sus algoritmos para analizar y mitigar sesgos en modelos de clasificación. La herramienta permite auditar los resultados de un modelo según características sensibles y ajustar el modelo en consecuencia. Su alcance está en la evaluación de riesgos y recomendaciones, donde es esencial asegurar la equidad en predicciones. </t>
   </si>
   <si>
@@ -641,6 +653,9 @@
   </si>
   <si>
     <t>Simula cómo cambios en datos afectan predicciones. Ejemplo: en puntuación crediticia, analiza el efecto de modificaciones en datos de entrada en distintos grupos.</t>
+  </si>
+  <si>
+    <t>Amplificación de estereotipos existentes, Inferencias incorrectas de género</t>
   </si>
   <si>
     <t xml:space="preserve">What-If Tool, de Google AI, es una extensión visual de TensorBoard para analizar cómo cambios en datos afectan las predicciones de un modelo. Al cargar tus datos en la herramienta, puedes ver cómo responde el modelo a diferentes entradas y escenarios. Esto es útil en banca y salud, ya que permite verificar si el modelo funciona de manera justa en distintos casos. </t>
@@ -705,6 +720,9 @@
     <t>Utilizada para descubrir posibles discriminaciones en modelos. Ejemplo: en aplicaciones judiciales, identifica si existen disparidades en la precisión para distintos grupos étnicos o de género.</t>
   </si>
   <si>
+    <t>Tratamiento diferencial según género, Impacto discriminatorio en decisiones automatizadas</t>
+  </si>
+  <si>
     <t>BSD-3 License</t>
   </si>
   <si>
@@ -759,6 +777,9 @@
   </si>
   <si>
     <t>Útil en cualquier contexto donde se necesite interpretar las predicciones de modelos. Ejemplo: en diagnóstico médico, permite ver qué factores afectan la predicción de una enfermedad, promoviendo la transparencia.</t>
+  </si>
+  <si>
+    <t>Subrepresentación de géneros, Predicciones alineadas con sesgos preconcebidos</t>
   </si>
   <si>
     <r>
@@ -843,6 +864,9 @@
     <t>Permite analizar el rendimiento de modelos en diferentes segmentos de población. Ejemplo: en sistemas educativos, puede ayudar a garantizar que el modelo de admisión no discrimine a ciertos grupos.</t>
   </si>
   <si>
+    <t>Subrepresentación de géneros, Respuestas basadas en estereotipos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fairness Indicators, de Google AI, proporciona métricas para monitorear equidad en modelos. Puedes integrar esta herramienta en modelos de TensorFlow y configurarla para generar reportes sobre el rendimiento del modelo en distintos grupos. Es especialmente útil en sistemas de producción que requieren evaluación continua de equidad, como educación y salud. </t>
   </si>
   <si>
@@ -906,6 +930,9 @@
     <t>Se usa para evaluar equidad en modelos de decisiones críticas. Ejemplo: en sistemas de salud, asegura que los modelos no afecten desproporcionadamente a ciertos grupos étnicos.</t>
   </si>
   <si>
+    <t>Sesgo histórico, Subrepresentación de géneros</t>
+  </si>
+  <si>
     <t>Sin especificar</t>
   </si>
   <si>
@@ -974,6 +1001,9 @@
     <t>Permite a los desarrolladores evaluar si sus modelos son justos. Ejemplo: en seguros, detecta si hay variables que perjudican a ciertos grupos demográficos en la evaluación de primas.</t>
   </si>
   <si>
+    <t>Inferencias incorrectas de género, Reforzamiento de errores del modelo</t>
+  </si>
+  <si>
     <t xml:space="preserve">FairTest permite realizar auditorías de equidad en modelos de machine learning, analizando patrones de sesgo en función de variables sensibles. Puedes instalarlo en Python y usarlo para auditar el rendimiento del modelo en sectores como seguros y contratación. Esto es importante para identificar áreas de sesgo en los modelos de decisión. </t>
   </si>
   <si>
@@ -1019,6 +1049,9 @@
     <t>Útil para identificar las variables que más afectan una predicción. Ejemplo: en contratación, asegura que características irrelevantes como el género no tengan peso en las decisiones.</t>
   </si>
   <si>
+    <t>Estandarización de roles de género, Tratamiento diferencial según género</t>
+  </si>
+  <si>
     <t xml:space="preserve">FairML evalúa la importancia de las características de un modelo y permite detectar si alguna introduce sesgos. Instala la biblioteca en Python, carga tu modelo y evalúa el peso de cada característica en la predicción. Es útil en contratación y servicios financieros, donde es importante verificar que variables como género no afecten las predicciones. </t>
   </si>
   <si>
@@ -1072,6 +1105,9 @@
     <t>Se utiliza en contextos donde es importante reducir sesgos inherentes. Ejemplo: en evaluaciones de desempeño de empleados, ayuda a disminuir el impacto de variables sensibles.</t>
   </si>
   <si>
+    <t>Amplificación de estereotipos existentes, Sesgo histórico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adversarial Debiasing es una técnica de mitigación que se implementa en TensorFlow y usa redes adversariales para ajustar los modelos de ML. Configura el modelo en TensorFlow y aplica esta técnica para reducir el sesgo en las predicciones. Es ideal en predicciones de riesgos y otras áreas de alto impacto, asegurando que el modelo sea imparcial. </t>
   </si>
   <si>
@@ -1122,6 +1158,9 @@
   </si>
   <si>
     <t>Facilita el monitoreo de sesgos a lo largo del ciclo de vida del modelo. Ejemplo: en algoritmos de recomendación, asegura que el modelo no discrimine en función de variables sensibles como el género o la etnia.</t>
+  </si>
+  <si>
+    <t>Respuestas basadas en estereotipos, Ajustes que perpetúan patrones sesgados</t>
   </si>
   <si>
     <t xml:space="preserve">Fairness Flow, de Google, es un marco de trabajo de equidad en el ciclo de vida de los modelos. Configura Fairness Flow para evaluar la equidad en cada etapa del desarrollo y despliegue del modelo. Es ideal para aplicaciones de recomendación y atención al cliente, garantizando que las recomendaciones sean justas para todos los usuarios. </t>
@@ -1197,6 +1236,9 @@
     <t>Ideal para aplicaciones en análisis de texto. Ejemplo: en chatbots, evita que se generen respuestas que reproduzcan sesgos de género o raza.</t>
   </si>
   <si>
+    <t>Inferencias incorrectas de género, Respuestas basadas en estereotipos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bias Mitigation in NLP Models, del Allen Institute for AI, ayuda a reducir sesgos en modelos de lenguaje natural. Integra los métodos en tu modelo de NLP para ajustar el texto generado y asegurar que las respuestas no sean discriminatorias. Es útil en chatbots y asistentes virtuales para evitar la perpetuación de estereotipos. </t>
   </si>
   <si>
@@ -1297,6 +1339,9 @@
     <t>Utilizado en sectores financieros y de salud. Ejemplo: en un modelo de diagnóstico, ayuda a monitorear y ajustar el rendimiento para que no favorezca un grupo específico.</t>
   </si>
   <si>
+    <t>Sesgo histórico, Ajustes que perpetúan patrones sesgados</t>
+  </si>
+  <si>
     <t xml:space="preserve">IBM OpenScale permite monitorear modelos en producción en busca de sesgos y mejorar la transparencia. Configura OpenScale para generar alertas sobre desviaciones en el rendimiento del modelo y ajustar predicciones. Es ampliamente utilizado en sectores regulados como finanzas y seguros, donde la equidad en las decisiones es crucial. </t>
   </si>
   <si>
@@ -1339,6 +1384,9 @@
   </si>
   <si>
     <t>Se usa para explicar decisiones críticas en diversos sectores. Ejemplo: en salud, permite a los médicos entender por qué un modelo diagnostica una enfermedad, lo que ayuda a tomar decisiones informadas.</t>
+  </si>
+  <si>
+    <t>Subrepresentación de géneros, Falta de adaptabilidad a contextos culturales o locales</t>
   </si>
   <si>
     <t xml:space="preserve">Explainability 360 es un conjunto de herramientas de IBM para explicar decisiones de modelos de IA. Instala las herramientas en Python y utilízalas para analizar la interpretación del modelo en sectores como salud y banca, donde es necesario explicar detalladamente cómo el modelo toma decisiones para cumplir con auditorías y revisiones. </t>
@@ -1411,6 +1459,9 @@
     <t>Útil en empresas que buscan auditar sus modelos para cumplir con normativas de equidad. Ejemplo: en contratación, asegura que el modelo no discrimine contra ciertos grupos en el proceso de selección.</t>
   </si>
   <si>
+    <t>Amplificación de estereotipos existentes, Subrepresentación de géneros</t>
+  </si>
+  <si>
     <t>Licencia MIT</t>
   </si>
   <si>
@@ -1470,6 +1521,9 @@
     <t>Ejemplo: en sistemas de selección automática, revisa si el modelo favorece o perjudica a ciertos candidatos en función de variables como el género o la etnia.</t>
   </si>
   <si>
+    <t>Estandarización de roles de género, Inferencias incorrectas de género</t>
+  </si>
+  <si>
     <t xml:space="preserve">FairCVtest es un banco de pruebas de la Universidad Autónoma de Madrid para detectar sesgos en sistemas de reclutamiento automatizado. Usa FairCVtest para analizar cómo el modelo de selección de CV procesa variables sensibles como género y edad, asegurando que no discrimine injustamente a candidatos. Es útil en empresas con políticas de inclusión laboral. </t>
   </si>
   <si>
@@ -1523,6 +1577,9 @@
     <t>Ideal en sectores donde la transparencia es crucial. Ejemplo: en salud, permite visualizar cómo las decisiones del modelo impactan a distintos grupos, promoviendo prácticas de salud equitativas.</t>
   </si>
   <si>
+    <t>Amplificación de estereotipos existentes, Reforzamiento de errores del modelo</t>
+  </si>
+  <si>
     <t xml:space="preserve">FairVis es una herramienta de análisis visual de la Universidad de Georgia que permite auditar modelos en busca de sesgos interseccionales. Puedes crear subgrupos de datos para ver si el modelo muestra resultados desiguales en distintos segmentos. Es ideal para sectores como salud y educación, donde la equidad en la calidad del servicio es clave. </t>
   </si>
   <si>
@@ -1570,6 +1627,9 @@
   </si>
   <si>
     <t>Se aplica en modelos de decisión en sectores de alto impacto. Ejemplo: en seguros, permite analizar el impacto de las decisiones del modelo sobre diferentes grupos poblacionales, asegurando decisiones justas.</t>
+  </si>
+  <si>
+    <t>Falta de adaptabilidad a contextos culturales o locales, Subrepresentación de géneros</t>
   </si>
   <si>
     <t xml:space="preserve">FairSight es una plataforma de análisis visual que permite visualizar el impacto de decisiones de modelos en diferentes grupos poblacionales. Configura FairSight para identificar y analizar disparidades en el rendimiento del modelo. Es útil en sectores como seguros y recursos humanos, donde la equidad en las decisiones es esencial para evitar sesgos. </t>
@@ -2597,26 +2657,52 @@
     <t>Definición</t>
   </si>
   <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
     <t>Acción para mitigarlo</t>
   </si>
   <si>
     <t>Tipo de heramienta</t>
   </si>
   <si>
+    <t>Contexto</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
     <t>Sesgo de datos</t>
   </si>
   <si>
     <t>Subrepresentación de géneros</t>
   </si>
   <si>
-    <t xml:space="preserve">El sesgo ocurre cuando los algoritmos se entrenan con datos que no representan adecuadamente a diferentes géneros o grupos, como la sobre-representación de un género (por ejemplo, hombres) y la sub-representación de otros (por ejemplo, mujeres o personas de género diverso, incluyendo personas LGBTIQ+). Esto genera decisiones sesgadas que excluyen las experiencias de estos grupos y perpetúan desigualdades históricas. Por ejemplo, en el ámbito de la salud, puede llevar a diagnósticos y tratamientos inexactos al no considerar diferencias fisiológicas entre géneros (Buolamwini &amp; Gebru, 2018); en el ámbito laboral, refuerza la preferencia por perfiles masculinos, manteniendo la exclusión de mujeres y minorías en roles históricamente dominados por hombres.
-</t>
+    <t>El sesgo de género en algoritmos ocurre cuando los datos favorecen a un género (por ejemplo, hombres) y excluyen a otros (como mujeres y LGBTIQ+), perpetuando desigualdades en áreas como la salud y el trabajo (Buolamwini &amp; Gebru, 2018).</t>
+  </si>
+  <si>
+    <t>¿Ha verificado que los datos utilizados incluyen una representación equilibrada de géneros, incluidas mujeres y personas LGBTIQ+, y tomado medidas para corregir cualquier subrepresentación identificada?</t>
   </si>
   <si>
     <t>Asegurar una representación equilibrada de los géneros y grupos LGBTIQ+ en los datos de entrenamiento</t>
   </si>
   <si>
-    <t>El sesgo ocurre cuando los algoritmos se entrenan con datos que no representan adecuadamente a diferentes géneros o grupos, como la sobre-representación de un género (por ejemplo, hombres) y la sub-representación de otros (por ejemplo, mujeres o personas de género diverso, incluyendo personas LGBTIQ+). Esto genera decisiones sesgadas que excluyen las experiencias de estos grupos y perpetúan desigualdades históricas. Por ejemplo, en el ámbito de la salud, puede llevar a diagnósticos y tratamientos inexactos al no considerar diferencias fisiológicas entre géneros (Buolamwini &amp; Gebru, 2018); en el ámbito laboral, refuerza la preferencia por perfiles masculinos, manteniendo la exclusión de mujeres y minorías en roles históricamente dominados por hombres.</t>
+    <t>Planificación y diseño; Recopilación y tratamiento de datos</t>
+  </si>
+  <si>
+    <t>Desarrollo de IA</t>
+  </si>
+  <si>
+    <t>TS2</t>
+  </si>
+  <si>
+    <t>¿Ha analizado los datos de entrenamiento para asegurarse de que reflejan de manera justa y equilibrada a todos los géneros, y ha corregido posibles sesgos hacia un género específico?</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>¿Ha evaluado si los datos presentan un sesgo significativo hacia un género específico y tomado acciones para equilibrarlos y garantizar representatividad?</t>
   </si>
   <si>
     <t>Asegurar que los datos no estén sesgados hacia un solo género (por ejemplo, masculino) y equilibrarlos.</t>
@@ -2625,13 +2711,25 @@
     <t>Inyección de prompt</t>
   </si>
   <si>
+    <t>TS4</t>
+  </si>
+  <si>
+    <t>¿Ha identificado posibles sesgos en los datos que favorecen a un género en particular y aplicado ajustes para garantizar la imparcialidad?</t>
+  </si>
+  <si>
     <t>Google's What-If Tool</t>
   </si>
   <si>
+    <t>TS5</t>
+  </si>
+  <si>
     <t>Sesgo Estereotipado</t>
   </si>
   <si>
-    <t>Se presenta cuando los datos utilizados para entrenar los modelos refuerzan estereotipos de género. Por ejemplo, asociar a las mujeres solo con profesiones relacionadas con el cuidado y a los hombres con profesiones tecnológicas, afectando la precisión y la justicia del modelo.</t>
+    <t>El sesgo de género ocurre cuando los datos refuerzan estereotipos, como asociar a las mujeres con profesiones de cuidado y a los hombres con roles tecnológicos, lo que afecta la precisión y justicia del modelo.</t>
+  </si>
+  <si>
+    <t>¿Ha revisado si los datos refuerzan estereotipos de género y tomado acciones para eliminar asociaciones que perpetúen desigualdades en los resultados del modelo?</t>
   </si>
   <si>
     <t>Eliminar asociaciones sesgadas entre géneros y profesiones, promoviendo la diversidad de roles.</t>
@@ -2640,40 +2738,103 @@
     <t>Modelos de experto (MoE)</t>
   </si>
   <si>
+    <t>TS6</t>
+  </si>
+  <si>
+    <t>¿Ha corregido asociaciones entre géneros y roles profesionales en los datos de entrenamiento para evitar la perpetuación de estereotipos?</t>
+  </si>
+  <si>
     <t>AI Fairness 360 (AIF360)</t>
   </si>
   <si>
-    <t>Este sesgo refleja los prejuicios y las desigualdades históricas que están presentes en los datos de entrenamiento. Si los datos históricos están sesgados, el modelo puede replicar y amplificar esos sesgos, perpetuando las discriminaciones previas. Por ejemplo, sesgos en los datos de contratación laboral pasados.</t>
+    <t>TS7</t>
+  </si>
+  <si>
+    <t>Este sesgo refleja las desigualdades históricas en los datos de entrenamiento, lo que puede hacer que el modelo replique y amplifique discriminaciones previas, como en la contratación laboral.</t>
+  </si>
+  <si>
+    <t>¿Ha revisado los datos para identificar desigualdades históricas relacionadas con género y ajustado estas discrepancias para evitar su replicación en los resultados del modelo?</t>
   </si>
   <si>
     <t>Identificar y ajustar los datos históricos que refuerzan desigualdades de género y minorías</t>
   </si>
   <si>
+    <t>TS8</t>
+  </si>
+  <si>
+    <t>¿Ha detectado y corregido desigualdades históricas en los datos que puedan llevar a resultados injustos relacionados con género?</t>
+  </si>
+  <si>
+    <t>TS9</t>
+  </si>
+  <si>
     <t>Sesgo por Exclusión de Características Relevantes</t>
   </si>
   <si>
     <t>El sesgo surge al no considerar características específicas de género, como diferencias fisiológicas.</t>
   </si>
   <si>
+    <t>¿Ha considerado diferencias fisiológicas o contextuales específicas de género en los datos de entrenamiento para evitar exclusiones relevantes?</t>
+  </si>
+  <si>
     <t>Incluir diferencias fisiológicas y de contexto entre géneros en los datos de entrenamiento.</t>
   </si>
   <si>
+    <t>TS10</t>
+  </si>
+  <si>
+    <t>¿Ha incluido en los datos características específicas relacionadas con género que puedan ser necesarias para garantizar la equidad en los resultados del modelo?</t>
+  </si>
+  <si>
+    <t>TS11</t>
+  </si>
+  <si>
     <t>Amplificación de estereotipos existentes</t>
   </si>
   <si>
-    <t>Ocurre cuando un modelo de IA amplifica los estereotipos ya existentes en la sociedad, como aquellos relacionados con género, raza u orientación sexual. Por ejemplo, un sistema de recomendación que sugiere productos "femeninos" o "masculinos" reforzando nociones tradicionales de género.</t>
+    <t>Ocurre cuando un modelo de IA refuerza y replica los estereotipos sociales preexistentes, como los relacionados con género, raza u orientación sexual.</t>
+  </si>
+  <si>
+    <t>¿Ha revisado si el modelo amplifica estereotipos de género existentes y aplicado técnicas para reducir o eliminar este efecto?</t>
   </si>
   <si>
     <t>Aplicar técnicas de reentrenamiento de modelos con datos diversos y representativos para evitar que los algoritmos favorezcan estereotipos de género, raza u orientación sexual.</t>
   </si>
   <si>
+    <t>Creación de modelo(s) y/o adaptación de modelo(s); Prueba, evaluación, verificación y validación</t>
+  </si>
+  <si>
+    <t>TS12</t>
+  </si>
+  <si>
+    <t>¿Ha tomado medidas para garantizar que el modelo no refuerce estereotipos de género al analizar los resultados y las decisiones del sistema?</t>
+  </si>
+  <si>
+    <t>TS13</t>
+  </si>
+  <si>
+    <t>Predicciones alineadas con sesgos preconcebidos</t>
+  </si>
+  <si>
+    <t>Ocurre cuando un modelo de IA refuerza prejuicios introducidos por personas desarrolladoras o datos, como en un reclutamiento que favorece un género o raza específica sin considerar méritos.</t>
+  </si>
+  <si>
+    <t>¿Ha identificado posibles sesgos preconcebidos en el modelo relacionados con género y tomado medidas para mitigarlos a través de técnicas de balanceo o ajustes específicos?</t>
+  </si>
+  <si>
+    <t>Implementar técnicas de debiasing (desbías de los datos), como el balanceo de datos y la regularización de equidad para equilibrar las decisiones en función del mérito, no de atributos demográficos.</t>
+  </si>
+  <si>
+    <t>TS14</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Predicciones alineadas con sesgos preconcebidos</t>
   </si>
   <si>
-    <t>Se da cuando un modelo de IA toma decisiones basadas en sesgos previos que las personas  desarrolladoras o los propios datos entrenados pueden haber introducido, lo que refuerza prejuicios existentes. Ejemplo: un modelo de reclutamiento que favorece personas candidatas de un género o raza específica, sin basarse en méritos reales.</t>
-  </si>
-  <si>
-    <t>Implementar técnicas de debiasing (desbías de los datos), como el balanceo de datos y la regularización de equidad para equilibrar las decisiones en función del mérito, no de atributos demográficos.</t>
+    <t>¿Ha implementado ajustes en el modelo para evitar que las decisiones estén influenciadas por sesgos de género en lugar de basarse exclusivamente en el mérito o las capacidades objetivas?</t>
+  </si>
+  <si>
+    <t>TS15</t>
   </si>
   <si>
     <t>Sesgo de interacción</t>
@@ -2682,7 +2843,10 @@
     <t>Tratamiento diferencial según género</t>
   </si>
   <si>
-    <t>Ocurre cuando un sistema de IA trata a las personas usuarias de manera diferente dependiendo de su género. Por ejemplo, un chatbot que responde de forma diferente a preguntas similares, dependiendo de si la persona usuaria es percibido como masculino o femenino.</t>
+    <t xml:space="preserve"> Ocurre cuando un sistema de IA trata a las personas de manera distinta en función de su género, lo que puede reflejarse en respuestas, recomendaciones o decisiones sesgadas.</t>
+  </si>
+  <si>
+    <t>¿Ha revisado si el sistema trata de manera diferente a las personas según su género y tomado acciones para neutralizar respuestas o decisiones basadas en esta diferencia?</t>
   </si>
   <si>
     <t>Aplicar técnicas de neutralización de género en las respuestas del sistema, para que las interacciones no se vean influenciadas por el género del usuario.</t>
@@ -2691,13 +2855,43 @@
     <t>Gender Shades</t>
   </si>
   <si>
+    <t>Entrada en servicio/despliegue; Explotación y supervisión (Monitoreo y ajuste)</t>
+  </si>
+  <si>
+    <t>Desarrollo de IA; Adquisición IA</t>
+  </si>
+  <si>
+    <t>TS16</t>
+  </si>
+  <si>
+    <t>¿Ha tomado medidas para garantizar que las interacciones del sistema con los usuarios no se vean influenciadas por el género de los mismos?</t>
+  </si>
+  <si>
+    <t>TS17</t>
+  </si>
+  <si>
+    <t>Respuestas basadas en estereotipos</t>
+  </si>
+  <si>
+    <t>Ocurre cuando un sistema de IA refuerza prejuicios de género, como asociar a las mujeres con el cuidado y a los hombres con roles tecnológicos.</t>
+  </si>
+  <si>
+    <t>¿Ha identificado respuestas o resultados del sistema que refuercen estereotipos de género y ajustado las configuraciones para evitar este comportamiento?</t>
+  </si>
+  <si>
+    <t>Implementar un análisis de equidad en los sistemas de IA para asegurarse de que las interacciones no estén sesgadas por el género. También incluir voces y roles no estereotipados en los asistentes virtuales</t>
+  </si>
+  <si>
+    <t>TS18</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Respuestas basadas en estereotipos</t>
   </si>
   <si>
-    <t>Se refiere a situaciones en las que un sistema de IA responde de manera que refuerza los estereotipos de género. Por ejemplo, un asistente virtual que utiliza un lenguaje paternalista hacia mujeres o que asume que los hombres son los principales responsables de tareas tecnológicas, no reconoce persoasn de género diverso</t>
-  </si>
-  <si>
-    <t>Implementar un análisis de equidad en los sistemas de IA para asegurarse de que las interacciones no estén sesgadas por el género. También incluir voces y roles no estereotipados en los asistentes virtuales</t>
+    <t>¿Ha analizado si las interacciones o recomendaciones del sistema están alineadas con estereotipos de género y tomado acciones para garantizar una neutralidad en las respuestas?</t>
+  </si>
+  <si>
+    <t>TS19</t>
   </si>
   <si>
     <t>Sesgo de uso</t>
@@ -2707,22 +2901,64 @@
 </t>
   </si>
   <si>
-    <t>Ocurre cuando un sistema de IA hace suposiciones incorrectas sobre el género de las personas  usuarias basándose en patrones previos. Por ejemplo, si un sistema de recomendación de productos asume erróneamente el género de una persona usuaria a partir de su comportamiento en línea, lo que puede afectar la precisión de las recomendaciones.</t>
+    <t>Ocurre cuando un sistema de IA asume erróneamente el género de una persona, basándose en datos limitados o sesgados, lo que puede llevar a decisiones o respuestas inapropiadas.</t>
+  </si>
+  <si>
+    <t>¿Ha evaluado si el sistema realiza inferencias incorrectas de género sobre los usuarios y ajustado el diseño para garantizar que se respete la diversidad y las preferencias individuales?</t>
   </si>
   <si>
     <t>Desarrollar algoritmos inclusivos que no asuman el género basado en patrones previos, sino que respeten las preferencias de los usuarios.</t>
   </si>
   <si>
+    <t>TS20</t>
+  </si>
+  <si>
+    <t>¿Ha revisado si el sistema está asumiendo de manera inapropiada el género de las personas y tomado medidas para garantizar que no se tomen decisiones basadas en dichas suposiciones?</t>
+  </si>
+  <si>
+    <t>TS21</t>
+  </si>
+  <si>
+    <t>¿Ha considerado la inclusión de datos explícitos y consensuados sobre género para evitar inferencias incorrectas o inapropiadas en los resultados del sistema?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Promover el uso de datos explícitos y consensuados sobre el género de los usuarios. </t>
   </si>
   <si>
+    <t>Explotación y supervisión (Monitoreo y ajuste); Entrada en servicio/despliegue</t>
+  </si>
+  <si>
+    <t>TS22</t>
+  </si>
+  <si>
+    <t>¿Ha identificado errores relacionados con la interpretación de género en el sistema y realizado auditorías para corregir estas suposiciones incorrectas?</t>
+  </si>
+  <si>
+    <t>TS23</t>
+  </si>
+  <si>
+    <t>¿Ha tomado medidas para garantizar que las decisiones automatizadas del sistema no resulten en discriminación hacia ningún género y se basen en atributos relevantes y no demográficos?</t>
+  </si>
+  <si>
     <t>Realizar auditorías de los sistemas de IA para identificar cualquier sesgo basado en suposiciones incorrectas.</t>
   </si>
   <si>
+    <t>TS24</t>
+  </si>
+  <si>
+    <t>¿Ha realizado auditorías para identificar sesgos de género en decisiones automatizadas, como contrataciones o evaluaciones, y aplicado ajustes para corregirlos?</t>
+  </si>
+  <si>
+    <t>TS25</t>
+  </si>
+  <si>
     <t>Impacto discriminatorio en decisiones automatizadas</t>
   </si>
   <si>
-    <t>Se presenta cuando las decisiones automatizadas tomadas por un sistema de IA (como en procesos de contratación o crédito) se ven afectadas por sesgos de género, llevando a resultados discriminatorios. Un ejemplo común es el sesgo de género en los sistemas de IA utilizados para evaluar currículums o en decisiones de préstamos.</t>
+    <t>Se presenta cuando las decisiones automatizadas de IA, como en contratación o crédito, se ven influenciadas por sesgos de género, resultando en discriminación. Un ejemplo es el sesgo en la evaluación de currículums o decisiones de préstamos</t>
+  </si>
+  <si>
+    <t>¿Ha implementado evaluaciones sistemáticas para asegurar que las decisiones del sistema no favorezcan injustamente a un género específico?</t>
   </si>
   <si>
     <t>Utilizar técnicas de Machine Learning para crear modelos que no favorezcan a un género en particular, aplicando regularización de equidad, como el re-pesado de datos, para corregir cualquier sesgo de género en las decisiones automatizadas.</t>
@@ -2731,29 +2967,62 @@
     <t>IBM Watson</t>
   </si>
   <si>
+    <t>Prueba, evaluación, verificación y validación; Entrada en servicio/despliegue</t>
+  </si>
+  <si>
+    <t>TS26</t>
+  </si>
+  <si>
+    <t>¿Ha identificado si los ajustes realizados en los modelos perpetúan patrones sesgados de género y tomado medidas para corregir estas desviaciones?</t>
+  </si>
+  <si>
     <t>Realizar auditorías por grupo y evaluaciones de error  para detectar y corregir sesgos discriminatorios que puedan estar afectando las decisiones automatizadas basadas en género.</t>
   </si>
   <si>
+    <t>TS27</t>
+  </si>
+  <si>
+    <t>¿Ha monitoreado el sistema para evitar que ajustes posteriores refuercen patrones históricos de desigualdad relacionados con género?</t>
+  </si>
+  <si>
     <t>Realizar auditorías por grupo y evaluaciones de error con herramientas para detectar y corregir sesgos discriminatorios que puedan estar afectando las decisiones automatizadas basadas en género.</t>
+  </si>
+  <si>
+    <t>TS28</t>
   </si>
   <si>
     <t xml:space="preserve">Reforzamiento de errores del modelo
 </t>
   </si>
   <si>
-    <t>Este subtipo ocurre cuando un sistema de IA comete errores sistemáticos y esos errores son retroalimentados en el modelo, amplificando sesgos ya presentes. Esto se ve en sistemas como la contratación, donde los modelos tienden a seguir patrones sesgados hacia géneros o razas particulares, reproduciendo las desigualdades.</t>
+    <t>Ocurre cuando un sistema de IA perpetúa y amplifica sus propios sesgos de género o errores a lo largo del tiempo, al basarse en datos sesgados o incorrectos, lo que agrava los resultados discriminatorios.</t>
+  </si>
+  <si>
+    <t>¿Ha tomado acciones para reentrenar el sistema con datos más diversos y equilibrados para contrarrestar patrones sesgados en los resultados?</t>
   </si>
   <si>
     <t>Monitoreo continuo de modelos para identificar y corregir errores.</t>
   </si>
   <si>
+    <t>TS29</t>
+  </si>
+  <si>
+    <t>¿Ha analizado si las decisiones automatizadas del sistema reflejan desigualdades de género y ajustado los datos de entrada o las configuraciones del modelo para evitar discriminación?</t>
+  </si>
+  <si>
     <t>Evaluación de impacto regular y auditorías de los modelos.</t>
   </si>
   <si>
+    <t>TS30</t>
+  </si>
+  <si>
     <t>Ajustes que perpetúan patrones sesgados</t>
   </si>
   <si>
-    <t>Se da cuando los ajustes que se hacen a los modelos de IA no corrigen adecuadamente los sesgos de género, sino que los perpetúan. Esto puede ocurrir cuando las personas  desarrolladoras no identifican los sesgos existentes o no implementan mecanismos eficaces para reducirlos durante el proceso de ajuste del modelo.</t>
+    <t>Se da cuando los ajustes a los modelos de IA perpetúan los sesgos de género, al no identificarlos o corregirlos adecuadamente durante el proceso de desarrollo</t>
+  </si>
+  <si>
+    <t>¿Ha implementado ajustes para prevenir que las decisiones automatizadas del sistema perpetúen desigualdades o discriminaciones de género?</t>
   </si>
   <si>
     <t>Ajustes de re-pesado de datos para corregir la sobre-representación de patrones sesgados.</t>
@@ -2762,37 +3031,79 @@
     <t>Google Cloud AI</t>
   </si>
   <si>
+    <t>TS31</t>
+  </si>
+  <si>
+    <t>¿Ha incorporado métricas de equidad para supervisar continuamente el desempeño del sistema y evitar impactos discriminatorios hacia algún género?</t>
+  </si>
+  <si>
+    <t>TS32</t>
+  </si>
+  <si>
+    <t>¿Ha revisado los ajustes realizados en el sistema para garantizar que no perpetúen patrones históricos de discriminación de género?</t>
+  </si>
+  <si>
     <t>Re-entrenamiento con datos más diversos que contrarresten patrones históricos sesgados.</t>
   </si>
   <si>
+    <t>TS33</t>
+  </si>
+  <si>
     <t>Sesgo contextual o de aplicación</t>
   </si>
   <si>
     <t>Estandarización de roles de género</t>
   </si>
   <si>
-    <t>Ocurre cuando los sistemas de IA estandarizan y refuerzan roles tradicionales de género, limitando las posibilidades de las personas usuarias para interactuar de manera diversa o flexible con la tecnología. Por ejemplo, un asistente virtual que ofrece solo recomendaciones de productos "para hombres" o "para mujeres", desconociendo las personas de género diverso</t>
+    <t>Ocurre cuando los sistemas de IA refuerzan roles tradicionales de género, limitando la interacción diversa, como un asistente virtual que ofrece recomendaciones solo "para hombres" o "para mujeres", excluyendo a personas de género diverso</t>
+  </si>
+  <si>
+    <t>¿Ha evaluado si las recomendaciones o decisiones del sistema refuerzan roles tradicionales de género, limitando la diversidad de interacciones, y tomado medidas para adaptarlas?</t>
   </si>
   <si>
     <t>Capacitación sobre diversidad de género y la inclusión de voces diversas en el proceso de desarrollo de IA.</t>
   </si>
   <si>
+    <t>Explotación y supervisión (Monitoreo y ajuste); Retirada/desmantelamiento</t>
+  </si>
+  <si>
+    <t>TS34</t>
+  </si>
+  <si>
+    <t>¿Ha considerado la diversidad en los diseños del sistema para evitar que refuercen roles de género estandarizados, promoviendo una mayor adaptabilidad en distintos contextos culturales y sociales?</t>
+  </si>
+  <si>
     <t>Diversificación en el diseño de modelos para que los sistemas puedan adaptarse a diversos contextos socioculturales.</t>
   </si>
   <si>
     <t>Inclusive AI</t>
   </si>
   <si>
+    <t>TS35</t>
+  </si>
+  <si>
     <t>Falta de adaptabilidad a contextos culturales o locales</t>
   </si>
   <si>
-    <t>Este sesgo se presenta cuando los modelos de IA no se adaptan adecuadamente a diferentes contextos culturales o locales, lo que puede llevar a decisiones y resultados que son inapropiados o discriminatorios en ciertos contextos. Por ejemplo, un modelo de IA entrenado principalmente con datos de un contexto cultural occidental puede no funcionar bien en otras culturas.</t>
+    <t>Ocurre cuando los sistemas de IA no consideran la diversidad de género en diferentes culturas, lo que puede llevar a decisiones sesgadas o inadecuadas al no reflejar las realidades sociales y culturales locales</t>
+  </si>
+  <si>
+    <t>¿Ha tomado en cuenta las diferencias culturales y de género locales al evaluar las decisiones del sistema para evitar sesgos discriminatorios?</t>
   </si>
   <si>
     <t>Desarrollo de modelos inclusivos que puedan adaptarse a diferentes contextos locales y culturales.</t>
   </si>
   <si>
     <t xml:space="preserve"> Google Cloud AI </t>
+  </si>
+  <si>
+    <t>Retirada/desmantelamiento</t>
+  </si>
+  <si>
+    <t>TS36</t>
+  </si>
+  <si>
+    <t>¿Ha garantizado que el sistema de IA considere los contextos socioculturales relacionados con género para evitar decisiones sesgadas o inadecuadas?</t>
   </si>
   <si>
     <r>
@@ -2813,15 +3124,138 @@
     <t>Microsoft Cognitive Services</t>
   </si>
   <si>
+    <t>TS37</t>
+  </si>
+  <si>
+    <t>¿Ha involucrado a expertos en género y comunidades locales para identificar cómo las decisiones del sistema pueden impactar a distintos géneros en contextos específicos y aplicado ajustes necesarios?</t>
+  </si>
+  <si>
+    <t>Involucrar a expertos en género, comunidades locales y otros actores relevantes para identificar necesidades específicas y cómo el sistema puede impactar a diferentes géneros en el contexto</t>
+  </si>
+  <si>
+    <t>Planificación y diseño; Entrada en servicio/despliegue</t>
+  </si>
+  <si>
+    <t>TS38</t>
+  </si>
+  <si>
+    <t>¿Ha incorporado las perspectivas de expertos en género y actores relevantes para garantizar que el sistema sea equitativo en diferentes contextos culturales?</t>
+  </si>
+  <si>
+    <t>TS39</t>
+  </si>
+  <si>
+    <t>¿Ha adaptado el sistema para reflejar necesidades y realidades socioculturales de distintos géneros, asegurando la inclusión de todas las personas en las decisiones del modelo?</t>
+  </si>
+  <si>
+    <t>Entrada en servicio/despliegue; Retirada/desmantelamiento</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>Selección de proveedor</t>
+  </si>
+  <si>
+    <t>Falta de diversidad en los equipos del proveedor</t>
+  </si>
+  <si>
+    <t>El proveedor no cuenta con equipos diversos, lo que puede reflejarse en sistemas sesgados que no promuevan la equidad de género.</t>
+  </si>
+  <si>
+    <t>¿Ha evaluado si los equipos del proveedor incluyen suficiente diversidad de género y tomado medidas para garantizar que la selección de proveedores esté alineada con principios de equidad e inclusión?</t>
+  </si>
+  <si>
+    <t>Incorporar la evaluación de políticas de diversidad e inclusión como requisito clave para la contratación.</t>
+  </si>
+  <si>
+    <t>Selección del proveedor</t>
+  </si>
+  <si>
+    <t>Adquisición de IA</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>Insuficiente transparencia sobre sesgos de género</t>
+  </si>
+  <si>
+    <t>El proveedor no detalla cómo aborda o mitiga los sesgos de género en sus sistemas.</t>
+  </si>
+  <si>
+    <t>¿Ha revisado si el proveedor proporciona transparencia sobre cómo aborda los sesgos de género en sus sistemas y exigido documentación clara sobre las prácticas utilizadas para mitigarlos?</t>
+  </si>
+  <si>
+    <t>Exigir auditorías de equidad de género y certificaciones externas como parte del proceso de selección.</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>Uso indebido de datos</t>
+  </si>
+  <si>
+    <t>Uso de datos con sesgo de género</t>
+  </si>
+  <si>
+    <t>Los datos utilizados por el proveedor refuerzan estereotipos de género, afectando la justicia del sistema.</t>
+  </si>
+  <si>
+    <t>¿Ha asegurado que los datos utilizados por el proveedor son representativos de todos los géneros y revisado que no refuercen estereotipos o desigualdades de género?</t>
+  </si>
+  <si>
+    <t>Solicitar al proveedor documentación que respalde la representación justa y equilibrada de los géneros en los datos utilizados.</t>
+  </si>
+  <si>
+    <t>Validación técnica</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>Incompatibilidad cultural</t>
+  </si>
+  <si>
+    <t>Diseño no adaptado a las dinámicas de género locales</t>
+  </si>
+  <si>
+    <t>El sistema ignora las realidades culturales relacionadas con el género en la región del cliente, perpetuando desigualdades.</t>
+  </si>
+  <si>
+    <t>¿Ha tomado medidas para personalizar el diseño del sistema para que considere dinámicas culturales y de género específicas en el contexto de uso?</t>
+  </si>
+  <si>
+    <t>Solicitar adaptaciones que consideren las dinámicas culturales de género en el desarrollo del sistema.</t>
+  </si>
+  <si>
+    <t>Pruebas antes de la adquisición</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>Implementación por terceros</t>
+  </si>
+  <si>
+    <t>Capacitación insuficiente en equidad de género</t>
+  </si>
+  <si>
+    <t>El proveedor no ofrece capacitación adecuada sobre cómo minimizar el sesgo de género durante el uso del sistema.</t>
+  </si>
+  <si>
+    <t>¿Ha incluido en los acuerdos de adquisición capacitaciones obligatorias sobre equidad de género para garantizar que el sistema sea utilizado de manera justa y equitativa por parte de los usuarios finales?</t>
+  </si>
+  <si>
+    <t>Incorporar cláusulas en el contrato para incluir capacitaciones obligatorias enfocadas en equidad de género.</t>
+  </si>
+  <si>
     <t>Adquisición</t>
   </si>
   <si>
     <t>Acción preventiva</t>
   </si>
   <si>
-    <t>Pregunta</t>
-  </si>
-  <si>
     <t>herramienta</t>
   </si>
   <si>
@@ -2832,9 +3266,6 @@
   </si>
   <si>
     <t>Categoría</t>
-  </si>
-  <si>
-    <t>Retirada/desmantelamiento</t>
   </si>
   <si>
     <t>Identificar necesidad</t>
@@ -4246,15 +4677,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -4320,7 +4751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4606,7 +5037,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4797,9 +5228,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4878,35 +5306,62 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5931,8 +6386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739D5B1F-F6C7-4224-94D8-B03336203AF3}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5943,87 +6398,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="105" t="s">
-        <v>769</v>
-      </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="107"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="113" t="s">
+        <v>915</v>
+      </c>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="115"/>
       <c r="R1" t="s">
-        <v>770</v>
+        <v>916</v>
       </c>
       <c r="S1" t="s">
-        <v>771</v>
-      </c>
-      <c r="T1" s="105" t="s">
-        <v>772</v>
-      </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="107"/>
+        <v>722</v>
+      </c>
+      <c r="T1" s="113" t="s">
+        <v>917</v>
+      </c>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="115"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>773</v>
+        <v>918</v>
       </c>
       <c r="B2" t="s">
-        <v>774</v>
+        <v>919</v>
       </c>
       <c r="C2" t="s">
-        <v>775</v>
-      </c>
-      <c r="D2" s="89" t="s">
+        <v>920</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="90" t="s">
-        <v>407</v>
-      </c>
-      <c r="G2" s="90" t="s">
+      <c r="F2" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="90" t="s">
-        <v>776</v>
-      </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="89" t="s">
-        <v>777</v>
-      </c>
-      <c r="M2" s="90" t="s">
-        <v>778</v>
-      </c>
-      <c r="N2" s="90" t="s">
-        <v>779</v>
-      </c>
-      <c r="O2" s="90" t="s">
-        <v>780</v>
-      </c>
-      <c r="P2" s="90" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q2" s="91"/>
+      <c r="J2" s="89" t="s">
+        <v>868</v>
+      </c>
+      <c r="K2" s="89"/>
+      <c r="L2" s="88" t="s">
+        <v>921</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>922</v>
+      </c>
+      <c r="N2" s="89" t="s">
+        <v>923</v>
+      </c>
+      <c r="O2" s="89" t="s">
+        <v>924</v>
+      </c>
+      <c r="P2" s="89" t="s">
+        <v>925</v>
+      </c>
+      <c r="Q2" s="90"/>
       <c r="T2">
         <v>1</v>
       </c>
@@ -6045,65 +6500,65 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>782</v>
+        <v>926</v>
       </c>
       <c r="B3" t="s">
-        <v>783</v>
+        <v>927</v>
       </c>
       <c r="C3" t="s">
-        <v>784</v>
+        <v>928</v>
       </c>
       <c r="G3" t="s">
-        <v>785</v>
+        <v>929</v>
       </c>
       <c r="O3" t="s">
-        <v>785</v>
+        <v>929</v>
       </c>
       <c r="P3" t="s">
-        <v>785</v>
+        <v>929</v>
       </c>
       <c r="R3" t="s">
-        <v>786</v>
+        <v>930</v>
       </c>
       <c r="S3" t="s">
-        <v>787</v>
+        <v>931</v>
       </c>
       <c r="U3" t="s">
-        <v>785</v>
+        <v>929</v>
       </c>
       <c r="X3" t="s">
-        <v>785</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>788</v>
+        <v>932</v>
       </c>
       <c r="B4" t="s">
-        <v>783</v>
+        <v>927</v>
       </c>
       <c r="C4" t="s">
-        <v>784</v>
+        <v>928</v>
       </c>
       <c r="R4" t="s">
-        <v>786</v>
+        <v>930</v>
       </c>
       <c r="S4" t="s">
-        <v>787</v>
+        <v>931</v>
       </c>
       <c r="U4" t="s">
-        <v>785</v>
+        <v>929</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>789</v>
+        <v>933</v>
       </c>
       <c r="B5" t="s">
-        <v>790</v>
+        <v>934</v>
       </c>
       <c r="C5" t="s">
-        <v>791</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -6122,7 +6577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -6138,16 +6593,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>792</v>
+        <v>936</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>793</v>
+        <v>937</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>794</v>
+        <v>938</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
@@ -6155,16 +6610,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>795</v>
+        <v>939</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
@@ -6172,33 +6627,33 @@
         <v>29</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>796</v>
+        <v>940</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>797</v>
+        <v>941</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>728</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
@@ -6206,11 +6661,11 @@
         <v>55</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>736</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
@@ -6218,11 +6673,11 @@
         <v>72</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -6230,19 +6685,19 @@
         <v>79</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>757</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>776</v>
+        <v>868</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C8" s="10"/>
       <c r="F8" s="4"/>
@@ -6311,43 +6766,43 @@
         <v>104</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>798</v>
+        <v>942</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>799</v>
+        <v>943</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>107</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>105</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>801</v>
+        <v>945</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>802</v>
+        <v>946</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N1" t="s">
-        <v>803</v>
+        <v>947</v>
       </c>
       <c r="O1" t="s">
-        <v>804</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="195.75" customHeight="1">
@@ -6355,40 +6810,40 @@
         <v>15</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>805</v>
+        <v>949</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>806</v>
+        <v>950</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>807</v>
+        <v>951</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>808</v>
+        <v>952</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>809</v>
+        <v>953</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>810</v>
+        <v>954</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>811</v>
+        <v>955</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>812</v>
+        <v>956</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>813</v>
+        <v>957</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>814</v>
+        <v>958</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>815</v>
+        <v>959</v>
       </c>
       <c r="O2" t="s">
-        <v>816</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="225">
@@ -6396,37 +6851,37 @@
         <v>17</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>817</v>
+        <v>961</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>818</v>
+        <v>962</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>819</v>
+        <v>963</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>820</v>
+        <v>964</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>821</v>
+        <v>965</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>810</v>
+        <v>954</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>822</v>
+        <v>966</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>823</v>
+        <v>967</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>824</v>
+        <v>968</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>825</v>
+        <v>969</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>826</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="195">
@@ -6434,37 +6889,37 @@
         <v>18</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>827</v>
+        <v>971</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>828</v>
+        <v>972</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>829</v>
+        <v>973</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>830</v>
+        <v>974</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>831</v>
+        <v>975</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>810</v>
+        <v>954</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>832</v>
+        <v>976</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>833</v>
+        <v>977</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>834</v>
+        <v>978</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>835</v>
+        <v>979</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>836</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="270">
@@ -6472,34 +6927,34 @@
         <v>10</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>837</v>
+        <v>981</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>838</v>
+        <v>982</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>839</v>
+        <v>983</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>840</v>
+        <v>984</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>841</v>
+        <v>985</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>810</v>
+        <v>954</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>842</v>
+        <v>986</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>843</v>
+        <v>987</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>844</v>
+        <v>988</v>
       </c>
       <c r="L5" s="30"/>
     </row>
@@ -6508,37 +6963,37 @@
         <v>12</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>845</v>
+        <v>989</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>846</v>
+        <v>990</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>847</v>
+        <v>991</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>848</v>
+        <v>992</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>849</v>
+        <v>993</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>810</v>
+        <v>954</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>850</v>
+        <v>994</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>851</v>
+        <v>995</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>852</v>
+        <v>996</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>853</v>
+        <v>997</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>854</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="180">
@@ -6546,75 +7001,75 @@
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>855</v>
+        <v>999</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>856</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>857</v>
+        <v>1001</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>858</v>
+        <v>1002</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>859</v>
+        <v>1003</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>810</v>
+        <v>954</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>860</v>
+        <v>1004</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>861</v>
+        <v>1005</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>862</v>
+        <v>1006</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>863</v>
+        <v>1007</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>864</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="195">
       <c r="A8" s="19" t="s">
-        <v>865</v>
+        <v>1009</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>866</v>
+        <v>1010</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>867</v>
+        <v>1011</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>868</v>
+        <v>1012</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>869</v>
+        <v>1013</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>870</v>
+        <v>1014</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>871</v>
+        <v>1015</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>872</v>
+        <v>1016</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>873</v>
+        <v>1017</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>874</v>
+        <v>1018</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>875</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="180">
@@ -6622,37 +7077,37 @@
         <v>16</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>876</v>
+        <v>1020</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>877</v>
+        <v>1021</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>878</v>
+        <v>1022</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>879</v>
+        <v>1023</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>880</v>
+        <v>1024</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>810</v>
+        <v>954</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>881</v>
+        <v>1025</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>882</v>
+        <v>1026</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>883</v>
+        <v>1027</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>884</v>
+        <v>1028</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>885</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="150">
@@ -6660,37 +7115,37 @@
         <v>22</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>886</v>
+        <v>1030</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>887</v>
+        <v>1031</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>888</v>
+        <v>1032</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>889</v>
+        <v>1033</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>890</v>
+        <v>1034</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>810</v>
+        <v>954</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>891</v>
+        <v>1035</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>892</v>
+        <v>1036</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>893</v>
+        <v>1037</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>894</v>
+        <v>1038</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>895</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -6725,11 +7180,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="J16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="249.75" customHeight="1"/>
@@ -6738,20 +7193,21 @@
     <col min="2" max="4" width="18.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="65" style="4" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26" style="2" customWidth="1"/>
-    <col min="8" max="8" width="52.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="41.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="39.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="2" customWidth="1"/>
-    <col min="15" max="18" width="41.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.42578125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="32.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26" style="2" customWidth="1"/>
+    <col min="9" max="9" width="52.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="41.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="2" customWidth="1"/>
+    <col min="16" max="19" width="41.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="41.42578125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>103</v>
       </c>
@@ -6770,7 +7226,7 @@
       <c r="F1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="99" t="s">
         <v>108</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -6782,1190 +7238,1253 @@
       <c r="J1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="5" t="s">
         <v>112</v>
       </c>
       <c r="L1" s="64" t="s">
         <v>113</v>
       </c>
       <c r="M1" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="67" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="174">
+      <c r="T1" s="98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="174">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="42" t="s">
         <v>125</v>
       </c>
+      <c r="G2" s="38" t="s">
+        <v>126</v>
+      </c>
       <c r="H2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="43" t="s">
         <v>129</v>
       </c>
+      <c r="K2" s="60" t="s">
+        <v>130</v>
+      </c>
       <c r="L2" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="N2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="O2" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="P2" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="Q2" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="80" t="s">
+      <c r="R2" s="79" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="225.75" customHeight="1">
+      <c r="S2" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="225.75" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>145</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="I3" s="12" t="s">
         <v>147</v>
       </c>
+      <c r="J3" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>149</v>
+      </c>
       <c r="L3" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="N3" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="O3" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="Q3" s="82" t="s">
+      <c r="M3" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="R3" s="82" t="s">
+      <c r="N3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P3" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="Q3" s="80" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="174">
+      <c r="R3" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="S3" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="T3" s="81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="174">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>164</v>
       </c>
       <c r="L4" s="62" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="N4" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="P4" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="R4" s="82" t="s">
+      <c r="N4" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="O4" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="72" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="296.10000000000002" customHeight="1">
+      <c r="Q4" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="S4" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="T4" s="81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="296.10000000000002" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="K5" s="62" t="s">
-        <v>175</v>
+        <v>127</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>179</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="O5" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="P5" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="R5" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="S5" s="82" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="216.95" customHeight="1">
+      <c r="O5" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q5" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="T5" s="81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="216.95" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>147</v>
+        <v>193</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>196</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="N6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="P6" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="R6" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="S6" s="82" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="207.6" customHeight="1">
+      <c r="O6" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="R6" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="S6" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="T6" s="81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="207.6" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="J7" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>204</v>
+        <v>207</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>210</v>
       </c>
       <c r="L7" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="M7" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="N7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="O7" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="P7" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q7" s="82" t="s">
-        <v>208</v>
-      </c>
-      <c r="R7" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="S7" s="82" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="201" customHeight="1">
+      <c r="O7" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="R7" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="S7" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="T7" s="81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="201" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>218</v>
+        <v>127</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>225</v>
       </c>
       <c r="L8" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="P8" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q8" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="R8" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="S8" s="82" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="257.25" customHeight="1">
+        <v>226</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="R8" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="S8" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="T8" s="81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="257.25" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>234</v>
+        <v>239</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>242</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="N9" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="O9" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="P9" s="83" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q9" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="R9" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="S9" s="84" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="271.5" customHeight="1">
+        <v>243</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="P9" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="R9" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="S9" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="T9" s="83" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="271.5" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>147</v>
+        <v>127</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>259</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="O10" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="P10" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q10" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="R10" s="80" t="s">
-        <v>254</v>
-      </c>
-      <c r="S10" s="80" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="228.95" customHeight="1">
+      <c r="O10" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q10" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="R10" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="S10" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="T10" s="79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="228.95" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>261</v>
-      </c>
-      <c r="K11" s="62" t="s">
-        <v>262</v>
+        <v>146</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>272</v>
       </c>
       <c r="L11" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="M11" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="P11" s="81" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q11" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="R11" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="S11" s="82" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="191.65" customHeight="1">
+      <c r="N11" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="R11" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="S11" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="T11" s="81" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="191.65" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="K12" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>148</v>
+        <v>127</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>287</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="N12" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="O12" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="P12" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q12" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="R12" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="S12" s="85" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="172.5" customHeight="1">
+        <v>151</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q12" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="R12" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="S12" s="84" t="s">
+        <v>292</v>
+      </c>
+      <c r="T12" s="84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="172.5" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>288</v>
+        <v>239</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>300</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>290</v>
+        <v>301</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>302</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="O13" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="P13" s="85" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="R13" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="S13" s="85" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="249.75" customHeight="1">
+        <v>304</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="P13" s="76" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q13" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="R13" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="S13" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="T13" s="84" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="249.75" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>304</v>
+        <v>239</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>317</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="O14" s="76" t="s">
-        <v>306</v>
-      </c>
-      <c r="P14" s="86" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q14" s="87" t="s">
-        <v>308</v>
-      </c>
-      <c r="R14" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="S14" s="80" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="249.75" customHeight="1">
+        <v>318</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="P14" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q14" s="85" t="s">
+        <v>321</v>
+      </c>
+      <c r="R14" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="S14" s="86" t="s">
+        <v>323</v>
+      </c>
+      <c r="T14" s="79" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="249.75" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>316</v>
+        <v>192</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>318</v>
+        <v>330</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>331</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="O15" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="P15" s="80" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q15" s="80" t="s">
-        <v>322</v>
-      </c>
-      <c r="R15" s="80" t="s">
-        <v>323</v>
-      </c>
-      <c r="S15" s="82" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="249.75" customHeight="1">
+        <v>332</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q15" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="R15" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="S15" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="T15" s="81" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="249.75" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="H16" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="I16" s="44" t="s">
-        <v>331</v>
+      <c r="I16" s="42" t="s">
+        <v>345</v>
       </c>
       <c r="J16" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="O16" s="78" t="s">
-        <v>333</v>
-      </c>
-      <c r="P16" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q16" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="R16" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="S16" s="84" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="249.75" customHeight="1">
+        <v>346</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="P16" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q16" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="R16" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="S16" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="T16" s="83" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="249.75" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>125</v>
+        <v>357</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>343</v>
+        <v>127</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>358</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>345</v>
+        <v>359</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>360</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O17" s="72" t="s">
-        <v>348</v>
-      </c>
-      <c r="P17" s="80" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q17" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="R17" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="S17" s="80" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="249.75" customHeight="1">
+        <v>362</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q17" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="R17" s="79" t="s">
+        <v>366</v>
+      </c>
+      <c r="S17" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="T17" s="79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="249.75" customHeight="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>359</v>
+        <v>374</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>375</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="O18" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="P18" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q18" s="82" t="s">
-        <v>363</v>
-      </c>
-      <c r="R18" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="S18" s="82" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="249.75" customHeight="1">
+        <v>376</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="P18" s="71" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q18" s="81" t="s">
+        <v>379</v>
+      </c>
+      <c r="R18" s="81" t="s">
+        <v>380</v>
+      </c>
+      <c r="S18" s="81" t="s">
+        <v>381</v>
+      </c>
+      <c r="T18" s="81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="249.75" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>230</v>
+        <v>388</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>372</v>
+        <v>239</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>389</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="O19" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="P19" s="82" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q19" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="R19" s="82" t="s">
-        <v>377</v>
-      </c>
-      <c r="S19" s="82" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="249.75" customHeight="1">
+        <v>390</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="P19" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q19" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="R19" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="S19" s="81" t="s">
+        <v>395</v>
+      </c>
+      <c r="T19" s="81" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="249.75" customHeight="1">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>230</v>
+        <v>402</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="I20" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="O20" s="72" t="s">
-        <v>387</v>
-      </c>
-      <c r="P20" s="82" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q20" s="85" t="s">
-        <v>389</v>
-      </c>
-      <c r="R20" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="S20" s="84" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="249.75" customHeight="1">
+        <v>239</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="P20" s="71" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q20" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="R20" s="84" t="s">
+        <v>408</v>
+      </c>
+      <c r="S20" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="T20" s="83" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="249.75" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>230</v>
+        <v>416</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>398</v>
+        <v>239</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>417</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="O21" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="P21" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q21" s="80" t="s">
-        <v>402</v>
-      </c>
-      <c r="R21" s="80" t="s">
-        <v>403</v>
-      </c>
-      <c r="S21" s="80" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="249.75" customHeight="1">
+        <v>418</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="P21" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q21" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="R21" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="S21" s="79" t="s">
+        <v>423</v>
+      </c>
+      <c r="T21" s="79" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="249.75" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="249.75" customHeight="1">
+    <row r="23" spans="1:20" ht="249.75" customHeight="1">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="249.75" customHeight="1">
+    <row r="24" spans="1:20" ht="249.75" customHeight="1">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="249.75" customHeight="1">
+    <row r="25" spans="1:20" ht="249.75" customHeight="1">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{AEB8A5E7-3EDA-4EA2-BBB4-9A7ABB929D14}"/>
-    <hyperlink ref="I10" r:id="rId2" xr:uid="{912C0F1E-445C-4D6A-940D-358C5089D679}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{8CCEBCCE-3D44-4501-8ADD-ABE77C349D6F}"/>
-    <hyperlink ref="J3" r:id="rId4" xr:uid="{266DFAC4-6B4E-4ECC-A14A-C57BA7608DDB}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{EEE591EE-1140-48D9-946D-F941FE7DE70C}"/>
-    <hyperlink ref="J9" r:id="rId6" xr:uid="{DFF66452-39EF-4763-AB79-3D294BA7447A}"/>
-    <hyperlink ref="J7" r:id="rId7" xr:uid="{0D6ED105-F674-4E3C-8F06-FAFDCF6E5438}"/>
-    <hyperlink ref="J11" r:id="rId8" xr:uid="{73069635-3F53-460A-B4C9-53905C44867B}"/>
-    <hyperlink ref="I8" r:id="rId9" xr:uid="{CB9DCF38-B0F3-4247-BF2C-E0B4EBDF91EB}"/>
-    <hyperlink ref="J4" r:id="rId10" xr:uid="{409E5F98-CD35-46C0-B7F1-C0140A5E6370}"/>
-    <hyperlink ref="J5" r:id="rId11" xr:uid="{47679F52-93B4-44A0-BD74-17A7836C2AAE}"/>
-    <hyperlink ref="J8" r:id="rId12" xr:uid="{4751AE85-87ED-4FBB-AB54-9A5A88467CCE}"/>
-    <hyperlink ref="J10" r:id="rId13" xr:uid="{3F0BDC44-FE86-4DDD-B13D-C6F6531A3D6B}"/>
-    <hyperlink ref="J12" r:id="rId14" xr:uid="{3770097A-305C-4D33-B8F9-09A5ADA0AF1C}"/>
-    <hyperlink ref="J13" r:id="rId15" xr:uid="{C2CA8F6C-303E-44BC-9131-561AB059E810}"/>
-    <hyperlink ref="J14" r:id="rId16" xr:uid="{E723FA51-BBDD-4777-876B-48A7EBE52B07}"/>
-    <hyperlink ref="J15" r:id="rId17" xr:uid="{B29C1C89-68DC-4D06-90BF-13461C535644}"/>
-    <hyperlink ref="J16" r:id="rId18" display="https://th.bing.com/th/id/R.06cd8f948fb099f1626338163513b4a6?rik=m4h5OvLFypaT9A&amp;riu=http%3a%2f%2fpurepng.com%2fpublic%2fuploads%2flarge%2fpurepng.com-ibm-logologobrand-logoiconslogos-251519939176ka7y8.png&amp;ehk=LWXiPfXnsF3l6lHHpy1BGAxdoQu0BkY7OkdYr2MziCM%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0" xr:uid="{1638AED0-33DF-499E-A200-749B869AEB4B}"/>
-    <hyperlink ref="J17" r:id="rId19" xr:uid="{4707459B-7AA1-4D16-A3C9-63D4ECEF5432}"/>
-    <hyperlink ref="I7" r:id="rId20" xr:uid="{E5952D3E-7A0C-4D3B-93C6-0B4A668A937F}"/>
-    <hyperlink ref="J3" r:id="rId21" xr:uid="{51F753A7-DF58-4DB6-A67C-1F412A93836D}"/>
-    <hyperlink ref="I11" r:id="rId22" xr:uid="{71BAF1F7-7B17-4A06-B7AD-0CAE6264FE57}"/>
-    <hyperlink ref="I12" r:id="rId23" xr:uid="{FAB3C9E1-6CC1-46FE-8A71-8668D0EA17F4}"/>
-    <hyperlink ref="I16" r:id="rId24" xr:uid="{A4697C7F-8432-473D-8FCD-B32F9015EEDD}"/>
-    <hyperlink ref="I13" r:id="rId25" xr:uid="{20E0D0FA-13DB-4270-B4D5-FEF660853F10}"/>
-    <hyperlink ref="I21" r:id="rId26" xr:uid="{3143283B-2A31-40DE-BBDB-094DB8BA53CD}"/>
-    <hyperlink ref="I19" r:id="rId27" xr:uid="{27D0628F-BA98-41FA-9B6F-45114BD784A9}"/>
-    <hyperlink ref="I18" r:id="rId28" xr:uid="{1306FCED-107A-46F4-916A-00A52917B03F}"/>
-    <hyperlink ref="I20" r:id="rId29" xr:uid="{985E9225-3409-4D5C-9176-8418B03CF453}"/>
-    <hyperlink ref="J18" r:id="rId30" xr:uid="{260C2249-871D-40F5-9188-5399B46ECC2F}"/>
-    <hyperlink ref="J19" r:id="rId31" xr:uid="{CE2089F6-0BC5-4826-957E-02E661DF6950}"/>
-    <hyperlink ref="J20" r:id="rId32" xr:uid="{EAC9ECCF-FAF9-4DC6-B67B-8A2922AFE1B1}"/>
-    <hyperlink ref="J21" r:id="rId33" xr:uid="{30ADEF3E-9B55-4556-A374-8206B7C07EF2}"/>
-    <hyperlink ref="I2" r:id="rId34" xr:uid="{61CB06FF-9B78-4A55-817C-848AB43BBF3E}"/>
-    <hyperlink ref="I3" r:id="rId35" xr:uid="{D5DCB3E4-EEA0-4640-8C9F-F4426BBB1115}"/>
-    <hyperlink ref="I4" r:id="rId36" xr:uid="{F3D43CC4-8452-4691-8E51-AED07B40F3DF}"/>
-    <hyperlink ref="I5" r:id="rId37" xr:uid="{982E2E2F-CF98-410B-81E5-C985F092E23C}"/>
-    <hyperlink ref="I9" r:id="rId38" xr:uid="{8DA94D58-620F-4503-B134-575082436A2A}"/>
-    <hyperlink ref="I14" r:id="rId39" xr:uid="{F4481247-5064-4B6E-812F-D630206AE828}"/>
-    <hyperlink ref="I15" r:id="rId40" xr:uid="{89965820-2D59-4EB4-86FE-401C70F40E62}"/>
-    <hyperlink ref="I17" r:id="rId41" xr:uid="{615D806D-04D9-4CF5-B859-8E66C5ED0829}"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{AEB8A5E7-3EDA-4EA2-BBB4-9A7ABB929D14}"/>
+    <hyperlink ref="J10" r:id="rId2" xr:uid="{912C0F1E-445C-4D6A-940D-358C5089D679}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{8CCEBCCE-3D44-4501-8ADD-ABE77C349D6F}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{266DFAC4-6B4E-4ECC-A14A-C57BA7608DDB}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{EEE591EE-1140-48D9-946D-F941FE7DE70C}"/>
+    <hyperlink ref="K9" r:id="rId6" xr:uid="{DFF66452-39EF-4763-AB79-3D294BA7447A}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{0D6ED105-F674-4E3C-8F06-FAFDCF6E5438}"/>
+    <hyperlink ref="K11" r:id="rId8" xr:uid="{73069635-3F53-460A-B4C9-53905C44867B}"/>
+    <hyperlink ref="J8" r:id="rId9" xr:uid="{CB9DCF38-B0F3-4247-BF2C-E0B4EBDF91EB}"/>
+    <hyperlink ref="K4" r:id="rId10" xr:uid="{409E5F98-CD35-46C0-B7F1-C0140A5E6370}"/>
+    <hyperlink ref="K5" r:id="rId11" xr:uid="{47679F52-93B4-44A0-BD74-17A7836C2AAE}"/>
+    <hyperlink ref="K8" r:id="rId12" xr:uid="{4751AE85-87ED-4FBB-AB54-9A5A88467CCE}"/>
+    <hyperlink ref="K10" r:id="rId13" xr:uid="{3F0BDC44-FE86-4DDD-B13D-C6F6531A3D6B}"/>
+    <hyperlink ref="K12" r:id="rId14" xr:uid="{3770097A-305C-4D33-B8F9-09A5ADA0AF1C}"/>
+    <hyperlink ref="K13" r:id="rId15" xr:uid="{C2CA8F6C-303E-44BC-9131-561AB059E810}"/>
+    <hyperlink ref="K14" r:id="rId16" xr:uid="{E723FA51-BBDD-4777-876B-48A7EBE52B07}"/>
+    <hyperlink ref="K15" r:id="rId17" xr:uid="{B29C1C89-68DC-4D06-90BF-13461C535644}"/>
+    <hyperlink ref="K16" r:id="rId18" display="https://th.bing.com/th/id/R.06cd8f948fb099f1626338163513b4a6?rik=m4h5OvLFypaT9A&amp;riu=http%3a%2f%2fpurepng.com%2fpublic%2fuploads%2flarge%2fpurepng.com-ibm-logologobrand-logoiconslogos-251519939176ka7y8.png&amp;ehk=LWXiPfXnsF3l6lHHpy1BGAxdoQu0BkY7OkdYr2MziCM%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0" xr:uid="{1638AED0-33DF-499E-A200-749B869AEB4B}"/>
+    <hyperlink ref="K17" r:id="rId19" xr:uid="{4707459B-7AA1-4D16-A3C9-63D4ECEF5432}"/>
+    <hyperlink ref="J7" r:id="rId20" xr:uid="{E5952D3E-7A0C-4D3B-93C6-0B4A668A937F}"/>
+    <hyperlink ref="K3" r:id="rId21" xr:uid="{51F753A7-DF58-4DB6-A67C-1F412A93836D}"/>
+    <hyperlink ref="J11" r:id="rId22" xr:uid="{71BAF1F7-7B17-4A06-B7AD-0CAE6264FE57}"/>
+    <hyperlink ref="J12" r:id="rId23" xr:uid="{FAB3C9E1-6CC1-46FE-8A71-8668D0EA17F4}"/>
+    <hyperlink ref="J16" r:id="rId24" xr:uid="{A4697C7F-8432-473D-8FCD-B32F9015EEDD}"/>
+    <hyperlink ref="J13" r:id="rId25" xr:uid="{20E0D0FA-13DB-4270-B4D5-FEF660853F10}"/>
+    <hyperlink ref="J21" r:id="rId26" xr:uid="{3143283B-2A31-40DE-BBDB-094DB8BA53CD}"/>
+    <hyperlink ref="J19" r:id="rId27" xr:uid="{27D0628F-BA98-41FA-9B6F-45114BD784A9}"/>
+    <hyperlink ref="J18" r:id="rId28" xr:uid="{1306FCED-107A-46F4-916A-00A52917B03F}"/>
+    <hyperlink ref="J20" r:id="rId29" xr:uid="{985E9225-3409-4D5C-9176-8418B03CF453}"/>
+    <hyperlink ref="K18" r:id="rId30" xr:uid="{260C2249-871D-40F5-9188-5399B46ECC2F}"/>
+    <hyperlink ref="K19" r:id="rId31" xr:uid="{CE2089F6-0BC5-4826-957E-02E661DF6950}"/>
+    <hyperlink ref="K20" r:id="rId32" xr:uid="{EAC9ECCF-FAF9-4DC6-B67B-8A2922AFE1B1}"/>
+    <hyperlink ref="K21" r:id="rId33" xr:uid="{30ADEF3E-9B55-4556-A374-8206B7C07EF2}"/>
+    <hyperlink ref="J2" r:id="rId34" xr:uid="{61CB06FF-9B78-4A55-817C-848AB43BBF3E}"/>
+    <hyperlink ref="J3" r:id="rId35" xr:uid="{D5DCB3E4-EEA0-4640-8C9F-F4426BBB1115}"/>
+    <hyperlink ref="J4" r:id="rId36" xr:uid="{F3D43CC4-8452-4691-8E51-AED07B40F3DF}"/>
+    <hyperlink ref="J5" r:id="rId37" xr:uid="{982E2E2F-CF98-410B-81E5-C985F092E23C}"/>
+    <hyperlink ref="J9" r:id="rId38" xr:uid="{8DA94D58-620F-4503-B134-575082436A2A}"/>
+    <hyperlink ref="J14" r:id="rId39" xr:uid="{F4481247-5064-4B6E-812F-D630206AE828}"/>
+    <hyperlink ref="J15" r:id="rId40" xr:uid="{89965820-2D59-4EB4-86FE-401C70F40E62}"/>
+    <hyperlink ref="J17" r:id="rId41" xr:uid="{615D806D-04D9-4CF5-B859-8E66C5ED0829}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7992,12 +8511,12 @@
         <v>104</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>9</v>
@@ -8005,7 +8524,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>29</v>
@@ -8013,15 +8532,15 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>55</v>
@@ -8029,7 +8548,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>29</v>
@@ -8037,15 +8556,15 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>55</v>
@@ -8053,7 +8572,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>9</v>
@@ -8061,7 +8580,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>29</v>
@@ -8069,15 +8588,15 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>55</v>
@@ -8085,15 +8604,15 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>55</v>
@@ -8101,15 +8620,15 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>55</v>
@@ -8117,7 +8636,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>79</v>
@@ -8125,7 +8644,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>9</v>
@@ -8133,7 +8652,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>55</v>
@@ -8141,7 +8660,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>55</v>
@@ -8149,7 +8668,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>79</v>
@@ -8157,7 +8676,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>9</v>
@@ -8165,7 +8684,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>29</v>
@@ -8173,15 +8692,15 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>55</v>
@@ -8189,7 +8708,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>79</v>
@@ -8197,7 +8716,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>9</v>
@@ -8205,7 +8724,7 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>29</v>
@@ -8213,15 +8732,15 @@
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>55</v>
@@ -8229,7 +8748,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>29</v>
@@ -8237,15 +8756,15 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>55</v>
@@ -8253,7 +8772,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>9</v>
@@ -8261,15 +8780,15 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>55</v>
@@ -8277,7 +8796,7 @@
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>72</v>
@@ -8285,7 +8804,7 @@
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>79</v>
@@ -8293,7 +8812,7 @@
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>29</v>
@@ -8301,15 +8820,15 @@
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>55</v>
@@ -8317,7 +8836,7 @@
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="13" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>79</v>
@@ -8325,7 +8844,7 @@
     </row>
     <row r="43" spans="1:2" ht="15">
       <c r="A43" s="13" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>72</v>
@@ -8333,7 +8852,7 @@
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="13" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>79</v>
@@ -8341,7 +8860,7 @@
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>9</v>
@@ -8349,15 +8868,15 @@
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>55</v>
@@ -8365,7 +8884,7 @@
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>79</v>
@@ -8373,7 +8892,7 @@
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="13" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>9</v>
@@ -8381,15 +8900,15 @@
     </row>
     <row r="50" spans="1:2" ht="15">
       <c r="A50" s="13" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="13" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>55</v>
@@ -8397,7 +8916,7 @@
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="13" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>9</v>
@@ -8405,7 +8924,7 @@
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>55</v>
@@ -8413,7 +8932,7 @@
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="13" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>9</v>
@@ -8421,7 +8940,7 @@
     </row>
     <row r="55" spans="1:2" ht="15">
       <c r="A55" s="13" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>55</v>
@@ -8429,7 +8948,7 @@
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="13" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>55</v>
@@ -8437,7 +8956,7 @@
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="13" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>79</v>
@@ -8445,7 +8964,7 @@
     </row>
     <row r="58" spans="1:2" ht="15">
       <c r="A58" s="13" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>79</v>
@@ -8453,7 +8972,7 @@
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>55</v>
@@ -8564,711 +9083,711 @@
         <v>104</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
       <c r="A40" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15">
       <c r="A41" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
       <c r="A42" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15">
       <c r="A43" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
       <c r="A44" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15">
       <c r="A45" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15">
       <c r="A47" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
       <c r="A48" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15">
       <c r="A49" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15">
       <c r="A50" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15">
       <c r="A53" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
       <c r="A54" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15">
       <c r="A55" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15">
       <c r="A56" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
       <c r="A57" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15">
       <c r="A59" s="13" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
       <c r="A60" s="13" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15">
       <c r="A61" s="13" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15">
       <c r="A62" s="13" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15">
       <c r="A63" s="13" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15">
       <c r="A64" s="13" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15">
       <c r="A65" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15">
       <c r="A66" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15">
       <c r="A67" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15">
       <c r="A68" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15">
       <c r="A69" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
       <c r="A70" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30">
       <c r="A71" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15">
       <c r="A72" s="13" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15">
       <c r="A73" s="13" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15">
       <c r="A74" s="13" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15">
       <c r="A75" s="13" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
       <c r="A76" s="13" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15">
       <c r="A77" s="13" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15">
       <c r="A78" s="13" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15">
       <c r="A79" s="13" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15">
       <c r="A80" s="13" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">
       <c r="A81" s="13" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
       <c r="A82" s="13" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15">
       <c r="A83" s="13" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15">
       <c r="A84" s="13" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
       <c r="A85" s="13" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15">
       <c r="A86" s="13" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15">
       <c r="A87" s="13" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15">
       <c r="A88" s="13" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15">
       <c r="A89" s="13" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15">
@@ -9341,7 +9860,7 @@
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>12</v>
@@ -9349,7 +9868,7 @@
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>32</v>
@@ -9357,7 +9876,7 @@
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>49</v>
@@ -9365,7 +9884,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>12</v>
@@ -9373,7 +9892,7 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>32</v>
@@ -9381,7 +9900,7 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>49</v>
@@ -9389,7 +9908,7 @@
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>12</v>
@@ -9397,7 +9916,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>49</v>
@@ -9405,7 +9924,7 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>12</v>
@@ -9413,7 +9932,7 @@
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>12</v>
@@ -9421,7 +9940,7 @@
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>12</v>
@@ -9429,7 +9948,7 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>12</v>
@@ -9437,7 +9956,7 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>12</v>
@@ -9445,7 +9964,7 @@
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>32</v>
@@ -9453,7 +9972,7 @@
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="13" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>49</v>
@@ -9461,7 +9980,7 @@
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>12</v>
@@ -9469,7 +9988,7 @@
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>12</v>
@@ -9477,7 +9996,7 @@
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="13" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>32</v>
@@ -9485,7 +10004,7 @@
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>32</v>
@@ -9493,7 +10012,7 @@
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>49</v>
@@ -9501,7 +10020,7 @@
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>12</v>
@@ -9509,7 +10028,7 @@
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>32</v>
@@ -9517,7 +10036,7 @@
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>49</v>
@@ -9525,7 +10044,7 @@
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="13" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>49</v>
@@ -9533,7 +10052,7 @@
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="13" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>12</v>
@@ -9541,7 +10060,7 @@
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="13" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>12</v>
@@ -9549,13 +10068,13 @@
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="13" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>12</v>
@@ -9563,7 +10082,7 @@
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="13" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>12</v>
@@ -9571,7 +10090,7 @@
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="13" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>32</v>
@@ -9579,7 +10098,7 @@
     </row>
     <row r="32" spans="1:2" ht="15">
       <c r="A32" s="13" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>12</v>
@@ -9587,7 +10106,7 @@
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="13" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>12</v>
@@ -9595,7 +10114,7 @@
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="13" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>12</v>
@@ -9603,7 +10122,7 @@
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="13" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>12</v>
@@ -9638,7 +10157,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -9651,7 +10170,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>3</v>
@@ -9659,10 +10178,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.9">
@@ -9670,7 +10189,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.15">
@@ -9678,7 +10197,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9686,31 +10205,31 @@
         <v>105</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.15">
       <c r="A7" s="34" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.15">
       <c r="A8" s="34" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9718,55 +10237,55 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="14" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="14" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.9">
       <c r="A13" s="14" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="14" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.9">
       <c r="A15" s="14" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -9779,8 +10298,8 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -9807,1085 +10326,1085 @@
         <v>1</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D2" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="G2" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H2" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="E3" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="F3" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="G3" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H3" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D4" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="F4" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="G4" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H4" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="E5" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="F5" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="G5" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H5" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D6" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="E6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F6" t="s">
+        <v>490</v>
+      </c>
+      <c r="G6" t="s">
         <v>469</v>
       </c>
-      <c r="F6" t="s">
-        <v>470</v>
-      </c>
-      <c r="G6" t="s">
-        <v>449</v>
-      </c>
       <c r="H6" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" t="s">
         <v>472</v>
       </c>
-      <c r="B7" t="s">
-        <v>467</v>
-      </c>
-      <c r="C7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D7" t="s">
-        <v>452</v>
-      </c>
       <c r="E7" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="F7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="G7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C8" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="E8" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="F8" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="G8" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H8" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="E9" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="F9" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="G9" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H9" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C10" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D10" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="F10" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="G10" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H10" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="B11" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="E11" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="F11" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="G11" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H11" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C12" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D12" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="E12" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="F12" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="G12" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H12" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="C13" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D13" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="E13" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="F13" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="G13" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H13" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D14" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="E14" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="F14" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="G14" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H14" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D15" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="F15" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="G15" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H15" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="B16" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D16" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="E16" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="F16" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="G16" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H16" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="C17" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="E17" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="G17" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H17" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="B18" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C18" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D18" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="E18" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="F18" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="G18" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H18" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D19" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="E19" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="F19" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="G19" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H19" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="B20" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C20" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D20" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="E20" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="F20" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="G20" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H20" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="B21" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C21" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="E21" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="F21" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="G21" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H21" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="B22" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="C22" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D22" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="E22" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="F22" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="G22" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H22" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="B23" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="C23" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D23" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="E23" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="F23" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="G23" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H23" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="B24" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="C24" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D24" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="E24" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="F24" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="G24" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H24" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="B25" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="C25" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D25" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="E25" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="F25" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="G25" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H25" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="B26" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="C26" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D26" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="E26" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="F26" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="G26" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H26" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="B27" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D27" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E27" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="F27" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="G27" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H27" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="B28" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="C28" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D28" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="E28" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="F28" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="G28" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="H28" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B29" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="C29" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D29" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="E29" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="F29" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="G29" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="H29" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B30" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="C30" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D30" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="E30" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="F30" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="G30" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="H30" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B31" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="C31" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D31" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="E31" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="F31" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="G31" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="H31" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="B32" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="C32" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D32" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="E32" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="F32" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="G32" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="H32" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B33" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="C33" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D33" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="E33" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="F33" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="G33" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="H33" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="B34" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="C34" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D34" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="E34" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="F34" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="G34" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="H34" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B35" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="C35" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D35" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="E35" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="F35" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="G35" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="H35" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B36" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="C36" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D36" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="E36" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="F36" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="G36" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="H36" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="B37" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="C37" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D37" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="E37" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="F37" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="G37" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="H37" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="B38" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="C38" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D38" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="E38" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="F38" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="G38" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="H38" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="B39" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="C39" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D39" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="E39" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="F39" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="G39" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="H39" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="B40" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="C40" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D40" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="E40" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="F40" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="G40" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="H40" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="B41" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="C41" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D41" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="E41" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="F41" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="G41" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="H41" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B42" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="C42" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D42" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="E42" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="F42" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="G42" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="H42" t="s">
-        <v>659</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -10948,7 +11467,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="E4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -10967,239 +11486,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>440</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>661</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>662</v>
-      </c>
-      <c r="F1" s="88" t="s">
-        <v>663</v>
-      </c>
-      <c r="G1" s="88" t="s">
-        <v>664</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>665</v>
-      </c>
-      <c r="I1" s="88" t="s">
-        <v>666</v>
+      <c r="B1" s="87" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>680</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>681</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>682</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>684</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>685</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72.75">
       <c r="A2" s="1" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57.75">
       <c r="A3" s="1" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57.75">
       <c r="A4" s="1" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="57.75">
       <c r="A5" s="1" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57.75">
       <c r="A6" s="1" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>688</v>
+        <v>708</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.75">
       <c r="A7" s="1" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -11209,734 +11728,1417 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1022E3-3F74-46AA-B758-95D78365467D}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54" style="97" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="64" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="94" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>701</v>
+    <row r="1" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>720</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="238.5" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>705</v>
-      </c>
-      <c r="C2" s="99" t="s">
-        <v>706</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>707</v>
+        <v>722</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57.75">
+      <c r="A2" s="100" t="s">
+        <v>726</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>729</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="93"/>
-    </row>
-    <row r="3" spans="1:7" ht="292.5" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>705</v>
-      </c>
-      <c r="C3" s="99" t="s">
-        <v>708</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>707</v>
+        <v>730</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>731</v>
+      </c>
+      <c r="G2" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="103" t="s">
+        <v>732</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.75">
+      <c r="A3" s="100" t="s">
+        <v>734</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>729</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="234.75" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>705</v>
-      </c>
-      <c r="C4" s="99" t="s">
-        <v>706</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>709</v>
+        <v>735</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>731</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="103" t="s">
+        <v>732</v>
+      </c>
+      <c r="I3" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.75">
+      <c r="A4" s="100" t="s">
+        <v>736</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>729</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="232.5" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>705</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>706</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>709</v>
+        <v>737</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>738</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>739</v>
+      </c>
+      <c r="H4" s="103" t="s">
+        <v>732</v>
+      </c>
+      <c r="I4" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.75">
+      <c r="A5" s="100" t="s">
+        <v>740</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>729</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="131.25" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>712</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>713</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>714</v>
+        <v>741</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>738</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>742</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>732</v>
+      </c>
+      <c r="I5" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.5">
+      <c r="A6" s="100" t="s">
+        <v>743</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>745</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="87">
-      <c r="A7" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>712</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>713</v>
-      </c>
-      <c r="D7" s="92" t="s">
-        <v>714</v>
+        <v>746</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>747</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>748</v>
+      </c>
+      <c r="H6" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.5">
+      <c r="A7" s="100" t="s">
+        <v>749</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>745</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="101.25">
-      <c r="A8" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>482</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>717</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="101.25">
-      <c r="A9" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>482</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>717</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>718</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>719</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>720</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>721</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>719</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>720</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>721</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="98.25" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>722</v>
-      </c>
-      <c r="C12" s="92" t="s">
-        <v>723</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>724</v>
+        <v>750</v>
+      </c>
+      <c r="F7" s="103" t="s">
+        <v>747</v>
+      </c>
+      <c r="G7" s="104" t="s">
+        <v>751</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45.75">
+      <c r="A8" s="100" t="s">
+        <v>752</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>753</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>754</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>755</v>
+      </c>
+      <c r="G8" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>732</v>
+      </c>
+      <c r="I8" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45.75">
+      <c r="A9" s="100" t="s">
+        <v>756</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>753</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>757</v>
+      </c>
+      <c r="F9" s="103" t="s">
+        <v>755</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="103" t="s">
+        <v>732</v>
+      </c>
+      <c r="I9" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.5">
+      <c r="A10" s="100" t="s">
+        <v>758</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>760</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>761</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>762</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.5">
+      <c r="A11" s="100" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>760</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>764</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>762</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60.75">
+      <c r="A12" s="100" t="s">
+        <v>765</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>767</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="98.25" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="B13" s="95" t="s">
-        <v>722</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>723</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>724</v>
+        <v>768</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>769</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="103" t="s">
+        <v>770</v>
+      </c>
+      <c r="I12" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60.75">
+      <c r="A13" s="100" t="s">
+        <v>771</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>767</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="101.25">
-      <c r="A14" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="B14" s="95" t="s">
-        <v>725</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>726</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>727</v>
+        <v>772</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>769</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="103" t="s">
+        <v>770</v>
+      </c>
+      <c r="I13" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60.75">
+      <c r="A14" s="100" t="s">
+        <v>773</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>775</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="101.25">
-      <c r="A15" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="B15" s="95" t="s">
-        <v>725</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>726</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>727</v>
+        <v>776</v>
+      </c>
+      <c r="F14" s="103" t="s">
+        <v>777</v>
+      </c>
+      <c r="G14" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="103" t="s">
+        <v>770</v>
+      </c>
+      <c r="I14" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60.75">
+      <c r="A15" s="100" t="s">
+        <v>778</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>775</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="105" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="B16" s="95" t="s">
-        <v>729</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>730</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>731</v>
+        <v>780</v>
+      </c>
+      <c r="F15" s="103" t="s">
+        <v>777</v>
+      </c>
+      <c r="G15" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>770</v>
+      </c>
+      <c r="I15" s="108" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45.75">
+      <c r="A16" s="100" t="s">
+        <v>781</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>784</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="105" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>729</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>730</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>731</v>
+        <v>785</v>
+      </c>
+      <c r="F16" s="103" t="s">
+        <v>786</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>787</v>
+      </c>
+      <c r="H16" s="103" t="s">
+        <v>788</v>
+      </c>
+      <c r="I16" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45.75">
+      <c r="A17" s="100" t="s">
+        <v>790</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>784</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="101.25">
-      <c r="A18" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="B18" s="95" t="s">
+        <v>791</v>
+      </c>
+      <c r="F17" s="103" t="s">
+        <v>786</v>
+      </c>
+      <c r="G17" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="103" t="s">
+        <v>788</v>
+      </c>
+      <c r="I17" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60.75">
+      <c r="A18" s="100" t="s">
+        <v>792</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="F18" s="103" t="s">
+        <v>796</v>
+      </c>
+      <c r="G18" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="103" t="s">
+        <v>788</v>
+      </c>
+      <c r="I18" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60.75">
+      <c r="A19" s="100" t="s">
+        <v>797</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="F19" s="103" t="s">
+        <v>796</v>
+      </c>
+      <c r="G19" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="103" t="s">
+        <v>788</v>
+      </c>
+      <c r="I19" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45.75">
+      <c r="A20" s="100" t="s">
+        <v>800</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>805</v>
+      </c>
+      <c r="G20" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="103" t="s">
+        <v>788</v>
+      </c>
+      <c r="I20" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45.75">
+      <c r="A21" s="100" t="s">
+        <v>806</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="F21" s="103" t="s">
+        <v>805</v>
+      </c>
+      <c r="G21" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="103" t="s">
+        <v>788</v>
+      </c>
+      <c r="I21" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45.75">
+      <c r="A22" s="100" t="s">
+        <v>808</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="F22" s="103" t="s">
+        <v>810</v>
+      </c>
+      <c r="G22" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="103" t="s">
+        <v>811</v>
+      </c>
+      <c r="I22" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45.75">
+      <c r="A23" s="100" t="s">
+        <v>812</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="F23" s="103" t="s">
+        <v>810</v>
+      </c>
+      <c r="G23" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="103" t="s">
+        <v>811</v>
+      </c>
+      <c r="I23" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="57.75">
+      <c r="A24" s="100" t="s">
+        <v>814</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="F24" s="103" t="s">
+        <v>816</v>
+      </c>
+      <c r="G24" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45.75">
+      <c r="A25" s="100" t="s">
+        <v>817</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="F25" s="103" t="s">
+        <v>816</v>
+      </c>
+      <c r="G25" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="76.5">
+      <c r="A26" s="100" t="s">
+        <v>819</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="F26" s="103" t="s">
+        <v>823</v>
+      </c>
+      <c r="G26" s="104" t="s">
+        <v>824</v>
+      </c>
+      <c r="H26" s="103" t="s">
+        <v>825</v>
+      </c>
+      <c r="I26" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60.75">
+      <c r="A27" s="100" t="s">
+        <v>826</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="F27" s="103" t="s">
+        <v>828</v>
+      </c>
+      <c r="G27" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="103" t="s">
+        <v>825</v>
+      </c>
+      <c r="I27" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="60.75">
+      <c r="A28" s="100" t="s">
+        <v>829</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="F28" s="103" t="s">
+        <v>831</v>
+      </c>
+      <c r="G28" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.5">
+      <c r="A29" s="100" t="s">
+        <v>832</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="F29" s="103" t="s">
+        <v>836</v>
+      </c>
+      <c r="G29" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45.75">
+      <c r="A30" s="100" t="s">
+        <v>837</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="F30" s="103" t="s">
+        <v>839</v>
+      </c>
+      <c r="G30" s="104" t="s">
+        <v>824</v>
+      </c>
+      <c r="H30" s="103" t="s">
+        <v>825</v>
+      </c>
+      <c r="I30" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45.75">
+      <c r="A31" s="100" t="s">
+        <v>840</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>844</v>
+      </c>
+      <c r="G31" s="104" t="s">
+        <v>845</v>
+      </c>
+      <c r="H31" s="103" t="s">
+        <v>825</v>
+      </c>
+      <c r="I31" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="43.5">
+      <c r="A32" s="100" t="s">
+        <v>846</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="F32" s="103" t="s">
+        <v>844</v>
+      </c>
+      <c r="G32" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="43.5">
+      <c r="A33" s="100" t="s">
+        <v>848</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="F33" s="103" t="s">
+        <v>850</v>
+      </c>
+      <c r="G33" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="109" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="57.75">
+      <c r="A34" s="100" t="s">
+        <v>851</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>856</v>
+      </c>
+      <c r="G34" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="103" t="s">
+        <v>857</v>
+      </c>
+      <c r="I34" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="57.75">
+      <c r="A35" s="100" t="s">
+        <v>858</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="F35" s="103" t="s">
+        <v>860</v>
+      </c>
+      <c r="G35" s="104" t="s">
+        <v>861</v>
+      </c>
+      <c r="H35" s="103" t="s">
+        <v>857</v>
+      </c>
+      <c r="I35" s="108" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="43.5">
+      <c r="A36" s="100" t="s">
+        <v>862</v>
+      </c>
+      <c r="B36" s="97" t="s">
+        <v>852</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="F36" s="103" t="s">
+        <v>866</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>867</v>
+      </c>
+      <c r="H36" s="103" t="s">
+        <v>868</v>
+      </c>
+      <c r="I36" s="110" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45.75">
+      <c r="A37" s="100" t="s">
+        <v>869</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="F37" s="103" t="s">
+        <v>871</v>
+      </c>
+      <c r="G37" s="107" t="s">
+        <v>872</v>
+      </c>
+      <c r="H37" s="103" t="s">
+        <v>868</v>
+      </c>
+      <c r="I37" s="111" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="60.75">
+      <c r="A38" s="100" t="s">
+        <v>873</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="F38" s="103" t="s">
+        <v>875</v>
+      </c>
+      <c r="G38" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="103" t="s">
+        <v>876</v>
+      </c>
+      <c r="I38" s="111" t="s">
         <v>733</v>
       </c>
-      <c r="C18" s="92" t="s">
-        <v>734</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>735</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="101.25">
-      <c r="A19" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="B19" s="95" t="s">
+    </row>
+    <row r="39" spans="1:9" ht="60.75">
+      <c r="A39" s="100" t="s">
+        <v>877</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="F39" s="103" t="s">
+        <v>875</v>
+      </c>
+      <c r="G39" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="103" t="s">
+        <v>876</v>
+      </c>
+      <c r="I39" s="111" t="s">
         <v>733</v>
       </c>
-      <c r="C19" s="92" t="s">
-        <v>734</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>735</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="122.25" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B20" s="95" t="s">
-        <v>737</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>738</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>739</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="122.25" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B21" s="95" t="s">
-        <v>737</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>738</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>739</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="122.25" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>737</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>738</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>740</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="122.25" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B23" s="95" t="s">
-        <v>737</v>
-      </c>
-      <c r="C23" s="92" t="s">
-        <v>738</v>
-      </c>
-      <c r="D23" s="92" t="s">
-        <v>740</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="122.25" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B24" s="95" t="s">
-        <v>737</v>
-      </c>
-      <c r="C24" s="92" t="s">
-        <v>738</v>
-      </c>
-      <c r="D24" s="92" t="s">
-        <v>741</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="122.25" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B25" s="95" t="s">
-        <v>737</v>
-      </c>
-      <c r="C25" s="92" t="s">
-        <v>738</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>741</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="116.25" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B26" s="95" t="s">
-        <v>742</v>
-      </c>
-      <c r="C26" s="92" t="s">
-        <v>743</v>
-      </c>
-      <c r="D26" s="92" t="s">
-        <v>744</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="101.25">
-      <c r="A27" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B27" s="95" t="s">
-        <v>742</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>743</v>
-      </c>
-      <c r="D27" s="92" t="s">
-        <v>746</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="101.25">
-      <c r="A28" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B28" s="95" t="s">
-        <v>742</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>743</v>
-      </c>
-      <c r="D28" s="92" t="s">
-        <v>747</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="150" customHeight="1">
-      <c r="A29" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B29" s="95" t="s">
-        <v>748</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>749</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>750</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="150" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B30" s="95" t="s">
-        <v>748</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>749</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>751</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="101.25">
-      <c r="A31" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>752</v>
-      </c>
-      <c r="C31" s="92" t="s">
-        <v>753</v>
-      </c>
-      <c r="D31" s="92" t="s">
-        <v>754</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="101.25">
-      <c r="A32" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B32" s="95" t="s">
-        <v>752</v>
-      </c>
-      <c r="C32" s="92" t="s">
-        <v>753</v>
-      </c>
-      <c r="D32" s="92" t="s">
-        <v>754</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="101.25">
-      <c r="A33" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="B33" s="95" t="s">
-        <v>752</v>
-      </c>
-      <c r="C33" s="92" t="s">
-        <v>753</v>
-      </c>
-      <c r="D33" s="100" t="s">
-        <v>756</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="115.5">
-      <c r="A34" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="B34" s="95" t="s">
-        <v>758</v>
-      </c>
-      <c r="C34" s="92" t="s">
-        <v>759</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>760</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="144.75" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="B35" s="95" t="s">
-        <v>758</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>759</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>761</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="115.5">
-      <c r="A36" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="B36" s="96" t="s">
-        <v>763</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="115.5">
-      <c r="A37" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="B37" s="96" t="s">
-        <v>763</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="D37" s="103" t="s">
-        <v>767</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="101"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="104"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="36"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="36"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="36"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="93"/>
-    </row>
-    <row r="46" spans="1:5" ht="75" customHeight="1">
-      <c r="A46"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="93"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="93"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="36"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="93"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="93"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="93"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="93"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="36"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="93"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="93"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="36"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="93"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55"/>
-      <c r="B55" s="98"/>
-      <c r="C55" s="93"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="36"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="93"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="93"/>
+    </row>
+    <row r="40" spans="1:9" ht="60.75">
+      <c r="A40" s="100" t="s">
+        <v>879</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="F40" s="103" t="s">
+        <v>875</v>
+      </c>
+      <c r="G40" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="103" t="s">
+        <v>881</v>
+      </c>
+      <c r="I40" s="111" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="57.75">
+      <c r="A41" s="100" t="s">
+        <v>882</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="F41" s="103" t="s">
+        <v>887</v>
+      </c>
+      <c r="G41" s="107" t="s">
+        <v>369</v>
+      </c>
+      <c r="H41" s="103" t="s">
+        <v>888</v>
+      </c>
+      <c r="I41" s="111" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="57.75">
+      <c r="A42" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="F42" s="103" t="s">
+        <v>894</v>
+      </c>
+      <c r="G42" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="103" t="s">
+        <v>888</v>
+      </c>
+      <c r="I42" s="111" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45.75">
+      <c r="A43" s="100" t="s">
+        <v>895</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="F43" s="103" t="s">
+        <v>900</v>
+      </c>
+      <c r="G43" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="103" t="s">
+        <v>901</v>
+      </c>
+      <c r="I43" s="111" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="43.5">
+      <c r="A44" s="100" t="s">
+        <v>902</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="F44" s="103" t="s">
+        <v>907</v>
+      </c>
+      <c r="G44" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="103" t="s">
+        <v>908</v>
+      </c>
+      <c r="I44" s="111" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="57.75">
+      <c r="A45" s="100" t="s">
+        <v>909</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>910</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="F45" s="103" t="s">
+        <v>914</v>
+      </c>
+      <c r="G45" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="103" t="s">
+        <v>655</v>
+      </c>
+      <c r="I45" s="111" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="102"/>
+      <c r="B46"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="102"/>
+      <c r="B47"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="101"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="102"/>
+      <c r="B49"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="101"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="102"/>
+      <c r="B51"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="101"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="102"/>
+      <c r="B53"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="101"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="102"/>
+      <c r="B55"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="101"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="102"/>
+      <c r="B57"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
